--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1368E9-58F9-4496-A894-7FE32B2D1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2018647-362D-4D20-959A-F0930511D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Descrição</t>
   </si>
@@ -1907,6 +1907,511 @@
   </si>
   <si>
     <t>.split() ---&gt; Serve pra separar a frase em uma lista, no caso imprimento o separa(0) irá imprimir o 1º nome da lista</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia uma frase pelo teclado e mostre quantas vezes aparece a letra “A”, 
+em que posição ela aparece a primeira vez e em que posição ela aparece a última vez.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">frase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite uma frase: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A letra A aparece </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> vezes na frase.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(frase.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'A'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A primeira letra A apareceu na posição </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(frase.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'A'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A última letra A apareceu na posição </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(frase.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rfind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'A'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex026</t>
   </si>
 </sst>
 </file>
@@ -2317,9 +2822,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2367,7 +2869,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2394,6 +2896,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,10 +2912,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2723,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A54"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,180 +3242,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2918,8 +3423,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2927,8 +3432,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2939,8 +3444,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2948,8 +3453,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="32"/>
+      <c r="B45" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2957,74 +3462,74 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="27" t="s">
+      <c r="A48" s="32"/>
+      <c r="B48" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="32"/>
+      <c r="B49" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="32"/>
+      <c r="B52" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="27"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="32"/>
+      <c r="B58" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3032,14 +3537,14 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="32"/>
+      <c r="B59" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="32"/>
+      <c r="B60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3047,66 +3552,66 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="32"/>
+      <c r="B61" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="32"/>
+      <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="32"/>
+      <c r="B65" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="32"/>
+      <c r="B71" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3114,8 +3619,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="32"/>
+      <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3123,19 +3628,19 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="7"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="16" t="s">
+      <c r="A74" s="32"/>
+      <c r="B74" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="27" t="s">
+      <c r="A75" s="32"/>
+      <c r="B75" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3143,8 +3648,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
-      <c r="B76" s="19" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3152,24 +3657,24 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="32"/>
+      <c r="B80" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3177,8 +3682,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="32"/>
+      <c r="B81" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3186,58 +3691,89 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="16" t="s">
+      <c r="A84" s="32"/>
+      <c r="B84" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
-      <c r="B85" s="17" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="30"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33"/>
+      <c r="B95" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A69:A76"/>
     <mergeCell ref="A78:A85"/>
     <mergeCell ref="A37:A54"/>
     <mergeCell ref="A56:A67"/>
+    <mergeCell ref="A87:A95"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2018647-362D-4D20-959A-F0930511D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC6140-50BB-4132-AE09-15E7867C0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-14400" yWindow="135" windowWidth="14400" windowHeight="15750" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Descrição</t>
   </si>
@@ -2412,13 +2412,171 @@
   </si>
   <si>
     <t>ex026</t>
+  </si>
+  <si>
+    <t>.count('A') ---&gt; Para contar quantas letras 'A' tem na frase</t>
+  </si>
+  <si>
+    <t>contar</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>.upper()   ---&gt; Serve para deixar os caracteres da frase(no caso) tudo com letras maiúsculas</t>
+  </si>
+  <si>
+    <t>.find('A') ---&gt; Serve para mostrar em qual posição a letra 'A' está. O +1 porque no Python a contagem começa com 0.</t>
+  </si>
+  <si>
+    <t>.rfind('A') ---&gt; Serve para mostrar em qual posição a letra 'A' está a partir do lado direito r(rigth) e o +1 é mesma coisa.</t>
+  </si>
+  <si>
+    <t>ex027</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o nome completo de uma pessoa, mostrando em seguida o primeiro e o último nome separadamente.</t>
+  </si>
+  <si>
+    <r>
+      <t>nome = str(input(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite o seu nome completo: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).strip()</t>
+    </r>
+  </si>
+  <si>
+    <t>separa = nome.split()</t>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Muito prazer em te conhecer!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Seu primeiro nome é {}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.format(separa[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Seu último nome é {}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.format(separa[len(separa)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]))</t>
+    </r>
+  </si>
+  <si>
+    <t>.format(separa[len(separa)-1])) ---&gt; Serve para inprimir o último nome da lista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2499,6 +2657,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2520,7 +2696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2810,11 +2986,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2902,6 +3091,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2911,8 +3103,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3228,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3585,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="29" t="s">
@@ -3398,23 +3593,23 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="22" t="s">
         <v>27</v>
       </c>
@@ -3423,7 +3618,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="22" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3627,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="22" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3639,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="21" t="s">
         <v>30</v>
       </c>
@@ -3453,7 +3648,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="24" t="s">
         <v>31</v>
       </c>
@@ -3462,53 +3657,53 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="27"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3516,7 +3711,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="29" t="s">
@@ -3524,11 +3719,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="8" t="s">
         <v>4</v>
       </c>
@@ -3537,13 +3732,13 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="7" t="s">
         <v>6</v>
       </c>
@@ -3552,43 +3747,43 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="13" t="s">
         <v>13</v>
       </c>
@@ -3598,7 +3793,7 @@
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="29" t="s">
@@ -3606,11 +3801,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="7" t="s">
         <v>16</v>
       </c>
@@ -3619,7 +3814,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
@@ -3628,18 +3823,18 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="7"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="26" t="s">
         <v>48</v>
       </c>
@@ -3648,7 +3843,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="18" t="s">
         <v>21</v>
       </c>
@@ -3661,7 +3856,7 @@
       <c r="B77" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="29" t="s">
@@ -3669,11 +3864,11 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="7" t="s">
         <v>22</v>
       </c>
@@ -3681,8 +3876,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
       <c r="B81" s="11" t="s">
         <v>23</v>
       </c>
@@ -3690,22 +3885,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="33"/>
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
       <c r="B84" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33"/>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="34"/>
       <c r="B85" s="16" t="s">
         <v>24</v>
       </c>
@@ -3713,67 +3908,175 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
+    <row r="87" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
       <c r="B89" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
       <c r="B90" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
       <c r="B91" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
       <c r="B92" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="15" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="33"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="34"/>
+      <c r="B99" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+      <c r="B103" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
+      <c r="B106" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="33"/>
+      <c r="B107" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="33"/>
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="33"/>
+      <c r="B109" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="33"/>
+      <c r="B110" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="33"/>
+      <c r="B111" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="34"/>
+      <c r="B113" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A101:A113"/>
     <mergeCell ref="A69:A76"/>
     <mergeCell ref="A78:A85"/>
     <mergeCell ref="A37:A54"/>
     <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A87:A99"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC6140-50BB-4132-AE09-15E7867C0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BAE87C-FA01-4BF5-A587-67D018F36E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="135" windowWidth="14400" windowHeight="15750" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>Descrição</t>
   </si>
@@ -2438,13 +2438,2319 @@
     <t>Faça um programa que leia o nome completo de uma pessoa, mostrando em seguida o primeiro e o último nome separadamente.</t>
   </si>
   <si>
-    <r>
-      <t>nome = str(input(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
+    <t>.format(separa[len(separa)-1])) ---&gt; Serve para inprimir o último nome da lista</t>
+  </si>
+  <si>
+    <t>ex021</t>
+  </si>
+  <si>
+    <t>Faça um programa em Python que abra e reproduza o áudio de um arquivo MP3.</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pygame</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pygame.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pygame.mixer.music.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ex021.mp3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pygame.mixer.music.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pygame.event.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <t>ex020</t>
+  </si>
+  <si>
+    <t>O mesmo professor do desafio 19 quer sortear a ordem de apresentação de trabalhos dos alunos. 
+Faça um programa que leia o nome dos quatro alunos e mostre a ordem sorteada.</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> random </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> shuffle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeiro aluno (a): '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Segundo aluno (a): '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Terceiro aluno (a): '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quarto aluno (a): '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lista </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [a1, a2, a3, a4]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shuffle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(lista)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A ordem de apresentação será: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(lista))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs.: </t>
+  </si>
+  <si>
+    <t>From random import shuffle ---&gt; Para importar o módulo shuffle dentro da biblioteca random</t>
+  </si>
+  <si>
+    <t>ex019</t>
+  </si>
+  <si>
+    <t>Um professor quer sortear um dos seus quatro alunos para apagar o quadro. 
+Faça um programa que ajude ele, lendo o nome dos alunos e escrevendo na tela o nome do escolhido.</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> random </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> choice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeiro aluno: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Segundo aluno: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Terceiro aluno:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quarto aluno: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lista </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [n1, n2, n3, n4]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">escolhido </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>choice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(lista)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O aluno escolhido foi: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(escolhido))</t>
+    </r>
+  </si>
+  <si>
+    <t>From random import choice ---&gt; Para importar o módulo choice dentro da biblioteca random</t>
+  </si>
+  <si>
+    <t>choice(lista) ---&gt; Para sortear de forma aleaória um dos dados da lista.</t>
+  </si>
+  <si>
+    <t>shuffle(lista) ---&gt; Para embaralhar a ordem da lista.</t>
+  </si>
+  <si>
+    <t>embaralhar</t>
+  </si>
+  <si>
+    <t>desordenar</t>
+  </si>
+  <si>
+    <t>shuffle</t>
+  </si>
+  <si>
+    <t>ramdom</t>
+  </si>
+  <si>
+    <t>sortear</t>
+  </si>
+  <si>
+    <t>aleatório</t>
+  </si>
+  <si>
+    <t>musida</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>ex018</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um ângulo qualquer e mostre na tela o valor do seno, cosseno e tangente desse ângulo.</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> math </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> radians, sin, cos, tan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ang </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite o ângulo que você deseja: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">seno </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>radians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ang))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>radians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ang))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>radians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ang))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O ângulo de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tem o SENO de: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ang, seno))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O ângulo de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tem o COSSENO de: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ang, cos))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O ângulo de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tem a TANGENTE de: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ang, tan))</t>
+    </r>
+  </si>
+  <si>
+    <t>seno</t>
+  </si>
+  <si>
+    <t>cosseno</t>
+  </si>
+  <si>
+    <t>tangente</t>
+  </si>
+  <si>
+    <t>ex017</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o comprimento do cateto oposto e do cateto adjacente de um triângulo retângulo. 
+Calcule e mostre o comprimento da hipotenusa.</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> math </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> hypot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">co </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Comprimento do cateto oposto: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Comprimento do cateto adjacente: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hypot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(co, ca)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A hipotenusa vai medir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(hi))</t>
+    </r>
+  </si>
+  <si>
+    <t>from math import hypot ---&gt; Para importar o módulo matemático - hipotenusa</t>
+  </si>
+  <si>
+    <t>ex016</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia um número Real qualquer pelo teclado e mostre na tela a sua porção Inteira.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um valor: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O valor digitado foi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> e sua porção inteira é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num)))</t>
+    </r>
+  </si>
+  <si>
+    <t>Obs.: Esse é o exemplo utilizando uma fórmula matemática, no vscode têm mais exemplos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -2453,24 +4759,48 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)).strip()</t>
-    </r>
-  </si>
-  <si>
-    <t>separa = nome.split()</t>
-  </si>
-  <si>
-    <r>
-      <t>print(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -2479,7 +4809,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
+        <color rgb="FFE1E1E6"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -2488,30 +4818,75 @@
   </si>
   <si>
     <r>
-      <t>print(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Seu primeiro nome é {}'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.format(separa[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Seu primeiro nome é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(separa[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -2520,7 +4895,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
+        <color rgb="FFE1E1E6"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -2529,30 +4904,102 @@
   </si>
   <si>
     <r>
-      <t>print(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Seu último nome é {}'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.format(separa[len(separa)-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB5CEA8"/>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Seu último nome é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(separa[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(separa)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -2561,22 +5008,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
+        <color rgb="FFE1E1E6"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
       <t>]))</t>
     </r>
-  </si>
-  <si>
-    <t>.format(separa[len(separa)-1])) ---&gt; Serve para inprimir o último nome da lista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2659,19 +5103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB5CEA8"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -2696,7 +5128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2999,11 +5431,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3094,6 +5539,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3103,10 +5551,31 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3423,10 +5892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A113"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,637 +5915,1070 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="B3" s="37"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="37"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="37"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="37"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="37"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="37"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="37"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="37"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="37"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="37"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="37"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="37"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="B34" s="37"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="37"/>
+    </row>
+    <row r="43" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="37"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="34"/>
+      <c r="B58" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="34"/>
+      <c r="B59" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="34"/>
+      <c r="B60" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
+      <c r="B61" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
+      <c r="B63" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="34"/>
+      <c r="B64" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="37"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="37"/>
+    </row>
+    <row r="68" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="34"/>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="34"/>
+      <c r="B70" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="34"/>
+      <c r="B71" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="34"/>
+      <c r="B72" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="34"/>
+      <c r="B73" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="34"/>
+      <c r="B74" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="34"/>
+      <c r="B76" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="34"/>
+      <c r="B77" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="34"/>
+      <c r="B79" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="34"/>
+      <c r="B80" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="35"/>
+      <c r="B81" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="34"/>
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="34"/>
+      <c r="B85" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="34"/>
+      <c r="B86" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="34"/>
+      <c r="B87" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="34"/>
+      <c r="B88" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="34"/>
+      <c r="B89" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="34"/>
+      <c r="B90" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="34"/>
+      <c r="B91" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="34"/>
+      <c r="B92" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="34"/>
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="34"/>
+      <c r="B95" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="35"/>
+      <c r="B96" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="34"/>
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
+      <c r="B100" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="34"/>
+      <c r="B101" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="B102" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="34"/>
+      <c r="B103" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="34"/>
+      <c r="B104" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="35"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B107" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="21" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="34"/>
+      <c r="B108" s="21"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="34"/>
+      <c r="B109" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="22" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="22" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="34"/>
+      <c r="B111" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="22" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
+      <c r="B112" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="22" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="34"/>
+      <c r="B113" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="21" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="34"/>
+      <c r="B114" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="24" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="34"/>
+      <c r="B115" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="25" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="34"/>
+      <c r="B116" s="22"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="34"/>
+      <c r="B117" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="26" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="34"/>
+      <c r="B118" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="23" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="34"/>
+      <c r="B119" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="23" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="34"/>
+      <c r="B120" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="23" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="34"/>
+      <c r="B121" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="23" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="34"/>
+      <c r="B122" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="23" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="34"/>
+      <c r="B123" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="27"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="35"/>
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="17"/>
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B126" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="8" t="s">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="34"/>
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="34"/>
+      <c r="B128" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="9" t="s">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="34"/>
+      <c r="B129" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="7" t="s">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="34"/>
+      <c r="B130" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="10" t="s">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="34"/>
+      <c r="B131" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="9" t="s">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="34"/>
+      <c r="B132" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="11" t="s">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="34"/>
+      <c r="B133" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="12" t="s">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="34"/>
+      <c r="B134" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="12" t="s">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="34"/>
+      <c r="B135" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="12" t="s">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="34"/>
+      <c r="B136" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="13" t="s">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="35"/>
+      <c r="B137" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="28"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B139" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="7" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="34"/>
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="34"/>
+      <c r="B141" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="11" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="34"/>
+      <c r="B142" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="15" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="34"/>
+      <c r="B143" s="7"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="34"/>
+      <c r="B144" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="26" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="34"/>
+      <c r="B145" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="18" t="s">
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="35"/>
+      <c r="B146" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="14"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
+    <row r="147" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="28"/>
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B148" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="7" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="34"/>
+      <c r="B149" s="7"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="34"/>
+      <c r="B150" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="11" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="34"/>
+      <c r="B151" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="15" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="34"/>
+      <c r="B152" s="7"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="34"/>
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="34"/>
+      <c r="B154" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="16" t="s">
+    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="35"/>
+      <c r="B155" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="30"/>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32" t="s">
+    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="30"/>
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B157" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="7" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="34"/>
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="34"/>
+      <c r="B159" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="11" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="34"/>
+      <c r="B160" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="11" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="34"/>
+      <c r="B161" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="11" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="34"/>
+      <c r="B162" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="7" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="34"/>
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="34"/>
+      <c r="B164" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="15" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="34"/>
+      <c r="B165" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="35" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="34"/>
+      <c r="B166" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="35" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="34"/>
+      <c r="B167" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="26" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="34"/>
+      <c r="B168" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="18" t="s">
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="35"/>
+      <c r="B169" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="32" t="s">
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B171" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="7"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="36" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="34"/>
+      <c r="B172" s="44"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="34"/>
+      <c r="B173" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="34"/>
+      <c r="B174" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="34"/>
+      <c r="B175" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="34"/>
+      <c r="B176" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="34"/>
+      <c r="B177" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="34"/>
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="34"/>
+      <c r="B179" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="34"/>
+      <c r="B180" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="34"/>
+      <c r="B181" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="34"/>
+      <c r="B182" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
-      <c r="B107" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="7"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
-      <c r="B109" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="33"/>
-      <c r="B110" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
-      <c r="B111" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
-      <c r="B113" s="18"/>
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="35"/>
+      <c r="B183" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A101:A113"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A37:A54"/>
-    <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A87:A99"/>
+  <mergeCells count="12">
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="A83:A96"/>
+    <mergeCell ref="A68:A81"/>
+    <mergeCell ref="A55:A65"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A171:A183"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A148:A155"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A126:A137"/>
+    <mergeCell ref="A157:A169"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BAE87C-FA01-4BF5-A587-67D018F36E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991F8DB-33CB-4E23-9731-265808DA6A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="231">
   <si>
     <t>Descrição</t>
   </si>
@@ -5013,6 +5013,5617 @@
         <family val="3"/>
       </rPr>
       <t>]))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex015</t>
+  </si>
+  <si>
+    <t>Escreva um programa que pergunte a quantidade de Km percorridos por um carro alugado e a quantidade de dias pelos quais ele foi alugado. Calcule o preço a pagar, sabendo que o carro custa R$60 por dia e R$0,15 por Km rodado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dias </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Por quantos dias ele foi alugado: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">km </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quantos km percorreu com o carro: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (dias </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (km </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Total a pagar = R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(total))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex014</t>
+  </si>
+  <si>
+    <t>Escreva um programa que converta uma temperatura digitando em graus Celsius e converta para graus Fahrenheit.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">grausC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual a temperatura em °C: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">grausF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> grausC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">°C equivale à: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.1f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>°F.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(grausC, grausF))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex013</t>
+  </si>
+  <si>
+    <t>Faça um algoritmo que leia o salário de um funcionário e mostre seu novo salário, com 15% de aumento.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">salarioAtual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual o valor do salário? R$'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">novoSalario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salarioAtual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (salarioAtual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Seu salário com 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e aumento ficará no valor de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(novoSalario))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex012</t>
+  </si>
+  <si>
+    <t>Faça um algoritmo que leia o preço de um produto e mostre seu novo preço, com 5% de desconto.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">preco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite o valor: R$'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">novoPreco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> preco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (preco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'O valor com 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">e desconto é: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(novoPreco))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex011</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia a largura e a altura de uma parede em metros, calcule a sua área e a quantidade de tinta necessária para pintá-la, sabendo que cada litro de tinta pinta uma área de 2 metros quadrados.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual a altura da parede? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual a largura da parede? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Sua parede tem uma área de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> metros quadrados.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(area))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Você irá gastar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> litros de tinta pra pintar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex010</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia quanto dinheiro uma pessoa tem na carteira e mostre quantos dólares ela pode comprar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Valor em Reais: R$'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dolar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> reais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Com o valor de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, você poderá comprar: US$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(reais, dolar))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex009</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um número Inteiro qualquer e mostre na tela a sua tabuada.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número inteiro: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Abaixo está a tabuada do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x4=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x5=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x6=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x7=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x8=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x9=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x10=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex008</t>
+  </si>
+  <si>
+    <t>Escreva um programa que leia um valor em metros e o exiba convertido em centímetros e milímetros.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quantos metros? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> mt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> mt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> metros tem: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.0f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> centímetros, ou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.0f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> milímetros.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(mt, cm, mm))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex007</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia as duas notas de um aluno, calcule e mostre a sua média.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nota1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeira nota: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nota2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Segunda nota: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">media </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (nota1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nota2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Média: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(media))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex006</t>
+  </si>
+  <si>
+    <t>Crie um algoritmo que leia um número e mostre o seu dobro, triplo e raiz quadrada.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dobr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trip </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">raiz </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O dobro de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n, dobr))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O triplo de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n, trip))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A raiz quadrada de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n, raiz))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex005</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um número Inteiro e mostre na tela o seu sucessor e seu antecessor.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número inteiro: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">suc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O antecessor de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> e o sucessor é o: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n, ant, suc))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um algo: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'O tipo primitivo desse valor é: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(a))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Só tem espaços? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isspace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'É um número? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isnumeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'É alphabético? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isalpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'É alphanumérico? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isalnum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Está com letras maiúsculas? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isupper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Está com letras minúsculas? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>islower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Está capitalizada? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>istitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <t>ex003</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia algo pelo teclado e mostre na tela o seu tipo primitivo e todas as informações possíveis sobre ele.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite outro número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">soma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O resultado de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n01, n02, soma))</t>
+    </r>
+  </si>
+  <si>
+    <t>Crie um programa que leia dois números e mostre a soma entre eles.</t>
+  </si>
+  <si>
+    <t>ex002</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o nome de uma pessoa e mostre uma mensagem de boas-vindas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Olá! Qual é o seu nome?'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Prazer em te conhecer, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(nome))</t>
     </r>
   </si>
 </sst>
@@ -5542,20 +11153,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5577,6 +11176,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5892,11 +11503,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:A183"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5905,7 +11514,7 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5913,1072 +11522,1640 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="37"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="37"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="37"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="37"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="37"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="37"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="37"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="37"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="37"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="37"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="37"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="37"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="37"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="37"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="37"/>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="11" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="11" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="11" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="37"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="37"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="33"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="37"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="37"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="37"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="37"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="37"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="37"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="37"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="44"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="44"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="33"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="44"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="43"/>
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="44"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="B77" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="33"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="44"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="44"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="43"/>
+      <c r="B86" s="33"/>
+    </row>
+    <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
+      <c r="B87" s="44"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="42"/>
+      <c r="B90" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42"/>
+      <c r="B91" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
+      <c r="B92" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="42"/>
+      <c r="B93" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42"/>
+      <c r="B94" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="43"/>
+      <c r="B95" s="33"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="44"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="42"/>
+      <c r="B99" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="42"/>
+      <c r="B100" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="42"/>
+      <c r="B101" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="43"/>
+      <c r="B102" s="33"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="42"/>
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
+      <c r="B106" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
+      <c r="B107" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
+      <c r="B108" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="43"/>
+      <c r="B109" s="33"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="42"/>
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="42"/>
+      <c r="B113" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="42"/>
+      <c r="B114" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42"/>
+      <c r="B115" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="43"/>
+      <c r="B116" s="33"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="42"/>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="42"/>
+      <c r="B120" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="42"/>
+      <c r="B121" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="42"/>
+      <c r="B122" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="42"/>
+      <c r="B123" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="43"/>
+      <c r="B124" s="33"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B126" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="7" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="42"/>
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="42"/>
+      <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="11" t="s">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="42"/>
+      <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="42" t="s">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="42"/>
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="42"/>
+      <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="37"/>
-    </row>
-    <row r="43" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+    <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="43"/>
+      <c r="B132" s="33"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
+    </row>
+    <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B134" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="38" t="s">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="42"/>
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="42"/>
+      <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="7" t="s">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="42"/>
+      <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="7" t="s">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="42"/>
+      <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="7" t="s">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="42"/>
+      <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="11" t="s">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="42"/>
+      <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="11" t="s">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="42"/>
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="42"/>
+      <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="43" t="s">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="42"/>
+      <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="37"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+    <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="43"/>
+      <c r="B144" s="33"/>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B146" s="31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="38" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="42"/>
+      <c r="B147" s="7"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="42"/>
+      <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="7" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="42"/>
+      <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="7" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="42"/>
+      <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="7" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="42"/>
+      <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="7" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="42"/>
+      <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="11" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="42"/>
+      <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="11" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="42"/>
+      <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="43" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="42"/>
+      <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="2" t="s">
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="43"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="37"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="37"/>
-    </row>
-    <row r="68" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+    </row>
+    <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B159" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="38" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="42"/>
+      <c r="B160" s="7"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="42"/>
+      <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="7" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="42"/>
+      <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="7" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="42"/>
+      <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="7" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="42"/>
+      <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="7" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="42"/>
+      <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="7" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="42"/>
+      <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="7" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="42"/>
+      <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="11" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="42"/>
+      <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="40" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="42"/>
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="42"/>
+      <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="41" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="42"/>
+      <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="36" t="s">
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="43"/>
+      <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33" t="s">
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+    </row>
+    <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B174" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="38" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="42"/>
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="42"/>
+      <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="7" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="42"/>
+      <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="7" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="42"/>
+      <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="7" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="42"/>
+      <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="7" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="42"/>
+      <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="7" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="42"/>
+      <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="39" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="42"/>
+      <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="B92" s="11" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="42"/>
+      <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="40" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="42"/>
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="42"/>
+      <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="41" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="42"/>
+      <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="35"/>
-      <c r="B96" s="36" t="s">
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="43"/>
+      <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B189" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="B100" s="38" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="42"/>
+      <c r="B190" s="7"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="42"/>
+      <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="7" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="42"/>
+      <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="7" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="42"/>
+      <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="7" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="42"/>
+      <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="11" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="42"/>
+      <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="35"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="2" t="s">
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="43"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B198" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="21"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="21" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="42"/>
+      <c r="B199" s="21"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="42"/>
+      <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="22" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="42"/>
+      <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="22" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="42"/>
+      <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="22" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="42"/>
+      <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="22" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="42"/>
+      <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D204" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="21" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="42"/>
+      <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="24" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="42"/>
+      <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="22"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
-      <c r="B117" s="25" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="42"/>
+      <c r="B207" s="22"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="42"/>
+      <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="26" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="42"/>
+      <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
-      <c r="B119" s="23" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="42"/>
+      <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
-      <c r="B120" s="23" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="42"/>
+      <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
-      <c r="B121" s="23" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="42"/>
+      <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
-      <c r="B122" s="23" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="42"/>
+      <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
-      <c r="B123" s="23" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="42"/>
+      <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="35"/>
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="20"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="33" t="s">
+    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="43"/>
+      <c r="B215" s="27"/>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="17"/>
+      <c r="B216" s="20"/>
+    </row>
+    <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B217" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
-      <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
-      <c r="B128" s="8" t="s">
+    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="42"/>
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="42"/>
+      <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="9" t="s">
+    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="42"/>
+      <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
-      <c r="B130" s="7" t="s">
+    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="42"/>
+      <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="10" t="s">
+    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="42"/>
+      <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="9" t="s">
+    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="42"/>
+      <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
-      <c r="B133" s="11" t="s">
+    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="42"/>
+      <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="34"/>
-      <c r="B134" s="12" t="s">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="42"/>
+      <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
-      <c r="B135" s="12" t="s">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="42"/>
+      <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
-      <c r="B136" s="12" t="s">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="42"/>
+      <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="35"/>
-      <c r="B137" s="13" t="s">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="43"/>
+      <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="28"/>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33" t="s">
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="28"/>
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B230" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
-      <c r="B140" s="7"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
-      <c r="B141" s="7" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="42"/>
+      <c r="B231" s="7"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="42"/>
+      <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="34"/>
-      <c r="B142" s="11" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="42"/>
+      <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="34"/>
-      <c r="B143" s="7"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
-      <c r="B144" s="15" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="42"/>
+      <c r="B234" s="7"/>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="42"/>
+      <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="26" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="42"/>
+      <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="35"/>
-      <c r="B146" s="18" t="s">
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="43"/>
+      <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="28"/>
-      <c r="B147" s="14"/>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="33" t="s">
+    <row r="238" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="28"/>
+      <c r="B238" s="14"/>
+    </row>
+    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B239" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
-      <c r="B149" s="7"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
-      <c r="B150" s="7" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="42"/>
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="42"/>
+      <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="34"/>
-      <c r="B151" s="11" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="42"/>
+      <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="7"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="15" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="42"/>
+      <c r="B243" s="7"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="42"/>
+      <c r="B244" s="9"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="42"/>
+      <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="35"/>
-      <c r="B155" s="16" t="s">
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="43"/>
+      <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="30"/>
-      <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="33" t="s">
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="30"/>
+      <c r="B247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B157" s="31" t="s">
+      <c r="B248" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="34"/>
-      <c r="B158" s="7"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
-      <c r="B159" s="7" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="42"/>
+      <c r="B249" s="7"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="42"/>
+      <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
-      <c r="B160" s="11" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="42"/>
+      <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="11" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="42"/>
+      <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="11" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="42"/>
+      <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="9"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
-      <c r="B164" s="7" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="42"/>
+      <c r="B254" s="9"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="42"/>
+      <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="15" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="42"/>
+      <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
-      <c r="B166" s="32" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="42"/>
+      <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
-      <c r="B167" s="32" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="42"/>
+      <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="26" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="42"/>
+      <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="35"/>
-      <c r="B169" s="18" t="s">
+    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="43"/>
+      <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="33" t="s">
+    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B171" s="31" t="s">
+      <c r="B262" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="34"/>
-      <c r="B172" s="44"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="34"/>
-      <c r="B173" s="7" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="42"/>
+      <c r="B263" s="40"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="42"/>
+      <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
-      <c r="B174" s="7" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="42"/>
+      <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
-      <c r="B175" s="11" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="42"/>
+      <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="34"/>
-      <c r="B176" s="11" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="42"/>
+      <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="34"/>
-      <c r="B177" s="11" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="42"/>
+      <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
-      <c r="B178" s="7"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
-      <c r="B179" s="7" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="42"/>
+      <c r="B269" s="7"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="42"/>
+      <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
-      <c r="B180" s="26" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="42"/>
+      <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
-      <c r="B181" s="23" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="42"/>
+      <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="34"/>
-      <c r="B182" s="26" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="42"/>
+      <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="35"/>
-      <c r="B183" s="18"/>
+    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="43"/>
+      <c r="B274" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="A83:A96"/>
-    <mergeCell ref="A68:A81"/>
-    <mergeCell ref="A55:A65"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="A171:A183"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="A148:A155"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A126:A137"/>
-    <mergeCell ref="A157:A169"/>
+  <mergeCells count="26">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991F8DB-33CB-4E23-9731-265808DA6A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE66AC9-C27E-4DF0-8BD3-822512DF9B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="252">
   <si>
     <t>Descrição</t>
   </si>
@@ -10625,13 +10625,623 @@
       </rPr>
       <t>(nome))</t>
     </r>
+  </si>
+  <si>
+    <t>ex028</t>
+  </si>
+  <si>
+    <t>Escreva um programa que faça o computador “pensar” em um número inteiro entre 0 e 5 e peça para o usuário tentar descobrir qual foi o número escolhido pelo computador. O programa deverá escrever na tela se o usuário venceu ou perdeu.</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> random </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> randint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sleep</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">computador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>randint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5A4B81"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#faz o computador pensar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'=-^-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Vou pensar em um número entre 0 e 5. Tente adivinhar...'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual número eu pensei? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5A4B81"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#jogador tenta adivinhar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Pensando...'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> computador:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Parabéns! Você consegui me vencer!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Ganhei! Eu pensei no número </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> e não no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(computador, jogador))</t>
+    </r>
+  </si>
+  <si>
+    <t>randint pra fazer o computador escolher um número aleatório</t>
+  </si>
+  <si>
+    <t>sleep pra dar um delay entre uma linha e a outra..</t>
+  </si>
+  <si>
+    <t>escolher</t>
+  </si>
+  <si>
+    <t>randint</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>sleep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10715,6 +11325,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5A4B81"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -11059,7 +11675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11185,9 +11801,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11503,9 +12116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11552,7 +12167,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
@@ -11596,7 +12211,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
@@ -11670,7 +12285,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
@@ -11714,7 +12329,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="44"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
@@ -11776,7 +12391,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="44"/>
+      <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
@@ -11820,7 +12435,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
@@ -11864,7 +12479,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
-      <c r="B63" s="44"/>
+      <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
@@ -11956,11 +12571,11 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
-      <c r="B79" s="44"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
-      <c r="B80" s="44"/>
+      <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
@@ -11998,7 +12613,7 @@
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="44"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
@@ -12048,7 +12663,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
-      <c r="B96" s="44"/>
+      <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
@@ -13128,19 +13743,144 @@
       <c r="A274" s="43"/>
       <c r="B274" s="18"/>
     </row>
+    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B276" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="42"/>
+      <c r="B277" s="7"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="42"/>
+      <c r="B278" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="42"/>
+      <c r="B279" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="42"/>
+      <c r="B280" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="42"/>
+      <c r="B281" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="42"/>
+      <c r="B282" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="42"/>
+      <c r="B283" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="42"/>
+      <c r="B284" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="42"/>
+      <c r="B285" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="42"/>
+      <c r="B286" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="42"/>
+      <c r="B287" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="42"/>
+      <c r="B288" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="42"/>
+      <c r="B289" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="42"/>
+      <c r="B290" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="42"/>
+      <c r="B291" s="11"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="42"/>
+      <c r="B292" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="42"/>
+      <c r="B293" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="42"/>
+      <c r="B294" s="39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="43"/>
+      <c r="B295" s="33"/>
+      <c r="C295" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
+  <mergeCells count="27">
+    <mergeCell ref="A276:A295"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A104:A109"/>
@@ -13156,6 +13896,17 @@
     <mergeCell ref="A159:A172"/>
     <mergeCell ref="A146:A156"/>
     <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE66AC9-C27E-4DF0-8BD3-822512DF9B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54704750-83A0-4D3C-9B7C-D21341F50E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="262">
   <si>
     <t>Descrição</t>
   </si>
@@ -11235,6 +11235,456 @@
   </si>
   <si>
     <t>sleep</t>
+  </si>
+  <si>
+    <t>ex029</t>
+  </si>
+  <si>
+    <t>Escreva um programa que leia a velocidade de um carro. Se ele ultrapassar 80Km/h, mostre uma mensagem dizendo que ele foi multado. A multa vai custar R$7,00 por cada Km acima do limite.</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual a velocidade atual do automóvel? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">velocidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'km/h:  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> velocidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'MULTADO! Você excedeu o limite de velocidade de 80 km/h.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Você deve pagar uma multa de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,00'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">((velocidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Tenha uma ótima viagem e digija com segurança!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Obs.: Exemplo de extrutura de condição simples. Usando somente o if. Último print sem identação pra sair nos 2 casos</t>
   </si>
 </sst>
 </file>
@@ -12116,10 +12566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13878,8 +14328,95 @@
         <v>251</v>
       </c>
     </row>
+    <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="297" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B297" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="42"/>
+      <c r="B298" s="40"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="42"/>
+      <c r="B299" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="42"/>
+      <c r="B300" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="42"/>
+      <c r="B301" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="42"/>
+      <c r="B302" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="42"/>
+      <c r="B303" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="42"/>
+      <c r="B304" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="42"/>
+      <c r="B305" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="42"/>
+      <c r="B306" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="42"/>
+      <c r="B307" s="23"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="42"/>
+      <c r="B308" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="43"/>
+      <c r="B309" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
     <mergeCell ref="A276:A295"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A111:A116"/>
@@ -13896,17 +14433,6 @@
     <mergeCell ref="A159:A172"/>
     <mergeCell ref="A146:A156"/>
     <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54704750-83A0-4D3C-9B7C-D21341F50E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD553F8A-24DD-4E11-84CA-447119F6FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="268">
   <si>
     <t>Descrição</t>
   </si>
@@ -11685,6 +11685,330 @@
   </si>
   <si>
     <t>Obs.: Exemplo de extrutura de condição simples. Usando somente o if. Último print sem identação pra sair nos 2 casos</t>
+  </si>
+  <si>
+    <t>ex030</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia um número inteiro e mostre na tela se ele é PAR ou ÍMPAR.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é Par!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é Ímpar!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11805,7 +12129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -12121,11 +12445,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12251,6 +12588,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12566,10 +12906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311:A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14403,8 +14743,68 @@
       <c r="A309" s="43"/>
       <c r="B309" s="18"/>
     </row>
+    <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B311" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="42"/>
+      <c r="B312" s="7"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="42"/>
+      <c r="B313" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="42"/>
+      <c r="B314" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="42"/>
+      <c r="B315" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="42"/>
+      <c r="B316" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="42"/>
+      <c r="B317" s="44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="43"/>
+      <c r="B318" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
     <mergeCell ref="A297:A309"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A37:A46"/>
@@ -14421,18 +14821,6 @@
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD553F8A-24DD-4E11-84CA-447119F6FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44431C5-D141-4B5D-AB1E-1BF56F4F030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
   <si>
     <t>Descrição</t>
   </si>
@@ -12008,6 +12008,327 @@
         <family val="3"/>
       </rPr>
       <t>(num))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex031</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que pergunte a distância de uma viagem em Km. Calcule o preço da passagem, 
+cobrando R$0,50 por Km para viagens de até 200Km e R$0,45 parta viagens mais longas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">distancia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quantos km é a distância da sua viagem: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> distancia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    preço </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> distancia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    preço </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> distancia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Sua passagem terá o valor de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(preço))</t>
     </r>
   </si>
 </sst>
@@ -12462,7 +12783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12580,6 +12901,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12589,9 +12913,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12906,10 +13228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E318"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311:A318"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12928,7 +13250,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -12936,23 +13258,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12960,7 +13282,7 @@
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -12968,35 +13290,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13004,7 +13326,7 @@
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -13012,65 +13334,65 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13078,7 +13400,7 @@
       <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -13086,35 +13408,35 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13122,7 +13444,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -13130,53 +13452,53 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13184,7 +13506,7 @@
       <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -13192,35 +13514,35 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="33"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13228,7 +13550,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -13236,35 +13558,35 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13272,7 +13594,7 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="42" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -13280,83 +13602,83 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -13368,7 +13690,7 @@
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="42" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -13376,29 +13698,29 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="43"/>
+      <c r="A86" s="44"/>
       <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13406,7 +13728,7 @@
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="42" t="s">
         <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -13414,41 +13736,41 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="33"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13456,7 +13778,7 @@
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="42" t="s">
         <v>152</v>
       </c>
       <c r="B97" s="31" t="s">
@@ -13464,29 +13786,29 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="43"/>
       <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="43"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13494,7 +13816,7 @@
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="41" t="s">
+      <c r="A104" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="31" t="s">
@@ -13502,29 +13824,29 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="33"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13532,7 +13854,7 @@
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="41" t="s">
+      <c r="A111" s="42" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="31" t="s">
@@ -13540,29 +13862,29 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
+      <c r="A113" s="43"/>
       <c r="B113" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
+      <c r="A115" s="43"/>
       <c r="B115" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="43"/>
+      <c r="A116" s="44"/>
       <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13570,7 +13892,7 @@
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="42" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="31" t="s">
@@ -13578,35 +13900,35 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="43"/>
+      <c r="A124" s="44"/>
       <c r="B124" s="33"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13614,7 +13936,7 @@
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="42" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -13622,33 +13944,33 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="43"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="33"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13656,7 +13978,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="41" t="s">
+      <c r="A134" s="42" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -13664,57 +13986,57 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
+      <c r="A138" s="43"/>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
+      <c r="A139" s="43"/>
       <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
+      <c r="A140" s="43"/>
       <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="43"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="33"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13722,7 +14044,7 @@
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="31" t="s">
@@ -13730,59 +14052,59 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="42"/>
+      <c r="A149" s="43"/>
       <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="42"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
+      <c r="A151" s="43"/>
       <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="42"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="42"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="42"/>
+      <c r="A154" s="43"/>
       <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="42"/>
+      <c r="A155" s="43"/>
       <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="43"/>
+      <c r="A156" s="44"/>
       <c r="B156" s="33"/>
       <c r="C156" s="2" t="s">
         <v>116</v>
@@ -13803,7 +14125,7 @@
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="41" t="s">
+      <c r="A159" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="31" t="s">
@@ -13811,75 +14133,75 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="42"/>
+      <c r="A160" s="43"/>
       <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="42"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="42"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="42"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="42"/>
+      <c r="A164" s="43"/>
       <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="42"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="42"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="42"/>
+      <c r="A167" s="43"/>
       <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
+      <c r="A168" s="43"/>
       <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="42"/>
+      <c r="A169" s="43"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="42"/>
+      <c r="A170" s="43"/>
       <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="42"/>
+      <c r="A171" s="43"/>
       <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="43"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
@@ -13895,7 +14217,7 @@
       <c r="B173" s="20"/>
     </row>
     <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="41" t="s">
+      <c r="A174" s="42" t="s">
         <v>73</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -13903,69 +14225,69 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="42"/>
+      <c r="A175" s="43"/>
       <c r="B175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="42"/>
+      <c r="A176" s="43"/>
       <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="42"/>
+      <c r="A177" s="43"/>
       <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="42"/>
+      <c r="A178" s="43"/>
       <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="42"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="42"/>
+      <c r="A180" s="43"/>
       <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="42"/>
+      <c r="A181" s="43"/>
       <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="42"/>
+      <c r="A182" s="43"/>
       <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="42"/>
+      <c r="A183" s="43"/>
       <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="42"/>
+      <c r="A184" s="43"/>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="42"/>
+      <c r="A185" s="43"/>
       <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="42"/>
+      <c r="A186" s="43"/>
       <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
@@ -13977,7 +14299,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="43"/>
+      <c r="A187" s="44"/>
       <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
@@ -13993,7 +14315,7 @@
       <c r="B188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="41" t="s">
+      <c r="A189" s="42" t="s">
         <v>66</v>
       </c>
       <c r="B189" s="29" t="s">
@@ -14001,41 +14323,41 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="42"/>
+      <c r="A190" s="43"/>
       <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="42"/>
+      <c r="A191" s="43"/>
       <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="42"/>
+      <c r="A192" s="43"/>
       <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="42"/>
+      <c r="A193" s="43"/>
       <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="42"/>
+      <c r="A194" s="43"/>
       <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="42"/>
+      <c r="A195" s="43"/>
       <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="43"/>
+      <c r="A196" s="44"/>
       <c r="B196" s="18"/>
       <c r="C196" s="2" t="s">
         <v>104</v>
@@ -14049,7 +14371,7 @@
       <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="41" t="s">
+      <c r="A198" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="29" t="s">
@@ -14057,23 +14379,23 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="42"/>
+      <c r="A199" s="43"/>
       <c r="B199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="42"/>
+      <c r="A200" s="43"/>
       <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="42"/>
+      <c r="A201" s="43"/>
       <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="42"/>
+      <c r="A202" s="43"/>
       <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
@@ -14082,7 +14404,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="42"/>
+      <c r="A203" s="43"/>
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -14091,7 +14413,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="42"/>
+      <c r="A204" s="43"/>
       <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
@@ -14103,7 +14425,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="42"/>
+      <c r="A205" s="43"/>
       <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
@@ -14112,7 +14434,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="42"/>
+      <c r="A206" s="43"/>
       <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
@@ -14121,53 +14443,53 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="42"/>
+      <c r="A207" s="43"/>
       <c r="B207" s="22"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="42"/>
+      <c r="A208" s="43"/>
       <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="42"/>
+      <c r="A209" s="43"/>
       <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="42"/>
+      <c r="A210" s="43"/>
       <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="42"/>
+      <c r="A211" s="43"/>
       <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="42"/>
+      <c r="A212" s="43"/>
       <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="42"/>
+      <c r="A213" s="43"/>
       <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="42"/>
+      <c r="A214" s="43"/>
       <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="43"/>
+      <c r="A215" s="44"/>
       <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14175,7 +14497,7 @@
       <c r="B216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="41" t="s">
+      <c r="A217" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="29" t="s">
@@ -14183,11 +14505,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="42"/>
+      <c r="A218" s="43"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="42"/>
+      <c r="A219" s="43"/>
       <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
@@ -14196,13 +14518,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="42"/>
+      <c r="A220" s="43"/>
       <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="42"/>
+      <c r="A221" s="43"/>
       <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
@@ -14211,43 +14533,43 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="42"/>
+      <c r="A222" s="43"/>
       <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="42"/>
+      <c r="A223" s="43"/>
       <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="42"/>
+      <c r="A224" s="43"/>
       <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="42"/>
+      <c r="A225" s="43"/>
       <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="42"/>
+      <c r="A226" s="43"/>
       <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="42"/>
+      <c r="A227" s="43"/>
       <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="43"/>
+      <c r="A228" s="44"/>
       <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
@@ -14257,7 +14579,7 @@
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="41" t="s">
+      <c r="A230" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B230" s="29" t="s">
@@ -14265,11 +14587,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="42"/>
+      <c r="A231" s="43"/>
       <c r="B231" s="7"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="42"/>
+      <c r="A232" s="43"/>
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
@@ -14278,7 +14600,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="42"/>
+      <c r="A233" s="43"/>
       <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
@@ -14287,18 +14609,18 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="42"/>
+      <c r="A234" s="43"/>
       <c r="B234" s="7"/>
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="42"/>
+      <c r="A235" s="43"/>
       <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="42"/>
+      <c r="A236" s="43"/>
       <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
@@ -14307,7 +14629,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="43"/>
+      <c r="A237" s="44"/>
       <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
@@ -14320,7 +14642,7 @@
       <c r="B238" s="14"/>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="41" t="s">
+      <c r="A239" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -14328,11 +14650,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="42"/>
+      <c r="A240" s="43"/>
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="42"/>
+      <c r="A241" s="43"/>
       <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
@@ -14341,7 +14663,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="42"/>
+      <c r="A242" s="43"/>
       <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
@@ -14350,21 +14672,21 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="42"/>
+      <c r="A243" s="43"/>
       <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="42"/>
+      <c r="A244" s="43"/>
       <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
+      <c r="A245" s="43"/>
       <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="43"/>
+      <c r="A246" s="44"/>
       <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
@@ -14377,7 +14699,7 @@
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="41" t="s">
+      <c r="A248" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="31" t="s">
@@ -14385,45 +14707,45 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="42"/>
+      <c r="A249" s="43"/>
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="42"/>
+      <c r="A250" s="43"/>
       <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="42"/>
+      <c r="A251" s="43"/>
       <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="42"/>
+      <c r="A252" s="43"/>
       <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="42"/>
+      <c r="A253" s="43"/>
       <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="42"/>
+      <c r="A254" s="43"/>
       <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="42"/>
+      <c r="A255" s="43"/>
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="42"/>
+      <c r="A256" s="43"/>
       <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
@@ -14435,32 +14757,32 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="42"/>
+      <c r="A257" s="43"/>
       <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="42"/>
+      <c r="A258" s="43"/>
       <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="42"/>
+      <c r="A259" s="43"/>
       <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="43"/>
+      <c r="A260" s="44"/>
       <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="41" t="s">
+      <c r="A262" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B262" s="31" t="s">
@@ -14468,74 +14790,74 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="42"/>
+      <c r="A263" s="43"/>
       <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="42"/>
+      <c r="A264" s="43"/>
       <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="42"/>
+      <c r="A265" s="43"/>
       <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="42"/>
+      <c r="A266" s="43"/>
       <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="42"/>
+      <c r="A267" s="43"/>
       <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="42"/>
+      <c r="A268" s="43"/>
       <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="42"/>
+      <c r="A269" s="43"/>
       <c r="B269" s="7"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="42"/>
+      <c r="A270" s="43"/>
       <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="42"/>
+      <c r="A271" s="43"/>
       <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="42"/>
+      <c r="A272" s="43"/>
       <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="42"/>
+      <c r="A273" s="43"/>
       <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="43"/>
+      <c r="A274" s="44"/>
       <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="41" t="s">
+      <c r="A276" s="42" t="s">
         <v>231</v>
       </c>
       <c r="B276" s="31" t="s">
@@ -14543,99 +14865,99 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="42"/>
+      <c r="A277" s="43"/>
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="42"/>
+      <c r="A278" s="43"/>
       <c r="B278" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="42"/>
+      <c r="A279" s="43"/>
       <c r="B279" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="42"/>
+      <c r="A280" s="43"/>
       <c r="B280" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="42"/>
+      <c r="A281" s="43"/>
       <c r="B281" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="42"/>
+      <c r="A282" s="43"/>
       <c r="B282" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="42"/>
+      <c r="A283" s="43"/>
       <c r="B283" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="42"/>
+      <c r="A284" s="43"/>
       <c r="B284" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="42"/>
+      <c r="A285" s="43"/>
       <c r="B285" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="42"/>
+      <c r="A286" s="43"/>
       <c r="B286" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="42"/>
+      <c r="A287" s="43"/>
       <c r="B287" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="42"/>
+      <c r="A288" s="43"/>
       <c r="B288" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="42"/>
+      <c r="A289" s="43"/>
       <c r="B289" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="42"/>
+      <c r="A290" s="43"/>
       <c r="B290" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="42"/>
+      <c r="A291" s="43"/>
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="42"/>
+      <c r="A292" s="43"/>
       <c r="B292" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="42"/>
+      <c r="A293" s="43"/>
       <c r="B293" s="11" t="s">
         <v>245</v>
       </c>
@@ -14650,13 +14972,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="42"/>
+      <c r="A294" s="43"/>
       <c r="B294" s="39" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="43"/>
+      <c r="A295" s="44"/>
       <c r="B295" s="33"/>
       <c r="C295" s="2" t="s">
         <v>249</v>
@@ -14670,7 +14992,7 @@
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="297" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="41" t="s">
+      <c r="A297" s="42" t="s">
         <v>252</v>
       </c>
       <c r="B297" s="31" t="s">
@@ -14678,74 +15000,74 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="42"/>
+      <c r="A298" s="43"/>
       <c r="B298" s="40"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="42"/>
+      <c r="A299" s="43"/>
       <c r="B299" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="42"/>
+      <c r="A300" s="43"/>
       <c r="B300" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="42"/>
+      <c r="A301" s="43"/>
       <c r="B301" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="42"/>
+      <c r="A302" s="43"/>
       <c r="B302" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="42"/>
+      <c r="A303" s="43"/>
       <c r="B303" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="42"/>
+      <c r="A304" s="43"/>
       <c r="B304" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="42"/>
+      <c r="A305" s="43"/>
       <c r="B305" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="42"/>
+      <c r="A306" s="43"/>
       <c r="B306" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="42"/>
+      <c r="A307" s="43"/>
       <c r="B307" s="23"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="42"/>
+      <c r="A308" s="43"/>
       <c r="B308" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="43"/>
+      <c r="A309" s="44"/>
       <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="41" t="s">
+      <c r="A311" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -14753,45 +15075,113 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="42"/>
+      <c r="A312" s="43"/>
       <c r="B312" s="7"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="42"/>
+      <c r="A313" s="43"/>
       <c r="B313" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="42"/>
+      <c r="A314" s="43"/>
       <c r="B314" s="34" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="42"/>
+      <c r="A315" s="43"/>
       <c r="B315" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="42"/>
+      <c r="A316" s="43"/>
       <c r="B316" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="42"/>
-      <c r="B317" s="44" t="s">
+      <c r="A317" s="43"/>
+      <c r="B317" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="43"/>
+      <c r="A318" s="44"/>
       <c r="B318" s="16"/>
     </row>
+    <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="320" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B320" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="43"/>
+      <c r="B321" s="7"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="43"/>
+      <c r="B322" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="43"/>
+      <c r="B323" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="43"/>
+      <c r="B324" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="43"/>
+      <c r="B325" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="43"/>
+      <c r="B326" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="43"/>
+      <c r="B327" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="44"/>
+      <c r="B328" s="45"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A311:A318"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A189:A196"/>
@@ -14806,21 +15196,7 @@
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
     <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
     <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A104:A109"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44431C5-D141-4B5D-AB1E-1BF56F4F030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0EFD33-AA59-4B3A-8373-35C4BB7C27E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="277">
   <si>
     <t>Descrição</t>
   </si>
@@ -12097,6 +12097,155 @@
   </si>
   <si>
     <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Sua passagem terá o valor de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(preço))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">preço </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> distancia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>if</t>
     </r>
     <r>
@@ -12115,7 +12264,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;</t>
+      <t>&lt;=</t>
     </r>
     <r>
       <rPr>
@@ -12133,21 +12282,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE1E1E6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    preço </t>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -12156,7 +12300,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>=</t>
+      <t>else</t>
     </r>
     <r>
       <rPr>
@@ -12192,144 +12336,20 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0.50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    preço </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF79C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE1E1E6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> distancia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF79C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE1E1E6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF78D1E1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>0.45</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE1E1E6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE7DE79"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'Sua passagem terá o valor de R$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF78D1E1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF79C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:.2f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF78D1E1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE7DE79"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE1E1E6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF67E480"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>format</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFE1E1E6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(preço))</t>
-    </r>
+    <t>Utilizado o if inline para simplificar o código</t>
+  </si>
+  <si>
+    <t>if inline</t>
+  </si>
+  <si>
+    <t>simplificar</t>
+  </si>
+  <si>
+    <t>diminuir</t>
   </si>
 </sst>
 </file>
@@ -12904,6 +12924,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12913,7 +12934,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13231,7 +13251,7 @@
   <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+      <selection activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13250,7 +13270,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -13258,23 +13278,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13282,7 +13302,7 @@
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -13290,35 +13310,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13326,7 +13346,7 @@
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -13334,65 +13354,65 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13400,7 +13420,7 @@
       <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -13408,35 +13428,35 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13444,7 +13464,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -13452,53 +13472,53 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13506,7 +13526,7 @@
       <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="43" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -13514,35 +13534,35 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="33"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13550,7 +13570,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="43" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -13558,35 +13578,35 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13594,7 +13614,7 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="43" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -13602,83 +13622,83 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="44"/>
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -13690,7 +13710,7 @@
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="43" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -13698,29 +13718,29 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13728,7 +13748,7 @@
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="43" t="s">
         <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -13736,41 +13756,41 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
+      <c r="A95" s="45"/>
       <c r="B95" s="33"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13778,7 +13798,7 @@
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B97" s="31" t="s">
@@ -13786,29 +13806,29 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
+      <c r="A98" s="44"/>
       <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
+      <c r="A99" s="44"/>
       <c r="B99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
+      <c r="A100" s="44"/>
       <c r="B100" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
+      <c r="A101" s="44"/>
       <c r="B101" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="44"/>
+      <c r="A102" s="45"/>
       <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13816,7 +13836,7 @@
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="43" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="31" t="s">
@@ -13824,29 +13844,29 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
+      <c r="A106" s="44"/>
       <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="33"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13854,7 +13874,7 @@
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="43" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="31" t="s">
@@ -13862,29 +13882,29 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
+      <c r="A112" s="44"/>
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
+      <c r="A113" s="44"/>
       <c r="B113" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
+      <c r="A114" s="44"/>
       <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
+      <c r="A115" s="44"/>
       <c r="B115" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="44"/>
+      <c r="A116" s="45"/>
       <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13892,7 +13912,7 @@
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="31" t="s">
@@ -13900,35 +13920,35 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
+      <c r="A121" s="44"/>
       <c r="B121" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="44"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="33"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13936,7 +13956,7 @@
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -13944,33 +13964,33 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="43"/>
+      <c r="A127" s="44"/>
       <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
+      <c r="A128" s="44"/>
       <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
+      <c r="A130" s="44"/>
       <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
+      <c r="A131" s="44"/>
       <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="44"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="33"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13978,7 +13998,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -13986,57 +14006,57 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
+      <c r="A135" s="44"/>
       <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
+      <c r="A139" s="44"/>
       <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
+      <c r="A140" s="44"/>
       <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
+      <c r="A142" s="44"/>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="44"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="33"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14044,7 +14064,7 @@
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="43" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="31" t="s">
@@ -14052,59 +14072,59 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="43"/>
+      <c r="A148" s="44"/>
       <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="43"/>
+      <c r="A149" s="44"/>
       <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
+      <c r="A150" s="44"/>
       <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="43"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="43"/>
+      <c r="A153" s="44"/>
       <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="43"/>
+      <c r="A154" s="44"/>
       <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="44"/>
+      <c r="A156" s="45"/>
       <c r="B156" s="33"/>
       <c r="C156" s="2" t="s">
         <v>116</v>
@@ -14125,7 +14145,7 @@
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="42" t="s">
+      <c r="A159" s="43" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="31" t="s">
@@ -14133,75 +14153,75 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
+      <c r="A161" s="44"/>
       <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="43"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="43"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="43"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
+      <c r="A167" s="44"/>
       <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="43"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
+      <c r="A169" s="44"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
+      <c r="A170" s="44"/>
       <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
+      <c r="A171" s="44"/>
       <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="44"/>
+      <c r="A172" s="45"/>
       <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
@@ -14217,7 +14237,7 @@
       <c r="B173" s="20"/>
     </row>
     <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="42" t="s">
+      <c r="A174" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -14225,69 +14245,69 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="43"/>
+      <c r="A175" s="44"/>
       <c r="B175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="43"/>
+      <c r="A176" s="44"/>
       <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="43"/>
+      <c r="A177" s="44"/>
       <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="43"/>
+      <c r="A178" s="44"/>
       <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
+      <c r="A179" s="44"/>
       <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="43"/>
+      <c r="A180" s="44"/>
       <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="43"/>
+      <c r="A181" s="44"/>
       <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="43"/>
+      <c r="A182" s="44"/>
       <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="43"/>
+      <c r="A183" s="44"/>
       <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="43"/>
+      <c r="A184" s="44"/>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="43"/>
+      <c r="A185" s="44"/>
       <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="43"/>
+      <c r="A186" s="44"/>
       <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
@@ -14299,7 +14319,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="44"/>
+      <c r="A187" s="45"/>
       <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
@@ -14315,7 +14335,7 @@
       <c r="B188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="42" t="s">
+      <c r="A189" s="43" t="s">
         <v>66</v>
       </c>
       <c r="B189" s="29" t="s">
@@ -14323,41 +14343,41 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="43"/>
+      <c r="A190" s="44"/>
       <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="43"/>
+      <c r="A191" s="44"/>
       <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="43"/>
+      <c r="A192" s="44"/>
       <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
+      <c r="A193" s="44"/>
       <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
+      <c r="A194" s="44"/>
       <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
+      <c r="A195" s="44"/>
       <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="44"/>
+      <c r="A196" s="45"/>
       <c r="B196" s="18"/>
       <c r="C196" s="2" t="s">
         <v>104</v>
@@ -14371,7 +14391,7 @@
       <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="42" t="s">
+      <c r="A198" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="29" t="s">
@@ -14379,23 +14399,23 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="43"/>
+      <c r="A199" s="44"/>
       <c r="B199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="43"/>
+      <c r="A200" s="44"/>
       <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="43"/>
+      <c r="A201" s="44"/>
       <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="43"/>
+      <c r="A202" s="44"/>
       <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
@@ -14404,7 +14424,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="43"/>
+      <c r="A203" s="44"/>
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -14413,7 +14433,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
+      <c r="A204" s="44"/>
       <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
@@ -14425,7 +14445,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="43"/>
+      <c r="A205" s="44"/>
       <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
@@ -14434,7 +14454,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
+      <c r="A206" s="44"/>
       <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
@@ -14443,53 +14463,53 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="43"/>
+      <c r="A207" s="44"/>
       <c r="B207" s="22"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="43"/>
+      <c r="A208" s="44"/>
       <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="43"/>
+      <c r="A209" s="44"/>
       <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="43"/>
+      <c r="A210" s="44"/>
       <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
+      <c r="A211" s="44"/>
       <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="43"/>
+      <c r="A212" s="44"/>
       <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="43"/>
+      <c r="A213" s="44"/>
       <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="43"/>
+      <c r="A214" s="44"/>
       <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="44"/>
+      <c r="A215" s="45"/>
       <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14497,7 +14517,7 @@
       <c r="B216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="29" t="s">
@@ -14505,11 +14525,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="43"/>
+      <c r="A218" s="44"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="43"/>
+      <c r="A219" s="44"/>
       <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
@@ -14518,13 +14538,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="43"/>
+      <c r="A220" s="44"/>
       <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="43"/>
+      <c r="A221" s="44"/>
       <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
@@ -14533,43 +14553,43 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="43"/>
+      <c r="A222" s="44"/>
       <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="43"/>
+      <c r="A223" s="44"/>
       <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="43"/>
+      <c r="A224" s="44"/>
       <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="43"/>
+      <c r="A225" s="44"/>
       <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="43"/>
+      <c r="A226" s="44"/>
       <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="43"/>
+      <c r="A227" s="44"/>
       <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="44"/>
+      <c r="A228" s="45"/>
       <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
@@ -14579,7 +14599,7 @@
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="42" t="s">
+      <c r="A230" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B230" s="29" t="s">
@@ -14587,11 +14607,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="43"/>
+      <c r="A231" s="44"/>
       <c r="B231" s="7"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="43"/>
+      <c r="A232" s="44"/>
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
@@ -14600,7 +14620,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="43"/>
+      <c r="A233" s="44"/>
       <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
@@ -14609,18 +14629,18 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="43"/>
+      <c r="A234" s="44"/>
       <c r="B234" s="7"/>
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="43"/>
+      <c r="A235" s="44"/>
       <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="43"/>
+      <c r="A236" s="44"/>
       <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
@@ -14629,7 +14649,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="44"/>
+      <c r="A237" s="45"/>
       <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
@@ -14642,7 +14662,7 @@
       <c r="B238" s="14"/>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="42" t="s">
+      <c r="A239" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -14650,11 +14670,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="43"/>
+      <c r="A240" s="44"/>
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="43"/>
+      <c r="A241" s="44"/>
       <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
@@ -14663,7 +14683,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="43"/>
+      <c r="A242" s="44"/>
       <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
@@ -14672,21 +14692,21 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="43"/>
+      <c r="A243" s="44"/>
       <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="43"/>
+      <c r="A244" s="44"/>
       <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="43"/>
+      <c r="A245" s="44"/>
       <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="44"/>
+      <c r="A246" s="45"/>
       <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
@@ -14699,7 +14719,7 @@
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="42" t="s">
+      <c r="A248" s="43" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="31" t="s">
@@ -14707,45 +14727,45 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="43"/>
+      <c r="A249" s="44"/>
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="43"/>
+      <c r="A250" s="44"/>
       <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="43"/>
+      <c r="A251" s="44"/>
       <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="43"/>
+      <c r="A252" s="44"/>
       <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="43"/>
+      <c r="A253" s="44"/>
       <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="43"/>
+      <c r="A254" s="44"/>
       <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="43"/>
+      <c r="A255" s="44"/>
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="43"/>
+      <c r="A256" s="44"/>
       <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
@@ -14757,32 +14777,32 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="43"/>
+      <c r="A257" s="44"/>
       <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="43"/>
+      <c r="A258" s="44"/>
       <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="43"/>
+      <c r="A259" s="44"/>
       <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="44"/>
+      <c r="A260" s="45"/>
       <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="42" t="s">
+      <c r="A262" s="43" t="s">
         <v>63</v>
       </c>
       <c r="B262" s="31" t="s">
@@ -14790,74 +14810,74 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="43"/>
+      <c r="A263" s="44"/>
       <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="43"/>
+      <c r="A264" s="44"/>
       <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="43"/>
+      <c r="A265" s="44"/>
       <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="43"/>
+      <c r="A266" s="44"/>
       <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="43"/>
+      <c r="A267" s="44"/>
       <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="43"/>
+      <c r="A268" s="44"/>
       <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="43"/>
+      <c r="A269" s="44"/>
       <c r="B269" s="7"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="43"/>
+      <c r="A270" s="44"/>
       <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="43"/>
+      <c r="A271" s="44"/>
       <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="43"/>
+      <c r="A272" s="44"/>
       <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="43"/>
+      <c r="A273" s="44"/>
       <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="44"/>
+      <c r="A274" s="45"/>
       <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="42" t="s">
+      <c r="A276" s="43" t="s">
         <v>231</v>
       </c>
       <c r="B276" s="31" t="s">
@@ -14865,99 +14885,99 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="43"/>
+      <c r="A277" s="44"/>
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="43"/>
+      <c r="A278" s="44"/>
       <c r="B278" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="43"/>
+      <c r="A279" s="44"/>
       <c r="B279" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="43"/>
+      <c r="A280" s="44"/>
       <c r="B280" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="43"/>
+      <c r="A281" s="44"/>
       <c r="B281" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="43"/>
+      <c r="A282" s="44"/>
       <c r="B282" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="43"/>
+      <c r="A283" s="44"/>
       <c r="B283" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="43"/>
+      <c r="A284" s="44"/>
       <c r="B284" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="43"/>
+      <c r="A285" s="44"/>
       <c r="B285" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="43"/>
+      <c r="A286" s="44"/>
       <c r="B286" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="43"/>
+      <c r="A287" s="44"/>
       <c r="B287" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="43"/>
+      <c r="A288" s="44"/>
       <c r="B288" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="43"/>
+      <c r="A289" s="44"/>
       <c r="B289" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="43"/>
+      <c r="A290" s="44"/>
       <c r="B290" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="43"/>
+      <c r="A291" s="44"/>
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="43"/>
+      <c r="A292" s="44"/>
       <c r="B292" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="43"/>
+      <c r="A293" s="44"/>
       <c r="B293" s="11" t="s">
         <v>245</v>
       </c>
@@ -14972,13 +14992,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="43"/>
+      <c r="A294" s="44"/>
       <c r="B294" s="39" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="44"/>
+      <c r="A295" s="45"/>
       <c r="B295" s="33"/>
       <c r="C295" s="2" t="s">
         <v>249</v>
@@ -14992,7 +15012,7 @@
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="297" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="42" t="s">
+      <c r="A297" s="43" t="s">
         <v>252</v>
       </c>
       <c r="B297" s="31" t="s">
@@ -15000,74 +15020,74 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="43"/>
+      <c r="A298" s="44"/>
       <c r="B298" s="40"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="43"/>
+      <c r="A299" s="44"/>
       <c r="B299" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="43"/>
+      <c r="A300" s="44"/>
       <c r="B300" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="43"/>
+      <c r="A301" s="44"/>
       <c r="B301" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="43"/>
+      <c r="A302" s="44"/>
       <c r="B302" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="43"/>
+      <c r="A303" s="44"/>
       <c r="B303" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="43"/>
+      <c r="A304" s="44"/>
       <c r="B304" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="43"/>
+      <c r="A305" s="44"/>
       <c r="B305" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="43"/>
+      <c r="A306" s="44"/>
       <c r="B306" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="43"/>
+      <c r="A307" s="44"/>
       <c r="B307" s="23"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="43"/>
+      <c r="A308" s="44"/>
       <c r="B308" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="44"/>
+      <c r="A309" s="45"/>
       <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="42" t="s">
+      <c r="A311" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -15075,113 +15095,124 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="43"/>
+      <c r="A312" s="44"/>
       <c r="B312" s="7"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="43"/>
+      <c r="A313" s="44"/>
       <c r="B313" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="43"/>
+      <c r="A314" s="44"/>
       <c r="B314" s="34" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="43"/>
+      <c r="A315" s="44"/>
       <c r="B315" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="43"/>
+      <c r="A316" s="44"/>
       <c r="B316" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="43"/>
+      <c r="A317" s="44"/>
       <c r="B317" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="44"/>
+      <c r="A318" s="45"/>
       <c r="B318" s="16"/>
     </row>
     <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="320" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="42" t="s">
+      <c r="A320" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B320" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="43"/>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="44"/>
       <c r="B321" s="7"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="43"/>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="44"/>
       <c r="B322" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="43"/>
-      <c r="B323" s="34" t="s">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="44"/>
+      <c r="B323" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="44"/>
+      <c r="B324" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="43"/>
-      <c r="B324" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="43"/>
-      <c r="B325" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="43"/>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="44"/>
+      <c r="B325" s="34"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="44"/>
       <c r="B326" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="44"/>
+      <c r="B327" s="11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="43"/>
-      <c r="B327" s="11" t="s">
+      <c r="C327" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="44"/>
-      <c r="B328" s="45"/>
+      <c r="D327" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="45"/>
+      <c r="B328" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A104:A109"/>
     <mergeCell ref="A320:A328"/>
     <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A311:A318"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A189:A196"/>
@@ -15193,10 +15224,6 @@
     <mergeCell ref="A230:A237"/>
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0EFD33-AA59-4B3A-8373-35C4BB7C27E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C4BCC-1703-4DAE-844D-DA85D0D04BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="289">
   <si>
     <t>Descrição</t>
   </si>
@@ -12350,6 +12350,642 @@
   </si>
   <si>
     <t>diminuir</t>
+  </si>
+  <si>
+    <t>ex032</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um ano qualquer e mostre se ele é bissexto.</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um ano, ou digite 0 para o ano atual: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> date.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é Bissexto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ano))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O ano </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> não é bissexto'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ano))</t>
+    </r>
+  </si>
+  <si>
+    <t>Obs.: date.today().year ---&gt; Serve para o python identificar o ano atual no computador.</t>
+  </si>
+  <si>
+    <t>ano atual</t>
+  </si>
+  <si>
+    <t>data atual</t>
   </si>
 </sst>
 </file>
@@ -13248,10 +13884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C328" sqref="C328"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15192,8 +15828,104 @@
       <c r="A328" s="45"/>
       <c r="B328" s="42"/>
     </row>
+    <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B330" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="44"/>
+      <c r="B331" s="40"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="44"/>
+      <c r="B332" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="44"/>
+      <c r="B333" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="44"/>
+      <c r="B334" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="44"/>
+      <c r="B335" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="44"/>
+      <c r="B336" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="44"/>
+      <c r="B337" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="44"/>
+      <c r="B338" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="44"/>
+      <c r="B339" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="44"/>
+      <c r="B340" s="7"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="44"/>
+      <c r="B341" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="45"/>
+      <c r="B342" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
     <mergeCell ref="A297:A309"/>
@@ -15210,20 +15942,6 @@
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A320:A328"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C4BCC-1703-4DAE-844D-DA85D0D04BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D556C8F-6F0E-413F-8E67-81DCFDA8C279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="303">
   <si>
     <t>Descrição</t>
   </si>
@@ -12986,6 +12986,450 @@
   </si>
   <si>
     <t>data atual</t>
+  </si>
+  <si>
+    <t>ex033</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia três números e mostre qual é o maior e qual é o menor.</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> math</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite outro número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite outro número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O maior número digitado foi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n1, n2, n3)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'E o menor número digititado foi o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n1, n2, n3)))</t>
+    </r>
+  </si>
+  <si>
+    <t>Obs.: O professor fez de uma forma diferente, mas eu achei melhor desta forma.</t>
+  </si>
+  <si>
+    <t>maior</t>
+  </si>
+  <si>
+    <t>menor</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>math</t>
   </si>
 </sst>
 </file>
@@ -13884,10 +14328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E341" sqref="E341"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15909,8 +16353,102 @@
       <c r="A342" s="45"/>
       <c r="B342" s="42"/>
     </row>
+    <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B344" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="44"/>
+      <c r="B345" s="40"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="44"/>
+      <c r="B346" s="34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="44"/>
+      <c r="B347" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="44"/>
+      <c r="B348" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="44"/>
+      <c r="B349" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="44"/>
+      <c r="B350" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="44"/>
+      <c r="B351" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="44"/>
+      <c r="B352" s="34"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="44"/>
+      <c r="B353" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="45"/>
+      <c r="B354" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A111:A116"/>
     <mergeCell ref="A330:A342"/>
     <mergeCell ref="A104:A109"/>
     <mergeCell ref="A320:A328"/>
@@ -15927,21 +16465,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A111:A116"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D556C8F-6F0E-413F-8E67-81DCFDA8C279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E44D2-DCFF-41DC-B4E5-C449628F0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="309">
   <si>
     <t>Descrição</t>
   </si>
@@ -13430,6 +13430,485 @@
   </si>
   <si>
     <t>math</t>
+  </si>
+  <si>
+    <t>Escreva um programa que pergunte o salário de um funcionário e calcule o valor do seu aumento. Para salários superiores a R$1250,00, calcule um aumento de 10%. Para os inferiores ou iguais, o aumento é de 15%.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual é o salário do funcionário? R$'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    novo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    novo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quem ganhava R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> passa a ganhar R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> agora'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(salario, novo))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14328,10 +14807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B351" sqref="B351"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B364" sqref="B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16431,8 +16910,78 @@
       <c r="A354" s="45"/>
       <c r="B354" s="42"/>
     </row>
+    <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="356" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B356" s="31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="44"/>
+      <c r="B357" s="40"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="44"/>
+      <c r="B358" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="44"/>
+      <c r="B359" s="34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="44"/>
+      <c r="B360" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="44"/>
+      <c r="B361" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="44"/>
+      <c r="B362" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="44"/>
+      <c r="B363" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="45"/>
+      <c r="B364" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A217:A228"/>
     <mergeCell ref="A344:A354"/>
     <mergeCell ref="A248:A260"/>
     <mergeCell ref="A297:A309"/>
@@ -16449,22 +16998,6 @@
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A320:A328"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A217:A228"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E44D2-DCFF-41DC-B4E5-C449628F0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6224F3-C28D-4FEB-93B6-638C064DF623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="319">
   <si>
     <t>Descrição</t>
   </si>
@@ -13908,6 +13908,586 @@
         <family val="3"/>
       </rPr>
       <t>(salario, novo))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex034</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia o comprimento de três retas e diga ao usuário se elas podem ou não formar um triângulo.</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Analisador de Triângulos'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeiro segmento: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Segundo segmento: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Terceiro segmento: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r2:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Os segmentos acima PODEM FORMAR triângulo!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Os segmentos acima NÃO podem formar triângulo!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -14807,10 +15387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:G378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B364" sqref="B364"/>
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B375" sqref="B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16963,8 +17543,103 @@
       <c r="A364" s="45"/>
       <c r="B364" s="42"/>
     </row>
+    <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B366" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="44"/>
+      <c r="B367" s="40"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="44"/>
+      <c r="B368" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="44"/>
+      <c r="B369" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="44"/>
+      <c r="B370" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="44"/>
+      <c r="B371" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="44"/>
+      <c r="B372" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="44"/>
+      <c r="B373" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="44"/>
+      <c r="B374" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="44"/>
+      <c r="B375" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="44"/>
+      <c r="B376" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="44"/>
+      <c r="B377" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="45"/>
+      <c r="B378" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
     <mergeCell ref="A356:A364"/>
     <mergeCell ref="A330:A342"/>
     <mergeCell ref="A104:A109"/>
@@ -16981,23 +17656,6 @@
     <mergeCell ref="A230:A237"/>
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A111:A116"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6224F3-C28D-4FEB-93B6-638C064DF623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905E9EB-2C51-4EC5-97FC-5B5D2ED75278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="321">
   <si>
     <t>Descrição</t>
   </si>
@@ -14489,6 +14489,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>cor</t>
   </si>
 </sst>
 </file>
@@ -15090,6 +15096,319 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7283824</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2299AAA-718D-FFAD-4635-DE93F610D187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="75169059"/>
+          <a:ext cx="7272618" cy="2487706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7272617</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56A61F9-D29B-8314-9B0B-2C4BC6EB2363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="77869678"/>
+          <a:ext cx="7261411" cy="2454088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>27461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663E42B-9069-6D63-C12E-ED63AF9B94E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7989794" y="75146647"/>
+          <a:ext cx="4437530" cy="2537579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456170</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC418A6-1DFD-6E0D-87E8-F8F410B759C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12460941" y="75157853"/>
+          <a:ext cx="4423053" cy="2498912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31486</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313763</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35B106C-5403-13E2-E5C0-8BD1772A640E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987662" y="77847265"/>
+          <a:ext cx="5123219" cy="2543735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392204</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>343238</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18E3E5E-614C-21B0-6487-A5FC6E0F233E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13189322" y="77847266"/>
+          <a:ext cx="6002210" cy="2543734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>1777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>496148</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>34122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CB6E25-602F-F327-FD3F-930A2F97DAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16920883" y="75159630"/>
+          <a:ext cx="7264500" cy="2531257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -15387,10 +15706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A394" sqref="A394:A406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17620,29 +17939,126 @@
       <c r="A378" s="45"/>
       <c r="B378" s="42"/>
     </row>
+    <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B380" s="31"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="44"/>
+      <c r="B381" s="40"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="44"/>
+      <c r="B382" s="11"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="44"/>
+      <c r="B383" s="11"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="44"/>
+      <c r="B384" s="11"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="44"/>
+      <c r="B385" s="7"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="44"/>
+      <c r="B386" s="7"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="44"/>
+      <c r="B387" s="7"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="44"/>
+      <c r="B388" s="34"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="44"/>
+      <c r="B389" s="7"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="44"/>
+      <c r="B390" s="34"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="44"/>
+      <c r="B391" s="7"/>
+    </row>
+    <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="45"/>
+      <c r="B392" s="42"/>
+      <c r="C392" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B394" s="31"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="44"/>
+      <c r="B395" s="40"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="44"/>
+      <c r="B396" s="11"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="44"/>
+      <c r="B397" s="11"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="44"/>
+      <c r="B398" s="11"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="44"/>
+      <c r="B399" s="7"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="44"/>
+      <c r="B400" s="7"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="44"/>
+      <c r="B401" s="7"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="44"/>
+      <c r="B402" s="34"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="44"/>
+      <c r="B403" s="7"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="44"/>
+      <c r="B404" s="34"/>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="44"/>
+      <c r="B405" s="7"/>
+    </row>
+    <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="45"/>
+      <c r="B406" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A104:A109"/>
+  <mergeCells count="36">
+    <mergeCell ref="A380:A392"/>
+    <mergeCell ref="A394:A406"/>
     <mergeCell ref="A320:A328"/>
     <mergeCell ref="A64:A78"/>
     <mergeCell ref="A311:A318"/>
@@ -17656,8 +18072,30 @@
     <mergeCell ref="A230:A237"/>
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A104:A109"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905E9EB-2C51-4EC5-97FC-5B5D2ED75278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABCAFEC-17BB-4DB9-B8D7-E5819D2D243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -15708,7 +15708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
   <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A394" sqref="A394:A406"/>
     </sheetView>
   </sheetViews>
@@ -18057,6 +18057,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A380:A392"/>
     <mergeCell ref="A394:A406"/>
     <mergeCell ref="A320:A328"/>
@@ -18072,27 +18092,7 @@
     <mergeCell ref="A230:A237"/>
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A104:A109"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABCAFEC-17BB-4DB9-B8D7-E5819D2D243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86025BF9-7BC6-4660-85F7-A3CE96F5A5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="353">
   <si>
     <t>Descrição</t>
   </si>
@@ -14495,6 +14495,2160 @@
   </si>
   <si>
     <t>cor</t>
+  </si>
+  <si>
+    <t>ex035</t>
+  </si>
+  <si>
+    <t>ex036</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[34m-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[1;33m SIMULAÇÃO DE FINANCIAMENTO DE IMÓVEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">casa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Valor do imóvel? R$'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual o valor do seu salário? R$'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Parcelado em quantos anos? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">quantParcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">valorParcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> casa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> quantParcelas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[1;33mVERIFICANDO...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> valorParcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;31mO valor da parcela excedeu o limite de 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o seu salário.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Empréstimo NÃO LIBERADO!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[4;32mOk, o empréstimo poderá ser liberado com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.0f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(quantParcelas, valorParcelas))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex037</t>
+  </si>
+  <si>
+    <t>Escreva um programa em Python que leia um número inteiro qualquer e peça para o usuário escolher qual será a base de conversão: 1 para binário, 2 para octal e 3 para hexadecimal.</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[35m-=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[33mDigite um número inteiro: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[1;30;45mEscolha uma das bases para conversão:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m </t>
+    </r>
+  </si>
+  <si>
+    <t>[ 1 ] Converter para BINÁRIO.</t>
+  </si>
+  <si>
+    <t>[ 2 ] Converter para OCTAL</t>
+  </si>
+  <si>
+    <r>
+      <t>[ 3 ] Converter para HEXADECIMAL'''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[33mSua opção: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;34m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m convertido para BINÁRIO é igual a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[33m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;34m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m convertido para OCTAL é igual a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[33m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>oct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;34m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m convertido para HEXADECIMAL é igual a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[33m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;30;41mOpção inválida!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m Tente novamente.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Escreva um programa para aprovar o empréstimo bancário para a compra de uma casa. Pergunte o valor da casa, o salário do comprador e em quantos anos ele vai pagar. A prestação mensal não pode exceder 30% do salário ou então o empréstimo será negado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '''   ''' ---&gt; Aspas triplas para escrever em mais linhas sem precisar usar o "\n"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bin ---&gt; Binário, oct ---&gt; Octal e hex ---&gt; Hexadecimal</t>
   </si>
 </sst>
 </file>
@@ -14948,7 +17102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -15079,6 +17233,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15195,7 +17367,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
+      <xdr:colOff>235325</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>27461</xdr:rowOff>
     </xdr:to>
@@ -15283,7 +17455,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313763</xdr:colOff>
+      <xdr:colOff>313764</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
@@ -15371,7 +17543,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>496148</xdr:colOff>
+      <xdr:colOff>496147</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>34122</xdr:rowOff>
     </xdr:to>
@@ -15706,16 +17878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A394" sqref="A394:A406"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="109.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="147.5703125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -17430,13 +19602,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="44"/>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="44"/>
-      <c r="B293" s="11" t="s">
+      <c r="B293" s="36" t="s">
         <v>245</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -17451,7 +19623,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="44"/>
-      <c r="B294" s="39" t="s">
+      <c r="B294" s="50" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17633,7 +19805,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="44"/>
-      <c r="B327" s="11" t="s">
+      <c r="B327" s="36" t="s">
         <v>273</v>
       </c>
       <c r="C327" s="2" t="s">
@@ -17717,7 +19889,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="44"/>
-      <c r="B341" s="11" t="s">
+      <c r="B341" s="36" t="s">
         <v>286</v>
       </c>
       <c r="C341" s="2" t="s">
@@ -17812,7 +19984,7 @@
     <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="356" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="43" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B356" s="31" t="s">
         <v>303</v>
@@ -17865,7 +20037,7 @@
     <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="43" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B366" s="31" t="s">
         <v>310</v>
@@ -18055,28 +20227,264 @@
       <c r="A406" s="45"/>
       <c r="B406" s="42"/>
     </row>
+    <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="408" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B408" s="31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="44"/>
+      <c r="B409" s="40"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="44"/>
+      <c r="B410" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="44"/>
+      <c r="B411" s="46"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="44"/>
+      <c r="B412" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="44"/>
+      <c r="B413" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="44"/>
+      <c r="B414" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="44"/>
+      <c r="B415" s="46"/>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="44"/>
+      <c r="B416" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="44"/>
+      <c r="B417" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="44"/>
+      <c r="B418" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="44"/>
+      <c r="B419" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="44"/>
+      <c r="B420" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="44"/>
+      <c r="B421" s="46"/>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="44"/>
+      <c r="B422" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="44"/>
+      <c r="B423" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="44"/>
+      <c r="B424" s="46"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="44"/>
+      <c r="B425" s="34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A426" s="44"/>
+      <c r="B426" s="47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="44"/>
+      <c r="B427" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="44"/>
+      <c r="B428" s="47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="45"/>
+      <c r="B429" s="49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="431" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B431" s="31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="44"/>
+      <c r="B432" s="40"/>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="44"/>
+      <c r="B433" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="44"/>
+      <c r="B434" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="44"/>
+      <c r="B435" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="44"/>
+      <c r="B436" s="48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="44"/>
+      <c r="B437" s="48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="44"/>
+      <c r="B438" s="48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="44"/>
+      <c r="B439" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="44"/>
+      <c r="B440" s="34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="44"/>
+      <c r="B441" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="44"/>
+      <c r="B442" s="34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="44"/>
+      <c r="B443" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="44"/>
+      <c r="B444" s="34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="44"/>
+      <c r="B445" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="44"/>
+      <c r="B446" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="44"/>
+      <c r="B447" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="44"/>
+      <c r="B448" s="34"/>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="44"/>
+      <c r="B449" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="44"/>
+      <c r="B450" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="44"/>
+      <c r="B451" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="45"/>
+      <c r="B452" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
+  <mergeCells count="38">
+    <mergeCell ref="A408:A429"/>
+    <mergeCell ref="A431:A452"/>
     <mergeCell ref="A380:A392"/>
     <mergeCell ref="A394:A406"/>
     <mergeCell ref="A320:A328"/>
@@ -18093,6 +20501,26 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A104:A109"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86025BF9-7BC6-4660-85F7-A3CE96F5A5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF68F2-6094-4807-AA10-EC343DAAC969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="377">
   <si>
     <t>Descrição</t>
   </si>
@@ -16649,6 +16649,1486 @@
   </si>
   <si>
     <t xml:space="preserve"> bin ---&gt; Binário, oct ---&gt; Octal e hex ---&gt; Hexadecimal</t>
+  </si>
+  <si>
+    <t>ex038</t>
+  </si>
+  <si>
+    <t>Escreva um programa que leia dois números inteiros e compare-os. mostrando na tela uma mensagem:</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'*'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n2:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;30;45mO 1º número é maior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n2:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'O 2º número é maior'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Os números são iguais!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Faça um programa que leia o ano de nascimento de um jovem e informe, de acordo com a sua idade, se ele ainda vai se alistar ao serviço militar, se é a hora exata de se alistar ou se já passou do tempo do alistamento. Seu programa também deverá mostrar o tempo que falta ou que passou do prazo.</t>
+  </si>
+  <si>
+    <t>ex039</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[32m* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[34mAlistamento Militar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Sexo: Masculino ou Feminino: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'FEMININO'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;31mAviso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m Você não é obrigada a fazer o alistamento Militar!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anoNascimento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Digite o ano de nascimento: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anoAtual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> date.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anoAtual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anoNascimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, você completa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos de idade! Ainda faltam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos para seu alistamento Militar.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(anoAtual, idade, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, você completa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos de idade! Deve se alistar para o Serviço Militar obrigatório!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(anoAtual, idade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, você completa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos de idade! Você deveria ter se alistado à </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos atrás!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(anoAtual, idade, idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>.center(36) ---&gt; Serve para centralizar a string dentro de no caso 36 espaços de caracteres, podendo fazer também: .center(36, =) para preencher os outros espaços vazios....pesquisar</t>
   </si>
 </sst>
 </file>
@@ -17224,15 +18704,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -17250,6 +18721,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17878,16 +19358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B451" sqref="B451"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:A488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="147.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="166" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -17900,7 +19380,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="49" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -17908,23 +19388,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17932,7 +19412,7 @@
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="49" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -17940,35 +19420,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17976,7 +19456,7 @@
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="49" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -17984,65 +19464,65 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18050,7 +19530,7 @@
       <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="49" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -18058,35 +19538,35 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18094,7 +19574,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="49" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -18102,53 +19582,53 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18156,7 +19636,7 @@
       <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="49" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -18164,35 +19644,35 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="33"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18200,7 +19680,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="49" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -18208,35 +19688,35 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18244,7 +19724,7 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="49" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -18252,83 +19732,83 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -18340,7 +19820,7 @@
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="49" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -18348,29 +19828,29 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18378,7 +19858,7 @@
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="49" t="s">
         <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -18386,41 +19866,41 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="33"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18428,7 +19908,7 @@
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B97" s="31" t="s">
@@ -18436,29 +19916,29 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="45"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18466,7 +19946,7 @@
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="49" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="31" t="s">
@@ -18474,29 +19954,29 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="33"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18504,7 +19984,7 @@
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="43" t="s">
+      <c r="A111" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="31" t="s">
@@ -18512,29 +19992,29 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="44"/>
+      <c r="A114" s="50"/>
       <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="45"/>
+      <c r="A116" s="51"/>
       <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18542,7 +20022,7 @@
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="49" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="31" t="s">
@@ -18550,35 +20030,35 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="45"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="33"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18586,7 +20066,7 @@
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="43" t="s">
+      <c r="A126" s="49" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -18594,33 +20074,33 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="45"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="33"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18628,7 +20108,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="49" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -18636,57 +20116,57 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="45"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="33"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18694,7 +20174,7 @@
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="49" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="31" t="s">
@@ -18702,59 +20182,59 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="44"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="45"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="33"/>
       <c r="C156" s="2" t="s">
         <v>116</v>
@@ -18775,7 +20255,7 @@
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="43" t="s">
+      <c r="A159" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="31" t="s">
@@ -18783,75 +20263,75 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
+      <c r="A162" s="50"/>
       <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="45"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
@@ -18867,7 +20347,7 @@
       <c r="B173" s="20"/>
     </row>
     <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="49" t="s">
         <v>73</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -18875,69 +20355,69 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
+      <c r="A178" s="50"/>
       <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
+      <c r="A179" s="50"/>
       <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
+      <c r="A180" s="50"/>
       <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
+      <c r="A181" s="50"/>
       <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
+      <c r="A182" s="50"/>
       <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
+      <c r="A183" s="50"/>
       <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
+      <c r="A184" s="50"/>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="44"/>
+      <c r="A185" s="50"/>
       <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="44"/>
+      <c r="A186" s="50"/>
       <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
@@ -18949,7 +20429,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="45"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
@@ -18965,7 +20445,7 @@
       <c r="B188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="43" t="s">
+      <c r="A189" s="49" t="s">
         <v>66</v>
       </c>
       <c r="B189" s="29" t="s">
@@ -18973,41 +20453,41 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="44"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
+      <c r="A191" s="50"/>
       <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="44"/>
+      <c r="A192" s="50"/>
       <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
+      <c r="A193" s="50"/>
       <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
+      <c r="A194" s="50"/>
       <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
+      <c r="A195" s="50"/>
       <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="45"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="18"/>
       <c r="C196" s="2" t="s">
         <v>104</v>
@@ -19021,7 +20501,7 @@
       <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="43" t="s">
+      <c r="A198" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="29" t="s">
@@ -19029,23 +20509,23 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="44"/>
+      <c r="A199" s="50"/>
       <c r="B199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="44"/>
+      <c r="A200" s="50"/>
       <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="44"/>
+      <c r="A201" s="50"/>
       <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="44"/>
+      <c r="A202" s="50"/>
       <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
@@ -19054,7 +20534,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="44"/>
+      <c r="A203" s="50"/>
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -19063,7 +20543,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="44"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
@@ -19075,7 +20555,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
@@ -19084,7 +20564,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="44"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
@@ -19093,53 +20573,53 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="22"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="44"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="44"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="44"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="44"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="44"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="44"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="45"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19147,7 +20627,7 @@
       <c r="B216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="29" t="s">
@@ -19155,11 +20635,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="44"/>
+      <c r="A218" s="50"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="44"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
@@ -19168,13 +20648,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="44"/>
+      <c r="A220" s="50"/>
       <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="44"/>
+      <c r="A221" s="50"/>
       <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
@@ -19183,43 +20663,43 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="44"/>
+      <c r="A222" s="50"/>
       <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="44"/>
+      <c r="A223" s="50"/>
       <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="44"/>
+      <c r="A224" s="50"/>
       <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="44"/>
+      <c r="A225" s="50"/>
       <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="44"/>
+      <c r="A226" s="50"/>
       <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="44"/>
+      <c r="A227" s="50"/>
       <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="45"/>
+      <c r="A228" s="51"/>
       <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
@@ -19229,7 +20709,7 @@
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="43" t="s">
+      <c r="A230" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B230" s="29" t="s">
@@ -19237,11 +20717,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="44"/>
+      <c r="A231" s="50"/>
       <c r="B231" s="7"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="44"/>
+      <c r="A232" s="50"/>
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
@@ -19250,7 +20730,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="44"/>
+      <c r="A233" s="50"/>
       <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
@@ -19259,18 +20739,18 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="44"/>
+      <c r="A234" s="50"/>
       <c r="B234" s="7"/>
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="44"/>
+      <c r="A235" s="50"/>
       <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="44"/>
+      <c r="A236" s="50"/>
       <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
@@ -19279,7 +20759,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="45"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
@@ -19292,7 +20772,7 @@
       <c r="B238" s="14"/>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="43" t="s">
+      <c r="A239" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -19300,11 +20780,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="44"/>
+      <c r="A240" s="50"/>
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="44"/>
+      <c r="A241" s="50"/>
       <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
@@ -19313,7 +20793,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="44"/>
+      <c r="A242" s="50"/>
       <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
@@ -19322,21 +20802,21 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="44"/>
+      <c r="A243" s="50"/>
       <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="44"/>
+      <c r="A244" s="50"/>
       <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="44"/>
+      <c r="A245" s="50"/>
       <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="45"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
@@ -19349,7 +20829,7 @@
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="43" t="s">
+      <c r="A248" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="31" t="s">
@@ -19357,45 +20837,45 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="44"/>
+      <c r="A249" s="50"/>
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="44"/>
+      <c r="A250" s="50"/>
       <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="44"/>
+      <c r="A251" s="50"/>
       <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="44"/>
+      <c r="A252" s="50"/>
       <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="44"/>
+      <c r="A253" s="50"/>
       <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="44"/>
+      <c r="A254" s="50"/>
       <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="44"/>
+      <c r="A255" s="50"/>
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="44"/>
+      <c r="A256" s="50"/>
       <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
@@ -19407,32 +20887,32 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="44"/>
+      <c r="A257" s="50"/>
       <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="44"/>
+      <c r="A258" s="50"/>
       <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="44"/>
+      <c r="A259" s="50"/>
       <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="45"/>
+      <c r="A260" s="51"/>
       <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="43" t="s">
+      <c r="A262" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B262" s="31" t="s">
@@ -19440,74 +20920,74 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="44"/>
+      <c r="A263" s="50"/>
       <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="44"/>
+      <c r="A264" s="50"/>
       <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="44"/>
+      <c r="A265" s="50"/>
       <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="44"/>
+      <c r="A266" s="50"/>
       <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="44"/>
+      <c r="A267" s="50"/>
       <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="44"/>
+      <c r="A268" s="50"/>
       <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="44"/>
+      <c r="A269" s="50"/>
       <c r="B269" s="7"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="44"/>
+      <c r="A270" s="50"/>
       <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="44"/>
+      <c r="A271" s="50"/>
       <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="44"/>
+      <c r="A272" s="50"/>
       <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="44"/>
+      <c r="A273" s="50"/>
       <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="45"/>
+      <c r="A274" s="51"/>
       <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="43" t="s">
+      <c r="A276" s="49" t="s">
         <v>231</v>
       </c>
       <c r="B276" s="31" t="s">
@@ -19515,99 +20995,99 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="44"/>
+      <c r="A277" s="50"/>
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="44"/>
+      <c r="A278" s="50"/>
       <c r="B278" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="44"/>
+      <c r="A279" s="50"/>
       <c r="B279" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="44"/>
+      <c r="A280" s="50"/>
       <c r="B280" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="44"/>
+      <c r="A281" s="50"/>
       <c r="B281" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="44"/>
+      <c r="A282" s="50"/>
       <c r="B282" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="44"/>
+      <c r="A283" s="50"/>
       <c r="B283" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="44"/>
+      <c r="A284" s="50"/>
       <c r="B284" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="44"/>
+      <c r="A285" s="50"/>
       <c r="B285" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="44"/>
+      <c r="A286" s="50"/>
       <c r="B286" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="44"/>
+      <c r="A287" s="50"/>
       <c r="B287" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="44"/>
+      <c r="A288" s="50"/>
       <c r="B288" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="44"/>
+      <c r="A289" s="50"/>
       <c r="B289" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="44"/>
+      <c r="A290" s="50"/>
       <c r="B290" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="44"/>
+      <c r="A291" s="50"/>
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="44"/>
+      <c r="A292" s="50"/>
       <c r="B292" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="44"/>
+      <c r="A293" s="50"/>
       <c r="B293" s="36" t="s">
         <v>245</v>
       </c>
@@ -19622,13 +21102,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="44"/>
-      <c r="B294" s="50" t="s">
+      <c r="A294" s="50"/>
+      <c r="B294" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="45"/>
+      <c r="A295" s="51"/>
       <c r="B295" s="33"/>
       <c r="C295" s="2" t="s">
         <v>249</v>
@@ -19642,7 +21122,7 @@
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="297" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="43" t="s">
+      <c r="A297" s="49" t="s">
         <v>252</v>
       </c>
       <c r="B297" s="31" t="s">
@@ -19650,74 +21130,74 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="44"/>
+      <c r="A298" s="50"/>
       <c r="B298" s="40"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="44"/>
+      <c r="A299" s="50"/>
       <c r="B299" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="44"/>
+      <c r="A300" s="50"/>
       <c r="B300" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="44"/>
+      <c r="A301" s="50"/>
       <c r="B301" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="44"/>
+      <c r="A302" s="50"/>
       <c r="B302" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="44"/>
+      <c r="A303" s="50"/>
       <c r="B303" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="44"/>
+      <c r="A304" s="50"/>
       <c r="B304" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="44"/>
+      <c r="A305" s="50"/>
       <c r="B305" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="44"/>
+      <c r="A306" s="50"/>
       <c r="B306" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="44"/>
+      <c r="A307" s="50"/>
       <c r="B307" s="23"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="44"/>
+      <c r="A308" s="50"/>
       <c r="B308" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="45"/>
+      <c r="A309" s="51"/>
       <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="43" t="s">
+      <c r="A311" s="49" t="s">
         <v>262</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -19725,46 +21205,46 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="44"/>
+      <c r="A312" s="50"/>
       <c r="B312" s="7"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="44"/>
+      <c r="A313" s="50"/>
       <c r="B313" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="44"/>
+      <c r="A314" s="50"/>
       <c r="B314" s="34" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="44"/>
+      <c r="A315" s="50"/>
       <c r="B315" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="44"/>
+      <c r="A316" s="50"/>
       <c r="B316" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="44"/>
+      <c r="A317" s="50"/>
       <c r="B317" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="45"/>
+      <c r="A318" s="51"/>
       <c r="B318" s="16"/>
     </row>
     <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="320" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="43" t="s">
+      <c r="A320" s="49" t="s">
         <v>268</v>
       </c>
       <c r="B320" s="31" t="s">
@@ -19772,39 +21252,39 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="44"/>
+      <c r="A321" s="50"/>
       <c r="B321" s="7"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="44"/>
+      <c r="A322" s="50"/>
       <c r="B322" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="44"/>
+      <c r="A323" s="50"/>
       <c r="B323" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="44"/>
+      <c r="A324" s="50"/>
       <c r="B324" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="44"/>
+      <c r="A325" s="50"/>
       <c r="B325" s="34"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="44"/>
+      <c r="A326" s="50"/>
       <c r="B326" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="44"/>
+      <c r="A327" s="50"/>
       <c r="B327" s="36" t="s">
         <v>273</v>
       </c>
@@ -19819,12 +21299,12 @@
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="45"/>
+      <c r="A328" s="51"/>
       <c r="B328" s="42"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="43" t="s">
+      <c r="A330" s="49" t="s">
         <v>277</v>
       </c>
       <c r="B330" s="31" t="s">
@@ -19832,63 +21312,63 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="44"/>
+      <c r="A331" s="50"/>
       <c r="B331" s="40"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="44"/>
+      <c r="A332" s="50"/>
       <c r="B332" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="44"/>
+      <c r="A333" s="50"/>
       <c r="B333" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="44"/>
+      <c r="A334" s="50"/>
       <c r="B334" s="34" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="44"/>
+      <c r="A335" s="50"/>
       <c r="B335" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="44"/>
+      <c r="A336" s="50"/>
       <c r="B336" s="34" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="44"/>
+      <c r="A337" s="50"/>
       <c r="B337" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="44"/>
+      <c r="A338" s="50"/>
       <c r="B338" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="44"/>
+      <c r="A339" s="50"/>
       <c r="B339" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="44"/>
+      <c r="A340" s="50"/>
       <c r="B340" s="7"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="44"/>
+      <c r="A341" s="50"/>
       <c r="B341" s="36" t="s">
         <v>286</v>
       </c>
@@ -19900,12 +21380,12 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="45"/>
+      <c r="A342" s="51"/>
       <c r="B342" s="42"/>
     </row>
     <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="43" t="s">
+      <c r="A344" s="49" t="s">
         <v>289</v>
       </c>
       <c r="B344" s="31" t="s">
@@ -19913,51 +21393,51 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="44"/>
+      <c r="A345" s="50"/>
       <c r="B345" s="40"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="44"/>
+      <c r="A346" s="50"/>
       <c r="B346" s="34" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="44"/>
+      <c r="A347" s="50"/>
       <c r="B347" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="44"/>
+      <c r="A348" s="50"/>
       <c r="B348" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="44"/>
+      <c r="A349" s="50"/>
       <c r="B349" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="44"/>
+      <c r="A350" s="50"/>
       <c r="B350" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="44"/>
+      <c r="A351" s="50"/>
       <c r="B351" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="44"/>
+      <c r="A352" s="50"/>
       <c r="B352" s="34"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="44"/>
+      <c r="A353" s="50"/>
       <c r="B353" s="7" t="s">
         <v>297</v>
       </c>
@@ -19978,12 +21458,12 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="45"/>
+      <c r="A354" s="51"/>
       <c r="B354" s="42"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="356" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="43" t="s">
+      <c r="A356" s="49" t="s">
         <v>309</v>
       </c>
       <c r="B356" s="31" t="s">
@@ -19991,52 +21471,52 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="44"/>
+      <c r="A357" s="50"/>
       <c r="B357" s="40"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="44"/>
+      <c r="A358" s="50"/>
       <c r="B358" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="44"/>
+      <c r="A359" s="50"/>
       <c r="B359" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="44"/>
+      <c r="A360" s="50"/>
       <c r="B360" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="44"/>
+      <c r="A361" s="50"/>
       <c r="B361" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="44"/>
+      <c r="A362" s="50"/>
       <c r="B362" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="44"/>
+      <c r="A363" s="50"/>
       <c r="B363" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="45"/>
+      <c r="A364" s="51"/>
       <c r="B364" s="42"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="43" t="s">
+      <c r="A366" s="49" t="s">
         <v>321</v>
       </c>
       <c r="B366" s="31" t="s">
@@ -20044,126 +21524,126 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="44"/>
+      <c r="A367" s="50"/>
       <c r="B367" s="40"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="44"/>
+      <c r="A368" s="50"/>
       <c r="B368" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="44"/>
+      <c r="A369" s="50"/>
       <c r="B369" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="44"/>
+      <c r="A370" s="50"/>
       <c r="B370" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="44"/>
+      <c r="A371" s="50"/>
       <c r="B371" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="44"/>
+      <c r="A372" s="50"/>
       <c r="B372" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="44"/>
+      <c r="A373" s="50"/>
       <c r="B373" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="44"/>
+      <c r="A374" s="50"/>
       <c r="B374" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="44"/>
+      <c r="A375" s="50"/>
       <c r="B375" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="44"/>
+      <c r="A376" s="50"/>
       <c r="B376" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="44"/>
+      <c r="A377" s="50"/>
       <c r="B377" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="45"/>
+      <c r="A378" s="51"/>
       <c r="B378" s="42"/>
     </row>
     <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="43" t="s">
+      <c r="A380" s="49" t="s">
         <v>319</v>
       </c>
       <c r="B380" s="31"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="44"/>
+      <c r="A381" s="50"/>
       <c r="B381" s="40"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="44"/>
+      <c r="A382" s="50"/>
       <c r="B382" s="11"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="44"/>
+      <c r="A383" s="50"/>
       <c r="B383" s="11"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="44"/>
+      <c r="A384" s="50"/>
       <c r="B384" s="11"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="44"/>
+      <c r="A385" s="50"/>
       <c r="B385" s="7"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="44"/>
+      <c r="A386" s="50"/>
       <c r="B386" s="7"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="44"/>
+      <c r="A387" s="50"/>
       <c r="B387" s="7"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="44"/>
+      <c r="A388" s="50"/>
       <c r="B388" s="34"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="44"/>
+      <c r="A389" s="50"/>
       <c r="B389" s="7"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="44"/>
+      <c r="A390" s="50"/>
       <c r="B390" s="34"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="44"/>
+      <c r="A391" s="50"/>
       <c r="B391" s="7"/>
     </row>
     <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="45"/>
+      <c r="A392" s="51"/>
       <c r="B392" s="42"/>
       <c r="C392" s="2" t="s">
         <v>320</v>
@@ -20174,62 +21654,62 @@
     </row>
     <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="43" t="s">
+      <c r="A394" s="49" t="s">
         <v>319</v>
       </c>
       <c r="B394" s="31"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="44"/>
+      <c r="A395" s="50"/>
       <c r="B395" s="40"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="44"/>
+      <c r="A396" s="50"/>
       <c r="B396" s="11"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="44"/>
+      <c r="A397" s="50"/>
       <c r="B397" s="11"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="44"/>
+      <c r="A398" s="50"/>
       <c r="B398" s="11"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="44"/>
+      <c r="A399" s="50"/>
       <c r="B399" s="7"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="44"/>
+      <c r="A400" s="50"/>
       <c r="B400" s="7"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="44"/>
+      <c r="A401" s="50"/>
       <c r="B401" s="7"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="44"/>
+      <c r="A402" s="50"/>
       <c r="B402" s="34"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="44"/>
+      <c r="A403" s="50"/>
       <c r="B403" s="7"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="44"/>
+      <c r="A404" s="50"/>
       <c r="B404" s="34"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="44"/>
+      <c r="A405" s="50"/>
       <c r="B405" s="7"/>
     </row>
     <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="45"/>
+      <c r="A406" s="51"/>
       <c r="B406" s="42"/>
     </row>
     <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="408" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="43" t="s">
+      <c r="A408" s="49" t="s">
         <v>322</v>
       </c>
       <c r="B408" s="31" t="s">
@@ -20237,124 +21717,124 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="44"/>
+      <c r="A409" s="50"/>
       <c r="B409" s="40"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="44"/>
+      <c r="A410" s="50"/>
       <c r="B410" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="44"/>
-      <c r="B411" s="46"/>
+      <c r="A411" s="50"/>
+      <c r="B411" s="43"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="44"/>
+      <c r="A412" s="50"/>
       <c r="B412" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="44"/>
+      <c r="A413" s="50"/>
       <c r="B413" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="44"/>
+      <c r="A414" s="50"/>
       <c r="B414" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="44"/>
-      <c r="B415" s="46"/>
+      <c r="A415" s="50"/>
+      <c r="B415" s="43"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="44"/>
+      <c r="A416" s="50"/>
       <c r="B416" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="44"/>
+      <c r="A417" s="50"/>
       <c r="B417" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="44"/>
+      <c r="A418" s="50"/>
       <c r="B418" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="44"/>
+      <c r="A419" s="50"/>
       <c r="B419" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="44"/>
+      <c r="A420" s="50"/>
       <c r="B420" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="44"/>
-      <c r="B421" s="46"/>
+      <c r="A421" s="50"/>
+      <c r="B421" s="43"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="44"/>
+      <c r="A422" s="50"/>
       <c r="B422" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="44"/>
+      <c r="A423" s="50"/>
       <c r="B423" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="44"/>
-      <c r="B424" s="46"/>
+      <c r="A424" s="50"/>
+      <c r="B424" s="43"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="44"/>
+      <c r="A425" s="50"/>
       <c r="B425" s="34" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A426" s="44"/>
-      <c r="B426" s="47" t="s">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="50"/>
+      <c r="B426" s="44" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="44"/>
+      <c r="A427" s="50"/>
       <c r="B427" s="34" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A428" s="44"/>
-      <c r="B428" s="47" t="s">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="50"/>
+      <c r="B428" s="44" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="45"/>
-      <c r="B429" s="49" t="s">
+      <c r="A429" s="51"/>
+      <c r="B429" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="431" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="43" t="s">
+      <c r="A431" s="49" t="s">
         <v>334</v>
       </c>
       <c r="B431" s="31" t="s">
@@ -20362,132 +21842,344 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="44"/>
+      <c r="A432" s="50"/>
       <c r="B432" s="40"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="44"/>
+      <c r="A433" s="50"/>
       <c r="B433" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="44"/>
+      <c r="A434" s="50"/>
       <c r="B434" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="44"/>
+      <c r="A435" s="50"/>
       <c r="B435" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="44"/>
-      <c r="B436" s="48" t="s">
+      <c r="A436" s="50"/>
+      <c r="B436" s="45" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="44"/>
-      <c r="B437" s="48" t="s">
+      <c r="A437" s="50"/>
+      <c r="B437" s="45" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="44"/>
-      <c r="B438" s="48" t="s">
+      <c r="A438" s="50"/>
+      <c r="B438" s="45" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="44"/>
+      <c r="A439" s="50"/>
       <c r="B439" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="44"/>
+      <c r="A440" s="50"/>
       <c r="B440" s="34" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="44"/>
+      <c r="A441" s="50"/>
       <c r="B441" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="44"/>
+      <c r="A442" s="50"/>
       <c r="B442" s="34" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="44"/>
+      <c r="A443" s="50"/>
       <c r="B443" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="44"/>
+      <c r="A444" s="50"/>
       <c r="B444" s="34" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="44"/>
+      <c r="A445" s="50"/>
       <c r="B445" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="44"/>
+      <c r="A446" s="50"/>
       <c r="B446" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="44"/>
+      <c r="A447" s="50"/>
       <c r="B447" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="44"/>
+      <c r="A448" s="50"/>
       <c r="B448" s="34"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="44"/>
+      <c r="A449" s="50"/>
       <c r="B449" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="44"/>
-      <c r="B450" s="51" t="s">
+      <c r="A450" s="50"/>
+      <c r="B450" s="48" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="44"/>
-      <c r="B451" s="47" t="s">
+      <c r="A451" s="50"/>
+      <c r="B451" s="44" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="45"/>
+      <c r="A452" s="51"/>
       <c r="B452" s="42"/>
     </row>
+    <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="B454" s="31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="50"/>
+      <c r="B455" s="40"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="50"/>
+      <c r="B456" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="50"/>
+      <c r="B457" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="50"/>
+      <c r="B458" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="50"/>
+      <c r="B459" s="34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="50"/>
+      <c r="B460" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="50"/>
+      <c r="B461" s="34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="50"/>
+      <c r="B462" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="50"/>
+      <c r="B463" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="50"/>
+      <c r="B464" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="51"/>
+      <c r="B465" s="42"/>
+    </row>
+    <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="467" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="B467" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="50"/>
+      <c r="B468" s="40"/>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="50"/>
+      <c r="B469" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="50"/>
+      <c r="B470" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="50"/>
+      <c r="B471" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="50"/>
+      <c r="B472" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="50"/>
+      <c r="B473" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="50"/>
+      <c r="B474" s="34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="50"/>
+      <c r="B475" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="50"/>
+      <c r="B476" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="50"/>
+      <c r="B477" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="50"/>
+      <c r="B478" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="50"/>
+      <c r="B479" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="50"/>
+      <c r="B480" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="50"/>
+      <c r="B481" s="34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="50"/>
+      <c r="B482" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="50"/>
+      <c r="B483" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="50"/>
+      <c r="B484" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="50"/>
+      <c r="B485" s="11"/>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="50"/>
+      <c r="B486" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="50"/>
+      <c r="B487" s="48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="51"/>
+      <c r="B488" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A408:A429"/>
-    <mergeCell ref="A431:A452"/>
-    <mergeCell ref="A380:A392"/>
-    <mergeCell ref="A394:A406"/>
-    <mergeCell ref="A320:A328"/>
+  <mergeCells count="40">
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A64:A78"/>
     <mergeCell ref="A311:A318"/>
     <mergeCell ref="A126:A132"/>
@@ -20501,26 +22193,16 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A408:A429"/>
+    <mergeCell ref="A431:A452"/>
+    <mergeCell ref="A380:A392"/>
+    <mergeCell ref="A394:A406"/>
+    <mergeCell ref="A320:A328"/>
     <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A217:A228"/>
     <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A104:A109"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF68F2-6094-4807-AA10-EC343DAAC969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E886344-1C6C-49FC-B6A8-2482E2348FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="387">
   <si>
     <t>Descrição</t>
   </si>
@@ -18129,6 +18129,729 @@
   </si>
   <si>
     <t>.center(36) ---&gt; Serve para centralizar a string dentro de no caso 36 espaços de caracteres, podendo fazer também: .center(36, =) para preencher os outros espaços vazios....pesquisar</t>
+  </si>
+  <si>
+    <t>ex040</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia duas notas de um aluno e calcule sua média, mostrando uma mensagem no final, de acordo com a média atingida:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite a primeira nota: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite a segunda nota: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">media </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (n1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> media </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[31mALUNO REPROVADO!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m Média </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(media))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> media </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> media </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[33mRECUPERAÇÃO!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m Média </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(media))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[32mAPROVADO!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[m Média </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(media))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -19358,10 +20081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G488"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:A488"/>
+    <sheetView tabSelected="1" topLeftCell="A488" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B490" sqref="B490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21833,7 +22556,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="431" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="49" t="s">
         <v>334</v>
       </c>
@@ -22161,38 +22884,80 @@
       <c r="A488" s="51"/>
       <c r="B488" s="42"/>
     </row>
+    <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="B490" s="31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="50"/>
+      <c r="B491" s="40"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="50"/>
+      <c r="B492" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="50"/>
+      <c r="B493" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="50"/>
+      <c r="B494" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="50"/>
+      <c r="B495" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="50"/>
+      <c r="B496" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="50"/>
+      <c r="B497" s="34" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="50"/>
+      <c r="B498" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="50"/>
+      <c r="B499" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="50"/>
+      <c r="B500" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="51"/>
+      <c r="B501" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A118:A124"/>
+  <mergeCells count="41">
+    <mergeCell ref="A490:A501"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -22203,6 +22968,36 @@
     <mergeCell ref="A320:A328"/>
     <mergeCell ref="A366:A378"/>
     <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E886344-1C6C-49FC-B6A8-2482E2348FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C2B1C-86B4-4F4A-A8F8-CABA0FB3A9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="402">
   <si>
     <t>Descrição</t>
   </si>
@@ -18851,6 +18851,1086 @@
         <family val="3"/>
       </rPr>
       <t>(media))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex041</t>
+  </si>
+  <si>
+    <t>A Confederação Nacional de Natação precisa de um programa que leia o ano de nascimento de um atleta e mostre sua categoria, de acordo com a idade:</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[34m-=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4;33mConfederação Nacional de Natação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nascimento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Ano de nascimento: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> date.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">().year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nascimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Anos - Categoria: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[35mMIRIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(idade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Anos - Categoria: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[36mINFANTIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(idade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Anos - Categoria: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[32mJUNIOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(idade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Anos - Categoria: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[34mSENIOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(idade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Anos - Categoria: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[31mMASTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(idade))</t>
     </r>
   </si>
 </sst>
@@ -20081,10 +21161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B490" sqref="B490"/>
+    <sheetView tabSelected="1" topLeftCell="A501" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B503" sqref="B503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22955,8 +24035,147 @@
       <c r="A501" s="51"/>
       <c r="B501" s="42"/>
     </row>
+    <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B503" s="31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="50"/>
+      <c r="B504" s="40"/>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="50"/>
+      <c r="B505" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="50"/>
+      <c r="B506" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="50"/>
+      <c r="B507" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="50"/>
+      <c r="B508" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="50"/>
+      <c r="B509" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="50"/>
+      <c r="B510" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="50"/>
+      <c r="B511" s="34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="50"/>
+      <c r="B512" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="50"/>
+      <c r="B513" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="50"/>
+      <c r="B514" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="50"/>
+      <c r="B515" s="34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="50"/>
+      <c r="B516" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="50"/>
+      <c r="B517" s="34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="50"/>
+      <c r="B518" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="50"/>
+      <c r="B519" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="50"/>
+      <c r="B520" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="51"/>
+      <c r="B521" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A490:A501"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -22973,31 +24192,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C2B1C-86B4-4F4A-A8F8-CABA0FB3A9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFCC82-78E8-4C9E-A963-8A2EBB7DBD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="415">
   <si>
     <t>Descrição</t>
   </si>
@@ -19932,13 +19932,541 @@
       </rPr>
       <t>(idade))</t>
     </r>
+  </si>
+  <si>
+    <t>ex042</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Analisador de Triângulos 2.0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Os segmentos informados PODEM formar um Triângulo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r3:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'EQUILÁTERO!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> r1:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ESCALENO'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ISÓSCELES'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Os segmentros acima NÃO podem formar um Triângulo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Foi usado o aninhamento de condições - um if dentro de outro if</t>
+  </si>
+  <si>
+    <t>Refaça o DESAFIO 35 dos triângulos, acrescentando o recurso de mostrar que tipo de triângulo será formado:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20028,6 +20556,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF5A4B81"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFE89E64"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -21161,10 +21696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B503" sqref="B503"/>
+    <sheetView tabSelected="1" topLeftCell="A518" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24148,35 +24683,138 @@
       <c r="A521" s="51"/>
       <c r="B521" s="42"/>
     </row>
+    <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B523" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="50"/>
+      <c r="B524" s="40"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="50"/>
+      <c r="B525" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="50"/>
+      <c r="B526" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="50"/>
+      <c r="B527" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="50"/>
+      <c r="B528" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="50"/>
+      <c r="B529" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="50"/>
+      <c r="B530" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="50"/>
+      <c r="B531" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="50"/>
+      <c r="B532" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="50"/>
+      <c r="B533" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="50"/>
+      <c r="B534" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="50"/>
+      <c r="B535" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="50"/>
+      <c r="B536" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="50"/>
+      <c r="B537" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="50"/>
+      <c r="B538" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="50"/>
+      <c r="B539" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="50"/>
+      <c r="B540" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="50"/>
+      <c r="B541" s="11"/>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="50"/>
+      <c r="B542" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="50"/>
+      <c r="B543" s="48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="51"/>
+      <c r="B544" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A490:A501"/>
+  <mergeCells count="43">
+    <mergeCell ref="A523:A544"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -24192,6 +24830,33 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFCC82-78E8-4C9E-A963-8A2EBB7DBD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B05D34-726C-4EFF-89A0-F5CE9A8220AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="428">
   <si>
     <t>Descrição</t>
   </si>
@@ -20460,6 +20460,917 @@
   </si>
   <si>
     <t>Refaça o DESAFIO 35 dos triângulos, acrescentando o recurso de mostrar que tipo de triângulo será formado:</t>
+  </si>
+  <si>
+    <t>Desenvolva uma lógica que leia o peso e a altura de uma pessoa, calcule seu Índice de Massa Corporal (IMC) e mostre seu status, de acordo com a tabela abaixo:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">altura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite sua altura: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">peso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite seu peso: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">imc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (altura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> imc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'IMC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.1f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - Abaixo do peso.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(imc))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> imc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'IMC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.1f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - Peso ideal, PARABÉNS!.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(imc))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> imc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'IMC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.1f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - Sobrepeso.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(imc))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> imc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'IMC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.1f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - Obesidade.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(imc))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'IMC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.1f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - Obesidade Mórbida! CUIDADO!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(imc))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -21696,10 +22607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G544"/>
+  <dimension ref="A1:G561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:A544"/>
+    <sheetView tabSelected="1" topLeftCell="A542" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A546" sqref="A546:A561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24812,8 +25723,131 @@
       <c r="A544" s="51"/>
       <c r="B544" s="42"/>
     </row>
+    <row r="545" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="546" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B546" s="31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="50"/>
+      <c r="B547" s="40"/>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="50"/>
+      <c r="B548" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="50"/>
+      <c r="B549" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="50"/>
+      <c r="B550" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="50"/>
+      <c r="B551" s="34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="50"/>
+      <c r="B552" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="50"/>
+      <c r="B553" s="34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="50"/>
+      <c r="B554" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="50"/>
+      <c r="B555" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="50"/>
+      <c r="B556" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="50"/>
+      <c r="B557" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="50"/>
+      <c r="B558" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="50"/>
+      <c r="B559" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="50"/>
+      <c r="B560" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="51"/>
+      <c r="B561" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A523:A544"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -24830,33 +25864,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B05D34-726C-4EFF-89A0-F5CE9A8220AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A641DB1-D3A2-4FE9-B15D-C7E07D05B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="449">
   <si>
     <t>Descrição</t>
   </si>
@@ -21370,6 +21370,2147 @@
         <family val="3"/>
       </rPr>
       <t>(imc))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex043</t>
+  </si>
+  <si>
+    <t>Elabore um programa que calcule o valor a ser pago por um produto, considerando o seu preço normal e condição de pagamento:</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' LOJAS CAMPONÊZ '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Valor dos produtos: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Valor do produto: R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(preçoNormal), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> condPagamento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', Valor com 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e desconto: R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> condPagamento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', Valor com 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e desconto: R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> condPagamento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    parcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', Quantas vezes: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> parcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Valor normal: R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(preçoNormal))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> parcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Então ficará 2x de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> condPagamento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    pcJuros </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (preçoNormal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', Valor com 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e juros ficará: R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pcJuros))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    parcelas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Quantas parcelas: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Então ficará </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> parcelas de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, Total de R$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:.2f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(parcelas, pcJuros </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> parcelas, pcJuros))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">condPagamento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[1] À Vista dinheiro/cheque - 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e desconto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[2] À Vista no cartão de débito - 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e desconto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[3] Em até 2x no cartão de crédito - Valor normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[4] 3x ou mais no cartão de crédito - 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e Juros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Informe a condição de pagamento: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
     </r>
   </si>
 </sst>
@@ -22096,7 +24237,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>235325</xdr:colOff>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>27461</xdr:rowOff>
     </xdr:to>
@@ -22140,7 +24281,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>456170</xdr:colOff>
+      <xdr:colOff>456171</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -22184,7 +24325,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
+      <xdr:colOff>313763</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
@@ -22607,16 +24748,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G561"/>
+  <dimension ref="A1:G584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A546" sqref="A546:A561"/>
+    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D565" sqref="D565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="166" style="2" customWidth="1"/>
+    <col min="2" max="2" width="168.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -25818,37 +27959,140 @@
       <c r="A561" s="51"/>
       <c r="B561" s="42"/>
     </row>
+    <row r="562" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="563" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B563" s="31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="50"/>
+      <c r="B564" s="40"/>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="50"/>
+      <c r="B565" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="50"/>
+      <c r="B566" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A567" s="50"/>
+      <c r="B567" s="44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="50"/>
+      <c r="B568" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="50"/>
+      <c r="B569" s="34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="50"/>
+      <c r="B570" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="50"/>
+      <c r="B571" s="34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="50"/>
+      <c r="B572" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="50"/>
+      <c r="B573" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="50"/>
+      <c r="B574" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="50"/>
+      <c r="B575" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="50"/>
+      <c r="B576" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="50"/>
+      <c r="B577" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="50"/>
+      <c r="B578" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="50"/>
+      <c r="B579" s="34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="50"/>
+      <c r="B580" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="50"/>
+      <c r="B581" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="50"/>
+      <c r="B582" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="50"/>
+      <c r="B583" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="51"/>
+      <c r="B584" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A523:A544"/>
+  <mergeCells count="45">
+    <mergeCell ref="A563:A584"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -25864,6 +28108,35 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A641DB1-D3A2-4FE9-B15D-C7E07D05B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B16CF9-4D56-4700-BC7F-AAB7FA88A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="481">
   <si>
     <t>Descrição</t>
   </si>
@@ -23511,6 +23511,1300 @@
         <family val="3"/>
       </rPr>
       <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex045</t>
+  </si>
+  <si>
+    <t>ex044</t>
+  </si>
+  <si>
+    <t>Crie um programa que faça o computador jogar Jokenpô com você.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">itens </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Pedra'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Papel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Tesoura'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">computador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>randint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'''Suas opções:</t>
+    </r>
+  </si>
+  <si>
+    <t>[ 0 ] PEDRA</t>
+  </si>
+  <si>
+    <t>[ 1 ] PAPEL</t>
+  </si>
+  <si>
+    <r>
+      <t>[ 2 ] TESOURA'''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Qual é a sua jogada? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'JO'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'KEN'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'PO!!!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Jogador    --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(itens[jogador]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Computador --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(itens[computador]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> computador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'EMPATE!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Jogador VENCEU!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Computador VENCEU!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'JOGADA INVÁLIDA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> computador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'EMPATE!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Jogador VENCEU!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'JOGADA INVÁLIDA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> computador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Computador VENCEU!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)    </t>
     </r>
   </si>
 </sst>
@@ -24748,10 +26042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G584"/>
+  <dimension ref="A1:G635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D565" sqref="D565"/>
+    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B635" sqref="A635:XFD635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27867,7 +29161,7 @@
     <row r="545" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="546" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="49" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="B546" s="31" t="s">
         <v>415</v>
@@ -27962,7 +29256,7 @@
     <row r="562" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="563" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="49" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B563" s="31" t="s">
         <v>429</v>
@@ -27984,7 +29278,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="50"/>
       <c r="B567" s="44" t="s">
         <v>448</v>
@@ -28090,8 +29384,337 @@
       <c r="A584" s="51"/>
       <c r="B584" s="42"/>
     </row>
+    <row r="585" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B586" s="31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="50"/>
+      <c r="B587" s="40"/>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="50"/>
+      <c r="B588" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="50"/>
+      <c r="B589" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="50"/>
+      <c r="B590" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="50"/>
+      <c r="B591" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="50"/>
+      <c r="B592" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="50"/>
+      <c r="B593" s="45" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="50"/>
+      <c r="B594" s="45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="50"/>
+      <c r="B595" s="45" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="50"/>
+      <c r="B596" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="50"/>
+      <c r="B597" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="50"/>
+      <c r="B598" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="50"/>
+      <c r="B599" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="50"/>
+      <c r="B600" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="50"/>
+      <c r="B601" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="50"/>
+      <c r="B602" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="50"/>
+      <c r="B603" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="50"/>
+      <c r="B604" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="50"/>
+      <c r="B605" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="50"/>
+      <c r="B606" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="50"/>
+      <c r="B607" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="50"/>
+      <c r="B608" s="34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="50"/>
+      <c r="B609" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="50"/>
+      <c r="B610" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="50"/>
+      <c r="B611" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="50"/>
+      <c r="B612" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="50"/>
+      <c r="B613" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="50"/>
+      <c r="B614" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="50"/>
+      <c r="B615" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="50"/>
+      <c r="B616" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="50"/>
+      <c r="B617" s="34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="50"/>
+      <c r="B618" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="50"/>
+      <c r="B619" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="50"/>
+      <c r="B620" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="50"/>
+      <c r="B621" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="50"/>
+      <c r="B622" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="50"/>
+      <c r="B623" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="50"/>
+      <c r="B624" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="50"/>
+      <c r="B625" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="50"/>
+      <c r="B626" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="50"/>
+      <c r="B627" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="50"/>
+      <c r="B628" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="50"/>
+      <c r="B629" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="50"/>
+      <c r="B630" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="50"/>
+      <c r="B631" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="50"/>
+      <c r="B632" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="50"/>
+      <c r="B633" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="50"/>
+      <c r="B634" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="51"/>
+      <c r="B635" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A563:A584"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -28108,35 +29731,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B16CF9-4D56-4700-BC7F-AAB7FA88A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0808A8-1D38-44CA-999C-7F0288B4CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="487">
   <si>
     <t>Descrição</t>
   </si>
@@ -24805,6 +24805,266 @@
         <family val="3"/>
       </rPr>
       <t>)    </t>
+    </r>
+  </si>
+  <si>
+    <t>ex046</t>
+  </si>
+  <si>
+    <t>Faça um programa que mostre na tela uma contagem regressiva para o estouro de fogos de artifício, indo de 10 até 0, com uma pausa de 1 segundo entre eles.</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(c)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Parabéns!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\U0001F3C6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\U0001F389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -26042,10 +26302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G635"/>
+  <dimension ref="A1:G644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B635" sqref="A635:XFD635"/>
+    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B640" sqref="B640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29683,39 +29943,56 @@
       <c r="A635" s="51"/>
       <c r="B635" s="42"/>
     </row>
+    <row r="636" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="637" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B637" s="31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="50"/>
+      <c r="B638" s="40"/>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="50"/>
+      <c r="B639" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="50"/>
+      <c r="B640" s="34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="50"/>
+      <c r="B641" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="50"/>
+      <c r="B642" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="50"/>
+      <c r="B643" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="51"/>
+      <c r="B644" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A563:A584"/>
+  <mergeCells count="47">
+    <mergeCell ref="A637:A644"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -29731,6 +30008,37 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A563:A584"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0808A8-1D38-44CA-999C-7F0288B4CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAABC53-7376-434E-8C3C-73F63DEA1816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="491">
   <si>
     <t>Descrição</t>
   </si>
@@ -25056,6 +25056,194 @@
         <family val="3"/>
       </rPr>
       <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ex047</t>
+  </si>
+  <si>
+    <t>Crie um programa que mostre na tela todos os números pares que estão no intervalo entre 1 e 50.</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(c, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
     </r>
     <r>
       <rPr>
@@ -26302,10 +26490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G644"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A633" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B640" sqref="B640"/>
+      <selection activeCell="B648" sqref="B648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29990,8 +30178,69 @@
       <c r="A644" s="51"/>
       <c r="B644" s="42"/>
     </row>
+    <row r="645" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="B646" s="31" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="50"/>
+      <c r="B647" s="40"/>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="50"/>
+      <c r="B648" s="34" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="50"/>
+      <c r="B649" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="51"/>
+      <c r="B650" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A637:A644"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -30008,37 +30257,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A563:A584"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAABC53-7376-434E-8C3C-73F63DEA1816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B496A115-AE84-43D3-8C99-DA461EDCA4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="502">
   <si>
     <t>Descrição</t>
   </si>
@@ -25254,6 +25254,422 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>ex048</t>
+  </si>
+  <si>
+    <t>Faça um programa que calcule a soma entre todos os números que são múltiplos de três e que se encontram no intervalo de 1 até 500.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">soma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        soma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A soma de todos os </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> valores solicitados é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(cont, soma))</t>
+    </r>
+  </si>
+  <si>
+    <t>soma é um acumulador, para ir acumulando (no caso somando) os valores True do if</t>
+  </si>
+  <si>
+    <t>cont é um contador, para ir contando (no caso somando) a quantidade de True do if. ( cont += 1 substitui o cont = cont + 1 )</t>
   </si>
 </sst>
 </file>
@@ -26490,10 +26906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G650"/>
+  <dimension ref="A1:G665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B648" sqref="B648"/>
+    <sheetView tabSelected="1" topLeftCell="A642" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A652" sqref="A652:A665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30207,41 +30623,90 @@
       <c r="A650" s="51"/>
       <c r="B650" s="42"/>
     </row>
+    <row r="651" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="652" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="B652" s="31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="50"/>
+      <c r="B653" s="40"/>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="50"/>
+      <c r="B654" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="50"/>
+      <c r="B655" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="50"/>
+      <c r="B656" s="34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="50"/>
+      <c r="B657" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="50"/>
+      <c r="B658" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="50"/>
+      <c r="B659" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="50"/>
+      <c r="B660" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="50"/>
+      <c r="B661" s="11"/>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="50"/>
+      <c r="B662" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="50"/>
+      <c r="B663" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="50"/>
+      <c r="B664" s="36" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="51"/>
+      <c r="B665" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A637:A644"/>
+  <mergeCells count="49">
+    <mergeCell ref="A652:A665"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -30257,6 +30722,39 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B496A115-AE84-43D3-8C99-DA461EDCA4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB3B21-08B4-4808-9097-27FAD0B9ECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="505">
   <si>
     <t>Descrição</t>
   </si>
@@ -25670,6 +25670,226 @@
   </si>
   <si>
     <t>cont é um contador, para ir contando (no caso somando) a quantidade de True do if. ( cont += 1 substitui o cont = cont + 1 )</t>
+  </si>
+  <si>
+    <t>Refaça o DESAFIO 9, mostrando a tabuada de um número que o usuário escolher, só que agora utilizando um laço for.</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, c, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -26906,10 +27126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G665"/>
+  <dimension ref="A1:G672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A652" sqref="A652:A665"/>
+    <sheetView tabSelected="1" topLeftCell="A654" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A667" sqref="A667:A672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30704,8 +30924,77 @@
       <c r="A665" s="51"/>
       <c r="B665" s="42"/>
     </row>
+    <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="B667" s="31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="50"/>
+      <c r="B668" s="40"/>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="50"/>
+      <c r="B669" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="50"/>
+      <c r="B670" s="34" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="50"/>
+      <c r="B671" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="51"/>
+      <c r="B672" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A652:A665"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -30722,39 +31011,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB3B21-08B4-4808-9097-27FAD0B9ECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80D8C4-4D95-4168-8367-6BE0FC2DAA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="513">
   <si>
     <t>Descrição</t>
   </si>
@@ -25889,6 +25889,383 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> c))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex049</t>
+  </si>
+  <si>
+    <t>ex050</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia seis números inteiros e mostre a soma apenas daqueles que forem pares. Se o valor digitado for ímpar, desconsidere-o.</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        soma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> num</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Foi informado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> números PARES e a soma dos números pares é: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(cont, soma)) </t>
     </r>
   </si>
 </sst>
@@ -27126,10 +27503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G672"/>
+  <dimension ref="A1:G684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A667" sqref="A667:A672"/>
+    <sheetView tabSelected="1" topLeftCell="A651" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B674" sqref="B674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30927,7 +31304,7 @@
     <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="49" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B667" s="31" t="s">
         <v>502</v>
@@ -30959,43 +31336,74 @@
       <c r="A672" s="51"/>
       <c r="B672" s="42"/>
     </row>
+    <row r="673" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="674" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B674" s="31" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="50"/>
+      <c r="B675" s="40"/>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="50"/>
+      <c r="B676" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="50"/>
+      <c r="B677" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="50"/>
+      <c r="B678" s="34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="50"/>
+      <c r="B679" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="50"/>
+      <c r="B680" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="50"/>
+      <c r="B681" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="50"/>
+      <c r="B682" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="50"/>
+      <c r="B683" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="51"/>
+      <c r="B684" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A652:A665"/>
+  <mergeCells count="51">
+    <mergeCell ref="A674:A684"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -31011,6 +31419,41 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80D8C4-4D95-4168-8367-6BE0FC2DAA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BE41F-5B5D-449C-90DB-07B8C28D31DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="524">
   <si>
     <t>Descrição</t>
   </si>
@@ -26267,6 +26267,598 @@
       </rPr>
       <t xml:space="preserve">(cont, soma)) </t>
     </r>
+  </si>
+  <si>
+    <t>ex051</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia o primeiro termo e a razão de uma PA. No final, mostre os 10 primeiros termos dessa progressão.</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'10 TERMOS DE UMA P. A.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite o primeiro termo: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">razao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite a razão: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">decimo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> razao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(t1, decimo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> razao, razao):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(c, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' → '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ACABOU!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>decimo = t1 + (10 - 1) * razao   ---&gt; É uma expressão matemática para chegar no 10° termo de uma projeção aritimética</t>
   </si>
 </sst>
 </file>
@@ -27503,10 +28095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G684"/>
+  <dimension ref="A1:G700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B674" sqref="B674"/>
+    <sheetView tabSelected="1" topLeftCell="A684" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B699" sqref="B699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31281,7 +31873,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="50"/>
-      <c r="B662" s="11" t="s">
+      <c r="B662" s="36" t="s">
         <v>18</v>
       </c>
     </row>
@@ -31401,8 +31993,131 @@
       <c r="A684" s="51"/>
       <c r="B684" s="42"/>
     </row>
+    <row r="685" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="686" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B686" s="31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="50"/>
+      <c r="B687" s="40"/>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="50"/>
+      <c r="B688" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="50"/>
+      <c r="B689" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="50"/>
+      <c r="B690" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="50"/>
+      <c r="B691" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="50"/>
+      <c r="B692" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="50"/>
+      <c r="B693" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="50"/>
+      <c r="B694" s="34" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="50"/>
+      <c r="B695" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="50"/>
+      <c r="B696" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="50"/>
+      <c r="B697" s="7"/>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="50"/>
+      <c r="B698" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="50"/>
+      <c r="B699" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="51"/>
+      <c r="B700" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="52">
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A674:A684"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -31419,41 +32134,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BE41F-5B5D-449C-90DB-07B8C28D31DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0BC93-EC88-4C06-B13F-280C8BDB343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="537">
   <si>
     <t>Descrição</t>
   </si>
@@ -26859,6 +26859,817 @@
   </si>
   <si>
     <t>decimo = t1 + (10 - 1) * razao   ---&gt; É uma expressão matemática para chegar no 10° termo de uma projeção aritimética</t>
+  </si>
+  <si>
+    <t>ex052</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um número inteiro e diga se ele é ou não um número primo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[32m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        tot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[31m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(c), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n\033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[mO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> foi divisível </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> vezes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num, tot))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'E por isso ele É PRIMO!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'E por isso ele NÃO É PRIMO!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -28095,10 +28906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G700"/>
+  <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A684" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B699" sqref="B699"/>
+    <sheetView tabSelected="1" topLeftCell="A693" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C715" sqref="C715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32080,45 +32891,110 @@
       <c r="A700" s="51"/>
       <c r="B700" s="42"/>
     </row>
+    <row r="701" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="702" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="B702" s="31" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="50"/>
+      <c r="B703" s="40"/>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="50"/>
+      <c r="B704" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="50"/>
+      <c r="B705" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="50"/>
+      <c r="B706" s="34" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="50"/>
+      <c r="B707" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="50"/>
+      <c r="B708" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="50"/>
+      <c r="B709" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="50"/>
+      <c r="B710" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="50"/>
+      <c r="B711" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="50"/>
+      <c r="B712" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="50"/>
+      <c r="B713" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="50"/>
+      <c r="B714" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="50"/>
+      <c r="B715" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="50"/>
+      <c r="B716" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="50"/>
+      <c r="B717" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="51"/>
+      <c r="B718" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A674:A684"/>
+  <mergeCells count="53">
+    <mergeCell ref="A702:A718"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -32134,6 +33010,43 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A674:A684"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0BC93-EC88-4C06-B13F-280C8BDB343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F5AEB-9835-4749-8B17-4FD8A69129A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="548">
   <si>
     <t>Descrição</t>
   </si>
@@ -27660,6 +27660,627 @@
         <family val="3"/>
       </rPr>
       <t>'E por isso ele NÃO É PRIMO!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ex053</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">frase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite uma frase: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">palavras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> frase.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">junto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(palavras)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inverso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> letra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(junto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    inverso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> junto[letra]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O inverso de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(junto, inverso))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> inverso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> junto:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Temos um palíndromo!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'A frase digitada não é palíndromo!'</t>
     </r>
     <r>
       <rPr>
@@ -27777,7 +28398,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -27793,6 +28414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28130,7 +28757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -28278,6 +28905,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28906,10 +29545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G718"/>
+  <dimension ref="A1:G752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C715" sqref="C715"/>
+    <sheetView tabSelected="1" topLeftCell="A722" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B740" sqref="B740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32992,8 +33631,205 @@
       <c r="A718" s="51"/>
       <c r="B718" s="42"/>
     </row>
+    <row r="719" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="720" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="B720" s="31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="50"/>
+      <c r="B721" s="40"/>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="50"/>
+      <c r="B722" s="52" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="50"/>
+      <c r="B723" s="52" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="50"/>
+      <c r="B724" s="52" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="50"/>
+      <c r="B725" s="52" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="50"/>
+      <c r="B726" s="53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="50"/>
+      <c r="B727" s="52" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="50"/>
+      <c r="B728" s="54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="50"/>
+      <c r="B729" s="53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="50"/>
+      <c r="B730" s="52" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="50"/>
+      <c r="B731" s="53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="50"/>
+      <c r="B732" s="52" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="50"/>
+      <c r="B733" s="7"/>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="50"/>
+      <c r="B734" s="55"/>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="50"/>
+      <c r="B735" s="7"/>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="50"/>
+      <c r="B736" s="7"/>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="50"/>
+      <c r="B737" s="7"/>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="50"/>
+      <c r="B738" s="7"/>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="50"/>
+      <c r="B739" s="7"/>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="50"/>
+      <c r="B740" s="7"/>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="50"/>
+      <c r="B741" s="7"/>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="50"/>
+      <c r="B742" s="7"/>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="50"/>
+      <c r="B743" s="7"/>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="50"/>
+      <c r="B744" s="7"/>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="50"/>
+      <c r="B745" s="7"/>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="50"/>
+      <c r="B746" s="7"/>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="50"/>
+      <c r="B747" s="34"/>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="50"/>
+      <c r="B748" s="7"/>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="50"/>
+      <c r="B749" s="7"/>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="50"/>
+      <c r="B750" s="7"/>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="50"/>
+      <c r="B751" s="7"/>
+    </row>
+    <row r="752" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="51"/>
+      <c r="B752" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
+    <mergeCell ref="A720:A752"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A702:A718"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -33010,43 +33846,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A674:A684"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F5AEB-9835-4749-8B17-4FD8A69129A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA1E12F-FF07-4D00-BA3D-9E5D55383AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="556">
   <si>
     <t>Descrição</t>
   </si>
@@ -28291,6 +28291,77 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inverso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> junto[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>1ª FORMA, USANDO FOR:</t>
+  </si>
+  <si>
+    <t>2º FORMA, USANDO FATIAMENTO:</t>
+  </si>
+  <si>
+    <t>Usado o .strip() para tirar os espaços do começo e do fim da frase</t>
+  </si>
+  <si>
+    <t>Usado o .upper() para deixar a frase toda com letras maiúsculas</t>
+  </si>
+  <si>
+    <t>Usado o frase.split() para pegar a frase e separar em uma lista</t>
+  </si>
+  <si>
+    <t>Usado o ''.join(palavras) para juntar todas as palavras da lista, o asterisco sem nada é para tirar os espaços! Se fosse '*' ficaria THIAGO*HENRIQUE</t>
+  </si>
+  <si>
+    <t>O for ficou muito confuso pra mim, se precisar é melhor assistir a aula novamente: https://www.youtube.com/watch?v=5VBWe6BXzRo&amp;t=657s</t>
   </si>
 </sst>
 </file>
@@ -28398,7 +28469,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -28414,12 +28485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28757,7 +28822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -28906,18 +28971,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29078,7 +29132,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>456171</xdr:colOff>
+      <xdr:colOff>456170</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -29210,7 +29264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>496147</xdr:colOff>
+      <xdr:colOff>496148</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>34122</xdr:rowOff>
     </xdr:to>
@@ -29545,16 +29599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G752"/>
+  <dimension ref="A1:G755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A722" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B740" sqref="B740"/>
+    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A720" sqref="A720:A755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="168.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="175.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -33646,89 +33700,93 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="50"/>
-      <c r="B722" s="52" t="s">
-        <v>538</v>
+      <c r="B722" s="7" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="50"/>
-      <c r="B723" s="52" t="s">
-        <v>539</v>
-      </c>
+      <c r="B723" s="7"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="50"/>
-      <c r="B724" s="52" t="s">
-        <v>540</v>
+      <c r="B724" s="7" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="50"/>
-      <c r="B725" s="52" t="s">
-        <v>541</v>
+      <c r="B725" s="7" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="50"/>
-      <c r="B726" s="53" t="s">
-        <v>542</v>
+      <c r="B726" s="7" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="50"/>
-      <c r="B727" s="52" t="s">
-        <v>543</v>
+      <c r="B727" s="7" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="50"/>
-      <c r="B728" s="54" t="s">
-        <v>544</v>
+      <c r="B728" s="34" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="50"/>
-      <c r="B729" s="53" t="s">
-        <v>545</v>
+      <c r="B729" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="50"/>
-      <c r="B730" s="52" t="s">
-        <v>546</v>
+      <c r="B730" s="11" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="50"/>
-      <c r="B731" s="53" t="s">
-        <v>243</v>
+      <c r="B731" s="34" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="50"/>
-      <c r="B732" s="52" t="s">
-        <v>547</v>
+      <c r="B732" s="7" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="50"/>
-      <c r="B733" s="7"/>
+      <c r="B733" s="34" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="50"/>
-      <c r="B734" s="55"/>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B734" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="50"/>
       <c r="B735" s="7"/>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="50"/>
-      <c r="B736" s="7"/>
+      <c r="B736" s="40"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="50"/>
-      <c r="B737" s="7"/>
+      <c r="B737" s="7" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="50"/>
@@ -33736,39 +33794,57 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="50"/>
-      <c r="B739" s="7"/>
+      <c r="B739" s="7" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="50"/>
-      <c r="B740" s="7"/>
+      <c r="B740" s="7" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="50"/>
-      <c r="B741" s="7"/>
+      <c r="B741" s="7" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="50"/>
-      <c r="B742" s="7"/>
+      <c r="B742" s="7" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="50"/>
-      <c r="B743" s="7"/>
+      <c r="B743" s="11" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="50"/>
-      <c r="B744" s="7"/>
+      <c r="B744" s="34" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="50"/>
-      <c r="B745" s="7"/>
+      <c r="B745" s="7" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="50"/>
-      <c r="B746" s="7"/>
+      <c r="B746" s="34" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="50"/>
-      <c r="B747" s="34"/>
+      <c r="B747" s="7" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="50"/>
@@ -33776,61 +33852,46 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="50"/>
-      <c r="B749" s="7"/>
+      <c r="B749" s="36" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="50"/>
-      <c r="B750" s="7"/>
+      <c r="B750" s="36" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="50"/>
-      <c r="B751" s="7"/>
-    </row>
-    <row r="752" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A752" s="51"/>
-      <c r="B752" s="42"/>
+      <c r="B751" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" s="50"/>
+      <c r="B752" s="36" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" s="50"/>
+      <c r="B753" s="36" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="50"/>
+      <c r="B754" s="36" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="51"/>
+      <c r="B755" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A720:A752"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A702:A718"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -33846,6 +33907,45 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA1E12F-FF07-4D00-BA3D-9E5D55383AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A26D6-744F-44EF-ACC2-4777B643BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="569">
   <si>
     <t>Descrição</t>
   </si>
@@ -28362,6 +28362,581 @@
   </si>
   <si>
     <t>O for ficou muito confuso pra mim, se precisar é melhor assistir a aula novamente: https://www.youtube.com/watch?v=5VBWe6BXzRo&amp;t=657s</t>
+  </si>
+  <si>
+    <t>ex054</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia o ano de nascimento de sete pessoas. No final, mostre quantas pessoas ainda não atingiram a maioridade e quantas já são maiores.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">atual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> date.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">totmaior </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">totmenor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pess </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    nasc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Em que ano a pessoa nasceu? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> atual </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nasc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        totmaior </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        totmenor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Ao todo tivemos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pessoas maiores de idade'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(totmaior))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'E também tivemos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pessoas menores de idade'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(totmenor))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -28962,6 +29537,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -28971,7 +29547,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29599,10 +30174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G755"/>
+  <dimension ref="A1:G772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A720" sqref="A720:A755"/>
+    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B774" sqref="B774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29621,7 +30196,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -29629,23 +30204,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29653,7 +30228,7 @@
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -29661,35 +30236,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29697,7 +30272,7 @@
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -29705,65 +30280,65 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29771,7 +30346,7 @@
       <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="50" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -29779,35 +30354,35 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29815,7 +30390,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -29823,53 +30398,53 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29877,7 +30452,7 @@
       <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="50" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -29885,35 +30460,35 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="33"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29921,7 +30496,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="50" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -29929,35 +30504,35 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29965,7 +30540,7 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="50" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -29973,83 +30548,83 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="51"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -30061,7 +30636,7 @@
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -30069,29 +30644,29 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30099,7 +30674,7 @@
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="50" t="s">
         <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -30107,41 +30682,41 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="51"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="33"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30149,7 +30724,7 @@
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="50" t="s">
         <v>152</v>
       </c>
       <c r="B97" s="31" t="s">
@@ -30157,29 +30732,29 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="51"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30187,7 +30762,7 @@
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="31" t="s">
@@ -30195,29 +30770,29 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="50"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="51"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="33"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30225,7 +30800,7 @@
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="49" t="s">
+      <c r="A111" s="50" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="31" t="s">
@@ -30233,29 +30808,29 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="50"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="50"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="51"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30263,7 +30838,7 @@
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="49" t="s">
+      <c r="A118" s="50" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="31" t="s">
@@ -30271,35 +30846,35 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
+      <c r="A119" s="51"/>
       <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="50"/>
+      <c r="A120" s="51"/>
       <c r="B120" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="50"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
+      <c r="A122" s="51"/>
       <c r="B122" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="51"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="33"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30307,7 +30882,7 @@
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="49" t="s">
+      <c r="A126" s="50" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -30315,33 +30890,33 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
+      <c r="A127" s="51"/>
       <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
+      <c r="A130" s="51"/>
       <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="50"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="51"/>
+      <c r="A132" s="52"/>
       <c r="B132" s="33"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30349,7 +30924,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="49" t="s">
+      <c r="A134" s="50" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -30357,57 +30932,57 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="50"/>
+      <c r="A137" s="51"/>
       <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="50"/>
+      <c r="A138" s="51"/>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="50"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="50"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="50"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="50"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="50"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="51"/>
+      <c r="A144" s="52"/>
       <c r="B144" s="33"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30415,7 +30990,7 @@
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="49" t="s">
+      <c r="A146" s="50" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="31" t="s">
@@ -30423,59 +30998,59 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="50"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="50"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="50"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="50"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="50"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="50"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="50"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="50"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="50"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="51"/>
+      <c r="A156" s="52"/>
       <c r="B156" s="33"/>
       <c r="C156" s="2" t="s">
         <v>116</v>
@@ -30496,7 +31071,7 @@
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="50" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="31" t="s">
@@ -30504,75 +31079,75 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="50"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="50"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="50"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="50"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="50"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="50"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="50"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="50"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="50"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="50"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="50"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="50"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="51"/>
+      <c r="A172" s="52"/>
       <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
@@ -30588,7 +31163,7 @@
       <c r="B173" s="20"/>
     </row>
     <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="49" t="s">
+      <c r="A174" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -30596,69 +31171,69 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="50"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="50"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="50"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="50"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="50"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="50"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="50"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="50"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="50"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="50"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="50"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
@@ -30670,7 +31245,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="51"/>
+      <c r="A187" s="52"/>
       <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
@@ -30686,7 +31261,7 @@
       <c r="B188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="49" t="s">
+      <c r="A189" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B189" s="29" t="s">
@@ -30694,41 +31269,41 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="50"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="50"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="50"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="50"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="50"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="50"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="51"/>
+      <c r="A196" s="52"/>
       <c r="B196" s="18"/>
       <c r="C196" s="2" t="s">
         <v>104</v>
@@ -30742,7 +31317,7 @@
       <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="49" t="s">
+      <c r="A198" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="29" t="s">
@@ -30750,23 +31325,23 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="50"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="50"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="50"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="50"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
@@ -30775,7 +31350,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="50"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -30784,7 +31359,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="50"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
@@ -30796,7 +31371,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="50"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
@@ -30805,7 +31380,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="50"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
@@ -30814,53 +31389,53 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="50"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="22"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="50"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="50"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="50"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="50"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="50"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="50"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="51"/>
+      <c r="A215" s="52"/>
       <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30868,7 +31443,7 @@
       <c r="B216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="49" t="s">
+      <c r="A217" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="29" t="s">
@@ -30876,11 +31451,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="50"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="50"/>
+      <c r="A219" s="51"/>
       <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
@@ -30889,13 +31464,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
+      <c r="A220" s="51"/>
       <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="50"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
@@ -30904,43 +31479,43 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="50"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="50"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="50"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="50"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="50"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="50"/>
+      <c r="A227" s="51"/>
       <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="51"/>
+      <c r="A228" s="52"/>
       <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
@@ -30950,7 +31525,7 @@
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="49" t="s">
+      <c r="A230" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B230" s="29" t="s">
@@ -30958,11 +31533,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="50"/>
+      <c r="A231" s="51"/>
       <c r="B231" s="7"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="50"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
@@ -30971,7 +31546,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="50"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
@@ -30980,18 +31555,18 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="50"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="7"/>
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="50"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="50"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
@@ -31000,7 +31575,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="51"/>
+      <c r="A237" s="52"/>
       <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
@@ -31013,7 +31588,7 @@
       <c r="B238" s="14"/>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="49" t="s">
+      <c r="A239" s="50" t="s">
         <v>19</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -31021,11 +31596,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="50"/>
+      <c r="A240" s="51"/>
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="50"/>
+      <c r="A241" s="51"/>
       <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
@@ -31034,7 +31609,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="50"/>
+      <c r="A242" s="51"/>
       <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
@@ -31043,21 +31618,21 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="50"/>
+      <c r="A243" s="51"/>
       <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="50"/>
+      <c r="A244" s="51"/>
       <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="50"/>
+      <c r="A245" s="51"/>
       <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="51"/>
+      <c r="A246" s="52"/>
       <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
@@ -31070,7 +31645,7 @@
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="49" t="s">
+      <c r="A248" s="50" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="31" t="s">
@@ -31078,45 +31653,45 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="50"/>
+      <c r="A249" s="51"/>
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="50"/>
+      <c r="A250" s="51"/>
       <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="50"/>
+      <c r="A251" s="51"/>
       <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="50"/>
+      <c r="A252" s="51"/>
       <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="50"/>
+      <c r="A253" s="51"/>
       <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="50"/>
+      <c r="A254" s="51"/>
       <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="50"/>
+      <c r="A255" s="51"/>
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="50"/>
+      <c r="A256" s="51"/>
       <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
@@ -31128,32 +31703,32 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="50"/>
+      <c r="A257" s="51"/>
       <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="50"/>
+      <c r="A258" s="51"/>
       <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="50"/>
+      <c r="A259" s="51"/>
       <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="51"/>
+      <c r="A260" s="52"/>
       <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="49" t="s">
+      <c r="A262" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B262" s="31" t="s">
@@ -31161,74 +31736,74 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="50"/>
+      <c r="A263" s="51"/>
       <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="50"/>
+      <c r="A264" s="51"/>
       <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="50"/>
+      <c r="A265" s="51"/>
       <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="50"/>
+      <c r="A266" s="51"/>
       <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="50"/>
+      <c r="A267" s="51"/>
       <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="50"/>
+      <c r="A268" s="51"/>
       <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="50"/>
+      <c r="A269" s="51"/>
       <c r="B269" s="7"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="50"/>
+      <c r="A270" s="51"/>
       <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="50"/>
+      <c r="A271" s="51"/>
       <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="50"/>
+      <c r="A272" s="51"/>
       <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="50"/>
+      <c r="A273" s="51"/>
       <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="51"/>
+      <c r="A274" s="52"/>
       <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="49" t="s">
+      <c r="A276" s="50" t="s">
         <v>231</v>
       </c>
       <c r="B276" s="31" t="s">
@@ -31236,99 +31811,99 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="50"/>
+      <c r="A277" s="51"/>
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="50"/>
+      <c r="A278" s="51"/>
       <c r="B278" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="50"/>
+      <c r="A279" s="51"/>
       <c r="B279" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="50"/>
+      <c r="A280" s="51"/>
       <c r="B280" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="50"/>
+      <c r="A281" s="51"/>
       <c r="B281" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="50"/>
+      <c r="A282" s="51"/>
       <c r="B282" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="50"/>
+      <c r="A283" s="51"/>
       <c r="B283" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="50"/>
+      <c r="A284" s="51"/>
       <c r="B284" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="50"/>
+      <c r="A285" s="51"/>
       <c r="B285" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="50"/>
+      <c r="A286" s="51"/>
       <c r="B286" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="50"/>
+      <c r="A287" s="51"/>
       <c r="B287" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="50"/>
+      <c r="A288" s="51"/>
       <c r="B288" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="50"/>
+      <c r="A289" s="51"/>
       <c r="B289" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="50"/>
+      <c r="A290" s="51"/>
       <c r="B290" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="50"/>
+      <c r="A291" s="51"/>
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="50"/>
+      <c r="A292" s="51"/>
       <c r="B292" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="50"/>
+      <c r="A293" s="51"/>
       <c r="B293" s="36" t="s">
         <v>245</v>
       </c>
@@ -31343,13 +31918,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="50"/>
+      <c r="A294" s="51"/>
       <c r="B294" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="51"/>
+      <c r="A295" s="52"/>
       <c r="B295" s="33"/>
       <c r="C295" s="2" t="s">
         <v>249</v>
@@ -31362,8 +31937,8 @@
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="297" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="49" t="s">
+    <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="50" t="s">
         <v>252</v>
       </c>
       <c r="B297" s="31" t="s">
@@ -31371,74 +31946,74 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="50"/>
+      <c r="A298" s="51"/>
       <c r="B298" s="40"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="50"/>
+      <c r="A299" s="51"/>
       <c r="B299" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="50"/>
+      <c r="A300" s="51"/>
       <c r="B300" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="50"/>
+      <c r="A301" s="51"/>
       <c r="B301" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="50"/>
+      <c r="A302" s="51"/>
       <c r="B302" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="50"/>
+      <c r="A303" s="51"/>
       <c r="B303" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="50"/>
+      <c r="A304" s="51"/>
       <c r="B304" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="50"/>
+      <c r="A305" s="51"/>
       <c r="B305" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="50"/>
+      <c r="A306" s="51"/>
       <c r="B306" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="50"/>
+      <c r="A307" s="51"/>
       <c r="B307" s="23"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="50"/>
+      <c r="A308" s="51"/>
       <c r="B308" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="51"/>
+      <c r="A309" s="52"/>
       <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="49" t="s">
+      <c r="A311" s="50" t="s">
         <v>262</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -31446,46 +32021,46 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="50"/>
+      <c r="A312" s="51"/>
       <c r="B312" s="7"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="50"/>
+      <c r="A313" s="51"/>
       <c r="B313" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="50"/>
+      <c r="A314" s="51"/>
       <c r="B314" s="34" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="50"/>
+      <c r="A315" s="51"/>
       <c r="B315" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="50"/>
+      <c r="A316" s="51"/>
       <c r="B316" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="50"/>
+      <c r="A317" s="51"/>
       <c r="B317" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="51"/>
+      <c r="A318" s="52"/>
       <c r="B318" s="16"/>
     </row>
     <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="320" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="49" t="s">
+      <c r="A320" s="50" t="s">
         <v>268</v>
       </c>
       <c r="B320" s="31" t="s">
@@ -31493,39 +32068,39 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="50"/>
+      <c r="A321" s="51"/>
       <c r="B321" s="7"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="50"/>
+      <c r="A322" s="51"/>
       <c r="B322" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="50"/>
+      <c r="A323" s="51"/>
       <c r="B323" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="50"/>
+      <c r="A324" s="51"/>
       <c r="B324" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="50"/>
+      <c r="A325" s="51"/>
       <c r="B325" s="34"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="50"/>
+      <c r="A326" s="51"/>
       <c r="B326" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="50"/>
+      <c r="A327" s="51"/>
       <c r="B327" s="36" t="s">
         <v>273</v>
       </c>
@@ -31540,12 +32115,12 @@
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="51"/>
+      <c r="A328" s="52"/>
       <c r="B328" s="42"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="49" t="s">
+      <c r="A330" s="50" t="s">
         <v>277</v>
       </c>
       <c r="B330" s="31" t="s">
@@ -31553,63 +32128,63 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="50"/>
+      <c r="A331" s="51"/>
       <c r="B331" s="40"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="50"/>
+      <c r="A332" s="51"/>
       <c r="B332" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="50"/>
+      <c r="A333" s="51"/>
       <c r="B333" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="50"/>
+      <c r="A334" s="51"/>
       <c r="B334" s="34" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="50"/>
+      <c r="A335" s="51"/>
       <c r="B335" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="50"/>
+      <c r="A336" s="51"/>
       <c r="B336" s="34" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="50"/>
+      <c r="A337" s="51"/>
       <c r="B337" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="50"/>
+      <c r="A338" s="51"/>
       <c r="B338" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="50"/>
+      <c r="A339" s="51"/>
       <c r="B339" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="50"/>
+      <c r="A340" s="51"/>
       <c r="B340" s="7"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="50"/>
+      <c r="A341" s="51"/>
       <c r="B341" s="36" t="s">
         <v>286</v>
       </c>
@@ -31621,12 +32196,12 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="51"/>
+      <c r="A342" s="52"/>
       <c r="B342" s="42"/>
     </row>
     <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="49" t="s">
+      <c r="A344" s="50" t="s">
         <v>289</v>
       </c>
       <c r="B344" s="31" t="s">
@@ -31634,51 +32209,51 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="50"/>
+      <c r="A345" s="51"/>
       <c r="B345" s="40"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="50"/>
+      <c r="A346" s="51"/>
       <c r="B346" s="34" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="50"/>
+      <c r="A347" s="51"/>
       <c r="B347" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="50"/>
+      <c r="A348" s="51"/>
       <c r="B348" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="50"/>
+      <c r="A349" s="51"/>
       <c r="B349" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="50"/>
+      <c r="A350" s="51"/>
       <c r="B350" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="50"/>
+      <c r="A351" s="51"/>
       <c r="B351" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="50"/>
+      <c r="A352" s="51"/>
       <c r="B352" s="34"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="50"/>
+      <c r="A353" s="51"/>
       <c r="B353" s="7" t="s">
         <v>297</v>
       </c>
@@ -31699,12 +32274,12 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="51"/>
+      <c r="A354" s="52"/>
       <c r="B354" s="42"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="356" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="49" t="s">
+      <c r="A356" s="50" t="s">
         <v>309</v>
       </c>
       <c r="B356" s="31" t="s">
@@ -31712,52 +32287,52 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="50"/>
+      <c r="A357" s="51"/>
       <c r="B357" s="40"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="50"/>
+      <c r="A358" s="51"/>
       <c r="B358" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="50"/>
+      <c r="A359" s="51"/>
       <c r="B359" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="50"/>
+      <c r="A360" s="51"/>
       <c r="B360" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="50"/>
+      <c r="A361" s="51"/>
       <c r="B361" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="50"/>
+      <c r="A362" s="51"/>
       <c r="B362" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="50"/>
+      <c r="A363" s="51"/>
       <c r="B363" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="51"/>
+      <c r="A364" s="52"/>
       <c r="B364" s="42"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="49" t="s">
+      <c r="A366" s="50" t="s">
         <v>321</v>
       </c>
       <c r="B366" s="31" t="s">
@@ -31765,126 +32340,126 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="50"/>
+      <c r="A367" s="51"/>
       <c r="B367" s="40"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="50"/>
+      <c r="A368" s="51"/>
       <c r="B368" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="50"/>
+      <c r="A369" s="51"/>
       <c r="B369" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="50"/>
+      <c r="A370" s="51"/>
       <c r="B370" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="50"/>
+      <c r="A371" s="51"/>
       <c r="B371" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="50"/>
+      <c r="A372" s="51"/>
       <c r="B372" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="50"/>
+      <c r="A373" s="51"/>
       <c r="B373" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="50"/>
+      <c r="A374" s="51"/>
       <c r="B374" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="50"/>
+      <c r="A375" s="51"/>
       <c r="B375" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="50"/>
+      <c r="A376" s="51"/>
       <c r="B376" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="50"/>
+      <c r="A377" s="51"/>
       <c r="B377" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="51"/>
+      <c r="A378" s="52"/>
       <c r="B378" s="42"/>
     </row>
     <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="49" t="s">
+      <c r="A380" s="50" t="s">
         <v>319</v>
       </c>
       <c r="B380" s="31"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="50"/>
+      <c r="A381" s="51"/>
       <c r="B381" s="40"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="50"/>
+      <c r="A382" s="51"/>
       <c r="B382" s="11"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="50"/>
+      <c r="A383" s="51"/>
       <c r="B383" s="11"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="50"/>
+      <c r="A384" s="51"/>
       <c r="B384" s="11"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="50"/>
+      <c r="A385" s="51"/>
       <c r="B385" s="7"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="50"/>
+      <c r="A386" s="51"/>
       <c r="B386" s="7"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="50"/>
+      <c r="A387" s="51"/>
       <c r="B387" s="7"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="50"/>
+      <c r="A388" s="51"/>
       <c r="B388" s="34"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="50"/>
+      <c r="A389" s="51"/>
       <c r="B389" s="7"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="50"/>
+      <c r="A390" s="51"/>
       <c r="B390" s="34"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="50"/>
+      <c r="A391" s="51"/>
       <c r="B391" s="7"/>
     </row>
     <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="51"/>
+      <c r="A392" s="52"/>
       <c r="B392" s="42"/>
       <c r="C392" s="2" t="s">
         <v>320</v>
@@ -31895,62 +32470,62 @@
     </row>
     <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="49" t="s">
+      <c r="A394" s="50" t="s">
         <v>319</v>
       </c>
       <c r="B394" s="31"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="50"/>
+      <c r="A395" s="51"/>
       <c r="B395" s="40"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="50"/>
+      <c r="A396" s="51"/>
       <c r="B396" s="11"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="50"/>
+      <c r="A397" s="51"/>
       <c r="B397" s="11"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="50"/>
+      <c r="A398" s="51"/>
       <c r="B398" s="11"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="50"/>
+      <c r="A399" s="51"/>
       <c r="B399" s="7"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="50"/>
+      <c r="A400" s="51"/>
       <c r="B400" s="7"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="50"/>
+      <c r="A401" s="51"/>
       <c r="B401" s="7"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="50"/>
+      <c r="A402" s="51"/>
       <c r="B402" s="34"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="50"/>
+      <c r="A403" s="51"/>
       <c r="B403" s="7"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="50"/>
+      <c r="A404" s="51"/>
       <c r="B404" s="34"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="50"/>
+      <c r="A405" s="51"/>
       <c r="B405" s="7"/>
     </row>
     <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="51"/>
+      <c r="A406" s="52"/>
       <c r="B406" s="42"/>
     </row>
     <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="408" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="49" t="s">
+      <c r="A408" s="50" t="s">
         <v>322</v>
       </c>
       <c r="B408" s="31" t="s">
@@ -31958,124 +32533,124 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="50"/>
+      <c r="A409" s="51"/>
       <c r="B409" s="40"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="50"/>
+      <c r="A410" s="51"/>
       <c r="B410" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="50"/>
+      <c r="A411" s="51"/>
       <c r="B411" s="43"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="50"/>
+      <c r="A412" s="51"/>
       <c r="B412" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="50"/>
+      <c r="A413" s="51"/>
       <c r="B413" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="50"/>
+      <c r="A414" s="51"/>
       <c r="B414" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="50"/>
+      <c r="A415" s="51"/>
       <c r="B415" s="43"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="50"/>
+      <c r="A416" s="51"/>
       <c r="B416" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="50"/>
+      <c r="A417" s="51"/>
       <c r="B417" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="50"/>
+      <c r="A418" s="51"/>
       <c r="B418" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="50"/>
+      <c r="A419" s="51"/>
       <c r="B419" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="50"/>
+      <c r="A420" s="51"/>
       <c r="B420" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="50"/>
+      <c r="A421" s="51"/>
       <c r="B421" s="43"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="50"/>
+      <c r="A422" s="51"/>
       <c r="B422" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="50"/>
+      <c r="A423" s="51"/>
       <c r="B423" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="50"/>
+      <c r="A424" s="51"/>
       <c r="B424" s="43"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="50"/>
+      <c r="A425" s="51"/>
       <c r="B425" s="34" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="50"/>
+      <c r="A426" s="51"/>
       <c r="B426" s="44" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="50"/>
+      <c r="A427" s="51"/>
       <c r="B427" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="50"/>
+      <c r="A428" s="51"/>
       <c r="B428" s="44" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="51"/>
+      <c r="A429" s="52"/>
       <c r="B429" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="49" t="s">
+      <c r="A431" s="50" t="s">
         <v>334</v>
       </c>
       <c r="B431" s="31" t="s">
@@ -32083,128 +32658,128 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="50"/>
+      <c r="A432" s="51"/>
       <c r="B432" s="40"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="50"/>
+      <c r="A433" s="51"/>
       <c r="B433" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="50"/>
+      <c r="A434" s="51"/>
       <c r="B434" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="50"/>
+      <c r="A435" s="51"/>
       <c r="B435" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="50"/>
+      <c r="A436" s="51"/>
       <c r="B436" s="45" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="50"/>
+      <c r="A437" s="51"/>
       <c r="B437" s="45" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="50"/>
+      <c r="A438" s="51"/>
       <c r="B438" s="45" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="50"/>
+      <c r="A439" s="51"/>
       <c r="B439" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="50"/>
+      <c r="A440" s="51"/>
       <c r="B440" s="34" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="50"/>
+      <c r="A441" s="51"/>
       <c r="B441" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="50"/>
+      <c r="A442" s="51"/>
       <c r="B442" s="34" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="50"/>
+      <c r="A443" s="51"/>
       <c r="B443" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="50"/>
+      <c r="A444" s="51"/>
       <c r="B444" s="34" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="50"/>
+      <c r="A445" s="51"/>
       <c r="B445" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="50"/>
+      <c r="A446" s="51"/>
       <c r="B446" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="50"/>
+      <c r="A447" s="51"/>
       <c r="B447" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="50"/>
+      <c r="A448" s="51"/>
       <c r="B448" s="34"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="50"/>
+      <c r="A449" s="51"/>
       <c r="B449" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="50"/>
+      <c r="A450" s="51"/>
       <c r="B450" s="48" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="50"/>
+      <c r="A451" s="51"/>
       <c r="B451" s="44" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="51"/>
+      <c r="A452" s="52"/>
       <c r="B452" s="42"/>
     </row>
     <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="49" t="s">
+      <c r="A454" s="50" t="s">
         <v>353</v>
       </c>
       <c r="B454" s="31" t="s">
@@ -32212,70 +32787,70 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="50"/>
+      <c r="A455" s="51"/>
       <c r="B455" s="40"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="50"/>
+      <c r="A456" s="51"/>
       <c r="B456" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="50"/>
+      <c r="A457" s="51"/>
       <c r="B457" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="50"/>
+      <c r="A458" s="51"/>
       <c r="B458" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="50"/>
+      <c r="A459" s="51"/>
       <c r="B459" s="34" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="50"/>
+      <c r="A460" s="51"/>
       <c r="B460" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="50"/>
+      <c r="A461" s="51"/>
       <c r="B461" s="34" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="50"/>
+      <c r="A462" s="51"/>
       <c r="B462" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="50"/>
+      <c r="A463" s="51"/>
       <c r="B463" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="50"/>
+      <c r="A464" s="51"/>
       <c r="B464" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="51"/>
+      <c r="A465" s="52"/>
       <c r="B465" s="42"/>
     </row>
     <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="467" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="49" t="s">
+      <c r="A467" s="50" t="s">
         <v>362</v>
       </c>
       <c r="B467" s="31" t="s">
@@ -32283,128 +32858,128 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="50"/>
+      <c r="A468" s="51"/>
       <c r="B468" s="40"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="50"/>
+      <c r="A469" s="51"/>
       <c r="B469" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="50"/>
+      <c r="A470" s="51"/>
       <c r="B470" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="50"/>
+      <c r="A471" s="51"/>
       <c r="B471" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="50"/>
+      <c r="A472" s="51"/>
       <c r="B472" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="50"/>
+      <c r="A473" s="51"/>
       <c r="B473" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="50"/>
+      <c r="A474" s="51"/>
       <c r="B474" s="34" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="50"/>
+      <c r="A475" s="51"/>
       <c r="B475" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="50"/>
+      <c r="A476" s="51"/>
       <c r="B476" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="50"/>
+      <c r="A477" s="51"/>
       <c r="B477" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="50"/>
+      <c r="A478" s="51"/>
       <c r="B478" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="50"/>
+      <c r="A479" s="51"/>
       <c r="B479" s="34" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="50"/>
+      <c r="A480" s="51"/>
       <c r="B480" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="50"/>
+      <c r="A481" s="51"/>
       <c r="B481" s="34" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="50"/>
+      <c r="A482" s="51"/>
       <c r="B482" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="50"/>
+      <c r="A483" s="51"/>
       <c r="B483" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="50"/>
+      <c r="A484" s="51"/>
       <c r="B484" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="50"/>
+      <c r="A485" s="51"/>
       <c r="B485" s="11"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="50"/>
+      <c r="A486" s="51"/>
       <c r="B486" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="50"/>
+      <c r="A487" s="51"/>
       <c r="B487" s="48" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="51"/>
+      <c r="A488" s="52"/>
       <c r="B488" s="42"/>
     </row>
     <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="49" t="s">
+      <c r="A490" s="50" t="s">
         <v>377</v>
       </c>
       <c r="B490" s="31" t="s">
@@ -32412,70 +32987,70 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="50"/>
+      <c r="A491" s="51"/>
       <c r="B491" s="40"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="50"/>
+      <c r="A492" s="51"/>
       <c r="B492" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="50"/>
+      <c r="A493" s="51"/>
       <c r="B493" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="50"/>
+      <c r="A494" s="51"/>
       <c r="B494" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="50"/>
+      <c r="A495" s="51"/>
       <c r="B495" s="34" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="50"/>
+      <c r="A496" s="51"/>
       <c r="B496" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="50"/>
+      <c r="A497" s="51"/>
       <c r="B497" s="34" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="50"/>
+      <c r="A498" s="51"/>
       <c r="B498" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="50"/>
+      <c r="A499" s="51"/>
       <c r="B499" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="50"/>
+      <c r="A500" s="51"/>
       <c r="B500" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="51"/>
+      <c r="A501" s="52"/>
       <c r="B501" s="42"/>
     </row>
     <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="49" t="s">
+      <c r="A503" s="50" t="s">
         <v>387</v>
       </c>
       <c r="B503" s="31" t="s">
@@ -32483,112 +33058,112 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="50"/>
+      <c r="A504" s="51"/>
       <c r="B504" s="40"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="50"/>
+      <c r="A505" s="51"/>
       <c r="B505" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="50"/>
+      <c r="A506" s="51"/>
       <c r="B506" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="50"/>
+      <c r="A507" s="51"/>
       <c r="B507" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="50"/>
+      <c r="A508" s="51"/>
       <c r="B508" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="50"/>
+      <c r="A509" s="51"/>
       <c r="B509" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="50"/>
+      <c r="A510" s="51"/>
       <c r="B510" s="7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="50"/>
+      <c r="A511" s="51"/>
       <c r="B511" s="34" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="50"/>
+      <c r="A512" s="51"/>
       <c r="B512" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="50"/>
+      <c r="A513" s="51"/>
       <c r="B513" s="34" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="50"/>
+      <c r="A514" s="51"/>
       <c r="B514" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="50"/>
+      <c r="A515" s="51"/>
       <c r="B515" s="34" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="50"/>
+      <c r="A516" s="51"/>
       <c r="B516" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="50"/>
+      <c r="A517" s="51"/>
       <c r="B517" s="34" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="50"/>
+      <c r="A518" s="51"/>
       <c r="B518" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="50"/>
+      <c r="A519" s="51"/>
       <c r="B519" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="50"/>
+      <c r="A520" s="51"/>
       <c r="B520" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="51"/>
+      <c r="A521" s="52"/>
       <c r="B521" s="42"/>
     </row>
     <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="49" t="s">
+      <c r="A523" s="50" t="s">
         <v>402</v>
       </c>
       <c r="B523" s="31" t="s">
@@ -32596,128 +33171,128 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="50"/>
+      <c r="A524" s="51"/>
       <c r="B524" s="40"/>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="50"/>
+      <c r="A525" s="51"/>
       <c r="B525" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="50"/>
+      <c r="A526" s="51"/>
       <c r="B526" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="50"/>
+      <c r="A527" s="51"/>
       <c r="B527" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="50"/>
+      <c r="A528" s="51"/>
       <c r="B528" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="50"/>
+      <c r="A529" s="51"/>
       <c r="B529" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="50"/>
+      <c r="A530" s="51"/>
       <c r="B530" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="50"/>
+      <c r="A531" s="51"/>
       <c r="B531" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="50"/>
+      <c r="A532" s="51"/>
       <c r="B532" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="50"/>
+      <c r="A533" s="51"/>
       <c r="B533" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="50"/>
+      <c r="A534" s="51"/>
       <c r="B534" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="50"/>
+      <c r="A535" s="51"/>
       <c r="B535" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="50"/>
+      <c r="A536" s="51"/>
       <c r="B536" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="50"/>
+      <c r="A537" s="51"/>
       <c r="B537" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="50"/>
+      <c r="A538" s="51"/>
       <c r="B538" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="50"/>
+      <c r="A539" s="51"/>
       <c r="B539" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="50"/>
+      <c r="A540" s="51"/>
       <c r="B540" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="50"/>
+      <c r="A541" s="51"/>
       <c r="B541" s="11"/>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="50"/>
+      <c r="A542" s="51"/>
       <c r="B542" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="50"/>
+      <c r="A543" s="51"/>
       <c r="B543" s="48" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="51"/>
+      <c r="A544" s="52"/>
       <c r="B544" s="42"/>
     </row>
     <row r="545" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="546" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="49" t="s">
+      <c r="A546" s="50" t="s">
         <v>428</v>
       </c>
       <c r="B546" s="31" t="s">
@@ -32725,94 +33300,94 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="50"/>
+      <c r="A547" s="51"/>
       <c r="B547" s="40"/>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="50"/>
+      <c r="A548" s="51"/>
       <c r="B548" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="50"/>
+      <c r="A549" s="51"/>
       <c r="B549" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="50"/>
+      <c r="A550" s="51"/>
       <c r="B550" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="50"/>
+      <c r="A551" s="51"/>
       <c r="B551" s="34" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="50"/>
+      <c r="A552" s="51"/>
       <c r="B552" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="50"/>
+      <c r="A553" s="51"/>
       <c r="B553" s="34" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="50"/>
+      <c r="A554" s="51"/>
       <c r="B554" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="50"/>
+      <c r="A555" s="51"/>
       <c r="B555" s="34" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="50"/>
+      <c r="A556" s="51"/>
       <c r="B556" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="50"/>
+      <c r="A557" s="51"/>
       <c r="B557" s="34" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="50"/>
+      <c r="A558" s="51"/>
       <c r="B558" s="7" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="50"/>
+      <c r="A559" s="51"/>
       <c r="B559" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="50"/>
+      <c r="A560" s="51"/>
       <c r="B560" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="51"/>
+      <c r="A561" s="52"/>
       <c r="B561" s="42"/>
     </row>
     <row r="562" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="563" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="49" t="s">
+      <c r="A563" s="50" t="s">
         <v>450</v>
       </c>
       <c r="B563" s="31" t="s">
@@ -32820,130 +33395,130 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="50"/>
+      <c r="A564" s="51"/>
       <c r="B564" s="40"/>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="50"/>
+      <c r="A565" s="51"/>
       <c r="B565" s="11" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="50"/>
+      <c r="A566" s="51"/>
       <c r="B566" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A567" s="50"/>
+      <c r="A567" s="51"/>
       <c r="B567" s="44" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="50"/>
+      <c r="A568" s="51"/>
       <c r="B568" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="50"/>
+      <c r="A569" s="51"/>
       <c r="B569" s="34" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="50"/>
+      <c r="A570" s="51"/>
       <c r="B570" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="50"/>
+      <c r="A571" s="51"/>
       <c r="B571" s="34" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="50"/>
+      <c r="A572" s="51"/>
       <c r="B572" s="7" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="50"/>
+      <c r="A573" s="51"/>
       <c r="B573" s="34" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="50"/>
+      <c r="A574" s="51"/>
       <c r="B574" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="50"/>
+      <c r="A575" s="51"/>
       <c r="B575" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="50"/>
+      <c r="A576" s="51"/>
       <c r="B576" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="50"/>
+      <c r="A577" s="51"/>
       <c r="B577" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="50"/>
+      <c r="A578" s="51"/>
       <c r="B578" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="50"/>
+      <c r="A579" s="51"/>
       <c r="B579" s="34" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="50"/>
+      <c r="A580" s="51"/>
       <c r="B580" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="50"/>
+      <c r="A581" s="51"/>
       <c r="B581" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="50"/>
+      <c r="A582" s="51"/>
       <c r="B582" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="50"/>
+      <c r="A583" s="51"/>
       <c r="B583" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="51"/>
+      <c r="A584" s="52"/>
       <c r="B584" s="42"/>
     </row>
     <row r="585" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="586" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="49" t="s">
+      <c r="A586" s="50" t="s">
         <v>449</v>
       </c>
       <c r="B586" s="31" t="s">
@@ -32951,298 +33526,298 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="50"/>
+      <c r="A587" s="51"/>
       <c r="B587" s="40"/>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="50"/>
+      <c r="A588" s="51"/>
       <c r="B588" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="50"/>
+      <c r="A589" s="51"/>
       <c r="B589" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="50"/>
+      <c r="A590" s="51"/>
       <c r="B590" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="50"/>
+      <c r="A591" s="51"/>
       <c r="B591" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="50"/>
+      <c r="A592" s="51"/>
       <c r="B592" s="11" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="50"/>
+      <c r="A593" s="51"/>
       <c r="B593" s="45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="50"/>
+      <c r="A594" s="51"/>
       <c r="B594" s="45" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="50"/>
+      <c r="A595" s="51"/>
       <c r="B595" s="45" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="50"/>
+      <c r="A596" s="51"/>
       <c r="B596" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="50"/>
+      <c r="A597" s="51"/>
       <c r="B597" s="11" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="50"/>
+      <c r="A598" s="51"/>
       <c r="B598" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="50"/>
+      <c r="A599" s="51"/>
       <c r="B599" s="11" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="50"/>
+      <c r="A600" s="51"/>
       <c r="B600" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="50"/>
+      <c r="A601" s="51"/>
       <c r="B601" s="11" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="50"/>
+      <c r="A602" s="51"/>
       <c r="B602" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="50"/>
+      <c r="A603" s="51"/>
       <c r="B603" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="50"/>
+      <c r="A604" s="51"/>
       <c r="B604" s="11" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="50"/>
+      <c r="A605" s="51"/>
       <c r="B605" s="11" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="50"/>
+      <c r="A606" s="51"/>
       <c r="B606" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="50"/>
+      <c r="A607" s="51"/>
       <c r="B607" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="50"/>
+      <c r="A608" s="51"/>
       <c r="B608" s="34" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="50"/>
+      <c r="A609" s="51"/>
       <c r="B609" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="50"/>
+      <c r="A610" s="51"/>
       <c r="B610" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="50"/>
+      <c r="A611" s="51"/>
       <c r="B611" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="50"/>
+      <c r="A612" s="51"/>
       <c r="B612" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="50"/>
+      <c r="A613" s="51"/>
       <c r="B613" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="50"/>
+      <c r="A614" s="51"/>
       <c r="B614" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="50"/>
+      <c r="A615" s="51"/>
       <c r="B615" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="50"/>
+      <c r="A616" s="51"/>
       <c r="B616" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="50"/>
+      <c r="A617" s="51"/>
       <c r="B617" s="34" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="50"/>
+      <c r="A618" s="51"/>
       <c r="B618" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="50"/>
+      <c r="A619" s="51"/>
       <c r="B619" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="50"/>
+      <c r="A620" s="51"/>
       <c r="B620" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="50"/>
+      <c r="A621" s="51"/>
       <c r="B621" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="50"/>
+      <c r="A622" s="51"/>
       <c r="B622" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="50"/>
+      <c r="A623" s="51"/>
       <c r="B623" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="50"/>
+      <c r="A624" s="51"/>
       <c r="B624" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="50"/>
+      <c r="A625" s="51"/>
       <c r="B625" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="50"/>
+      <c r="A626" s="51"/>
       <c r="B626" s="34" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="50"/>
+      <c r="A627" s="51"/>
       <c r="B627" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="50"/>
+      <c r="A628" s="51"/>
       <c r="B628" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="50"/>
+      <c r="A629" s="51"/>
       <c r="B629" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="50"/>
+      <c r="A630" s="51"/>
       <c r="B630" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="50"/>
+      <c r="A631" s="51"/>
       <c r="B631" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="50"/>
+      <c r="A632" s="51"/>
       <c r="B632" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="50"/>
+      <c r="A633" s="51"/>
       <c r="B633" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="50"/>
+      <c r="A634" s="51"/>
       <c r="B634" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="51"/>
+      <c r="A635" s="52"/>
       <c r="B635" s="42"/>
     </row>
     <row r="636" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="637" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="49" t="s">
+      <c r="A637" s="50" t="s">
         <v>481</v>
       </c>
       <c r="B637" s="31" t="s">
@@ -33250,46 +33825,46 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="50"/>
+      <c r="A638" s="51"/>
       <c r="B638" s="40"/>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="50"/>
+      <c r="A639" s="51"/>
       <c r="B639" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="50"/>
+      <c r="A640" s="51"/>
       <c r="B640" s="34" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="50"/>
+      <c r="A641" s="51"/>
       <c r="B641" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="50"/>
+      <c r="A642" s="51"/>
       <c r="B642" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="50"/>
+      <c r="A643" s="51"/>
       <c r="B643" s="11" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="51"/>
+      <c r="A644" s="52"/>
       <c r="B644" s="42"/>
     </row>
     <row r="645" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="49" t="s">
+      <c r="A646" s="50" t="s">
         <v>487</v>
       </c>
       <c r="B646" s="31" t="s">
@@ -33297,28 +33872,28 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="50"/>
+      <c r="A647" s="51"/>
       <c r="B647" s="40"/>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="50"/>
+      <c r="A648" s="51"/>
       <c r="B648" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="50"/>
+      <c r="A649" s="51"/>
       <c r="B649" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="51"/>
+      <c r="A650" s="52"/>
       <c r="B650" s="42"/>
     </row>
     <row r="651" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="652" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="49" t="s">
+      <c r="A652" s="50" t="s">
         <v>491</v>
       </c>
       <c r="B652" s="31" t="s">
@@ -33326,80 +33901,80 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="50"/>
+      <c r="A653" s="51"/>
       <c r="B653" s="40"/>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="50"/>
+      <c r="A654" s="51"/>
       <c r="B654" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="50"/>
+      <c r="A655" s="51"/>
       <c r="B655" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="50"/>
+      <c r="A656" s="51"/>
       <c r="B656" s="34" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="50"/>
+      <c r="A657" s="51"/>
       <c r="B657" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="50"/>
+      <c r="A658" s="51"/>
       <c r="B658" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="50"/>
+      <c r="A659" s="51"/>
       <c r="B659" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="50"/>
+      <c r="A660" s="51"/>
       <c r="B660" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="50"/>
+      <c r="A661" s="51"/>
       <c r="B661" s="11"/>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="50"/>
+      <c r="A662" s="51"/>
       <c r="B662" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="50"/>
+      <c r="A663" s="51"/>
       <c r="B663" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="50"/>
+      <c r="A664" s="51"/>
       <c r="B664" s="36" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A665" s="51"/>
+      <c r="A665" s="52"/>
       <c r="B665" s="42"/>
     </row>
     <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="49" t="s">
+      <c r="A667" s="50" t="s">
         <v>505</v>
       </c>
       <c r="B667" s="31" t="s">
@@ -33407,34 +33982,34 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="50"/>
+      <c r="A668" s="51"/>
       <c r="B668" s="40"/>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="50"/>
+      <c r="A669" s="51"/>
       <c r="B669" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="50"/>
+      <c r="A670" s="51"/>
       <c r="B670" s="34" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="50"/>
+      <c r="A671" s="51"/>
       <c r="B671" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="51"/>
+      <c r="A672" s="52"/>
       <c r="B672" s="42"/>
     </row>
     <row r="673" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="674" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="49" t="s">
+      <c r="A674" s="50" t="s">
         <v>506</v>
       </c>
       <c r="B674" s="31" t="s">
@@ -33442,64 +34017,64 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="50"/>
+      <c r="A675" s="51"/>
       <c r="B675" s="40"/>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="50"/>
+      <c r="A676" s="51"/>
       <c r="B676" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="50"/>
+      <c r="A677" s="51"/>
       <c r="B677" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="50"/>
+      <c r="A678" s="51"/>
       <c r="B678" s="34" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="50"/>
+      <c r="A679" s="51"/>
       <c r="B679" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="50"/>
+      <c r="A680" s="51"/>
       <c r="B680" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="50"/>
+      <c r="A681" s="51"/>
       <c r="B681" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="50"/>
+      <c r="A682" s="51"/>
       <c r="B682" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="50"/>
+      <c r="A683" s="51"/>
       <c r="B683" s="11" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="51"/>
+      <c r="A684" s="52"/>
       <c r="B684" s="42"/>
     </row>
     <row r="685" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="686" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A686" s="49" t="s">
+      <c r="A686" s="50" t="s">
         <v>513</v>
       </c>
       <c r="B686" s="31" t="s">
@@ -33507,86 +34082,86 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="50"/>
+      <c r="A687" s="51"/>
       <c r="B687" s="40"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="50"/>
+      <c r="A688" s="51"/>
       <c r="B688" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="50"/>
+      <c r="A689" s="51"/>
       <c r="B689" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="50"/>
+      <c r="A690" s="51"/>
       <c r="B690" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="50"/>
+      <c r="A691" s="51"/>
       <c r="B691" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="50"/>
+      <c r="A692" s="51"/>
       <c r="B692" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="50"/>
+      <c r="A693" s="51"/>
       <c r="B693" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="50"/>
+      <c r="A694" s="51"/>
       <c r="B694" s="34" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="50"/>
+      <c r="A695" s="51"/>
       <c r="B695" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="50"/>
+      <c r="A696" s="51"/>
       <c r="B696" s="11" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="50"/>
+      <c r="A697" s="51"/>
       <c r="B697" s="7"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="50"/>
+      <c r="A698" s="51"/>
       <c r="B698" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="50"/>
+      <c r="A699" s="51"/>
       <c r="B699" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="51"/>
+      <c r="A700" s="52"/>
       <c r="B700" s="42"/>
     </row>
     <row r="701" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="702" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A702" s="49" t="s">
+      <c r="A702" s="50" t="s">
         <v>524</v>
       </c>
       <c r="B702" s="31" t="s">
@@ -33594,100 +34169,100 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="50"/>
+      <c r="A703" s="51"/>
       <c r="B703" s="40"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="50"/>
+      <c r="A704" s="51"/>
       <c r="B704" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="50"/>
+      <c r="A705" s="51"/>
       <c r="B705" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="50"/>
+      <c r="A706" s="51"/>
       <c r="B706" s="34" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="50"/>
+      <c r="A707" s="51"/>
       <c r="B707" s="7" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="50"/>
+      <c r="A708" s="51"/>
       <c r="B708" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="50"/>
+      <c r="A709" s="51"/>
       <c r="B709" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="50"/>
+      <c r="A710" s="51"/>
       <c r="B710" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="50"/>
+      <c r="A711" s="51"/>
       <c r="B711" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="50"/>
+      <c r="A712" s="51"/>
       <c r="B712" s="7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="50"/>
+      <c r="A713" s="51"/>
       <c r="B713" s="11" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="50"/>
+      <c r="A714" s="51"/>
       <c r="B714" s="34" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="50"/>
+      <c r="A715" s="51"/>
       <c r="B715" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="50"/>
+      <c r="A716" s="51"/>
       <c r="B716" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="50"/>
+      <c r="A717" s="51"/>
       <c r="B717" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A718" s="51"/>
+      <c r="A718" s="52"/>
       <c r="B718" s="42"/>
     </row>
     <row r="719" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="720" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="49" t="s">
+      <c r="A720" s="50" t="s">
         <v>537</v>
       </c>
       <c r="B720" s="31" t="s">
@@ -33695,203 +34270,337 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="50"/>
+      <c r="A721" s="51"/>
       <c r="B721" s="40"/>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="50"/>
+      <c r="A722" s="51"/>
       <c r="B722" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="50"/>
+      <c r="A723" s="51"/>
       <c r="B723" s="7"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="50"/>
+      <c r="A724" s="51"/>
       <c r="B724" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="50"/>
+      <c r="A725" s="51"/>
       <c r="B725" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="50"/>
+      <c r="A726" s="51"/>
       <c r="B726" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="50"/>
+      <c r="A727" s="51"/>
       <c r="B727" s="7" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="50"/>
+      <c r="A728" s="51"/>
       <c r="B728" s="34" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="50"/>
+      <c r="A729" s="51"/>
       <c r="B729" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="50"/>
+      <c r="A730" s="51"/>
       <c r="B730" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="50"/>
+      <c r="A731" s="51"/>
       <c r="B731" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="50"/>
+      <c r="A732" s="51"/>
       <c r="B732" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="50"/>
+      <c r="A733" s="51"/>
       <c r="B733" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="50"/>
+      <c r="A734" s="51"/>
       <c r="B734" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="50"/>
+      <c r="A735" s="51"/>
       <c r="B735" s="7"/>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="50"/>
+      <c r="A736" s="51"/>
       <c r="B736" s="40"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="50"/>
+      <c r="A737" s="51"/>
       <c r="B737" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="50"/>
+      <c r="A738" s="51"/>
       <c r="B738" s="7"/>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="50"/>
+      <c r="A739" s="51"/>
       <c r="B739" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="50"/>
+      <c r="A740" s="51"/>
       <c r="B740" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="50"/>
+      <c r="A741" s="51"/>
       <c r="B741" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="50"/>
+      <c r="A742" s="51"/>
       <c r="B742" s="7" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="50"/>
+      <c r="A743" s="51"/>
       <c r="B743" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="50"/>
+      <c r="A744" s="51"/>
       <c r="B744" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="50"/>
+      <c r="A745" s="51"/>
       <c r="B745" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="50"/>
+      <c r="A746" s="51"/>
       <c r="B746" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="50"/>
+      <c r="A747" s="51"/>
       <c r="B747" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="50"/>
+      <c r="A748" s="51"/>
       <c r="B748" s="7"/>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="50"/>
+      <c r="A749" s="51"/>
       <c r="B749" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="50"/>
+      <c r="A750" s="51"/>
       <c r="B750" s="36" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="50"/>
+      <c r="A751" s="51"/>
       <c r="B751" s="36" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="50"/>
+      <c r="A752" s="51"/>
       <c r="B752" s="36" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="50"/>
+      <c r="A753" s="51"/>
       <c r="B753" s="36" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="50"/>
+      <c r="A754" s="51"/>
       <c r="B754" s="36" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A755" s="51"/>
-      <c r="B755" s="52"/>
+      <c r="A755" s="52"/>
+      <c r="B755" s="49"/>
+    </row>
+    <row r="756" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="757" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A757" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="B757" s="31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="51"/>
+      <c r="B758" s="40"/>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="51"/>
+      <c r="B759" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="51"/>
+      <c r="B760" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="51"/>
+      <c r="B761" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="51"/>
+      <c r="B762" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="51"/>
+      <c r="B763" s="34" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="51"/>
+      <c r="B764" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="51"/>
+      <c r="B765" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="51"/>
+      <c r="B766" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="51"/>
+      <c r="B767" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" s="51"/>
+      <c r="B768" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" s="51"/>
+      <c r="B769" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="51"/>
+      <c r="B770" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" s="51"/>
+      <c r="B771" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A772" s="52"/>
+      <c r="B772" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -33908,44 +34617,6 @@
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A26D6-744F-44EF-ACC2-4777B643BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D622811-3861-4DB1-B39C-2C7687F37E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="584">
   <si>
     <t>Descrição</t>
   </si>
@@ -28936,6 +28936,645 @@
         <family val="3"/>
       </rPr>
       <t>(totmenor))</t>
+    </r>
+  </si>
+  <si>
+    <t>ex055</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o peso de cinco pessoas. No final, mostre qual foi o maior e o menor peso lidos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">maiorpeso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">menorpeso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    peso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Peso da </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ª pessoa: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(c)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        maiorpeso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        menorpeso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> maiorpeso:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            maiorpeso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> menorpeso:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            menorpeso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> peso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O MAIOR peso informado foi: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kg'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(maiorpeso))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O MENOR peso informado foi: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kg'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(menorpeso))</t>
     </r>
   </si>
 </sst>
@@ -30174,10 +30813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G772"/>
+  <dimension ref="A1:G790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B774" sqref="B774"/>
+    <sheetView tabSelected="1" topLeftCell="A768" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B780" sqref="B780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34560,47 +35199,110 @@
       <c r="A772" s="52"/>
       <c r="B772" s="42"/>
     </row>
+    <row r="773" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="774" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="B774" s="31" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" s="51"/>
+      <c r="B775" s="40"/>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" s="51"/>
+      <c r="B776" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" s="51"/>
+      <c r="B777" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" s="51"/>
+      <c r="B778" s="34" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" s="51"/>
+      <c r="B779" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" s="51"/>
+      <c r="B780" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" s="51"/>
+      <c r="B781" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" s="51"/>
+      <c r="B782" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="51"/>
+      <c r="B783" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="51"/>
+      <c r="B784" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="51"/>
+      <c r="B785" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="51"/>
+      <c r="B786" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="51"/>
+      <c r="B787" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="51"/>
+      <c r="B788" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="51"/>
+      <c r="B789" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A790" s="52"/>
+      <c r="B790" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
+  <mergeCells count="56">
+    <mergeCell ref="A774:A790"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
     <mergeCell ref="A248:A260"/>
@@ -34617,6 +35319,45 @@
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D622811-3861-4DB1-B39C-2C7687F37E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6E589-C88A-4DE2-8DC8-108D23D92763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="607">
   <si>
     <t>Descrição</t>
   </si>
@@ -29576,6 +29576,1306 @@
       </rPr>
       <t>(menorpeso))</t>
     </r>
+  </si>
+  <si>
+    <t>ex056</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia o nome, idade e sexo de 4 pessoas. No final do programa, mostre: a média de idade do grupo, qual é o nome do homem mais velho e quantas mulheres têm menos de 20 anos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">somaidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mediaidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nomevelho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">totmulher20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'---- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ª PESSOA ----'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(p).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    nome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Nome: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Idade: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Sexo [M/F]: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    somaidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Mm'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        maioridadehomem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        nomevelho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Mm'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> maioridadehomem:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Ff'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> idade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        totmulher20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mediaidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> somaidade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'A média de idade do grupo é de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(mediaidade))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Homem mais velho tem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> anos e se chama </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(maioridadehomem, nomevelho))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Ao todo são </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> mulheres com menos de 20 anos.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(totmulher20))</t>
+    </r>
+  </si>
+  <si>
+    <t>nomevelho = ''  ---&gt; Para informar variável para string, usar o aspas em branco....</t>
   </si>
 </sst>
 </file>
@@ -30036,7 +31336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -30185,6 +31485,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30346,7 +31655,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>456170</xdr:colOff>
+      <xdr:colOff>456171</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -30390,7 +31699,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313763</xdr:colOff>
+      <xdr:colOff>313764</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
@@ -30434,7 +31743,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>343238</xdr:colOff>
+      <xdr:colOff>343237</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
@@ -30478,7 +31787,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>496148</xdr:colOff>
+      <xdr:colOff>496147</xdr:colOff>
       <xdr:row>392</xdr:row>
       <xdr:rowOff>34122</xdr:rowOff>
     </xdr:to>
@@ -30813,16 +32122,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G790"/>
+  <dimension ref="A1:G819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A768" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B780" sqref="B780"/>
+    <sheetView tabSelected="1" topLeftCell="A789" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A792" sqref="A792:A819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="175.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="176.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -35300,8 +36609,214 @@
       <c r="A790" s="52"/>
       <c r="B790" s="42"/>
     </row>
+    <row r="791" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="792" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A792" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="B792" s="31" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="51"/>
+      <c r="B793" s="40"/>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" s="51"/>
+      <c r="B794" s="53" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" s="51"/>
+      <c r="B795" s="53" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" s="51"/>
+      <c r="B796" s="53" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" s="51"/>
+      <c r="B797" s="53" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" s="51"/>
+      <c r="B798" s="54" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" s="51"/>
+      <c r="B799" s="53" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="51"/>
+      <c r="B800" s="53" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" s="51"/>
+      <c r="B801" s="53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" s="51"/>
+      <c r="B802" s="53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" s="51"/>
+      <c r="B803" s="53" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" s="51"/>
+      <c r="B804" s="53" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" s="51"/>
+      <c r="B805" s="53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" s="51"/>
+      <c r="B806" s="53" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" s="51"/>
+      <c r="B807" s="53" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" s="51"/>
+      <c r="B808" s="53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" s="51"/>
+      <c r="B809" s="53" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" s="51"/>
+      <c r="B810" s="53" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" s="51"/>
+      <c r="B811" s="53" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" s="51"/>
+      <c r="B812" s="53" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" s="51"/>
+      <c r="B813" s="55" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" s="51"/>
+      <c r="B814" s="55" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" s="51"/>
+      <c r="B815" s="55" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" s="51"/>
+      <c r="B816" s="7"/>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" s="51"/>
+      <c r="B817" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" s="51"/>
+      <c r="B818" s="36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="52"/>
+      <c r="B819" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A774:A790"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -35318,46 +36833,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6E589-C88A-4DE2-8DC8-108D23D92763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD93F4A-94F5-4DBF-97D9-F935579C5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="614">
   <si>
     <t>Descrição</t>
   </si>
@@ -30876,6 +30876,415 @@
   </si>
   <si>
     <t>nomevelho = ''  ---&gt; Para informar variável para string, usar o aspas em branco....</t>
+  </si>
+  <si>
+    <t>ex057</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o sexo de uma pessoa, mas só aceite os valores ‘M’ ou ‘F’. Caso esteja errado, peça a digitação novamente até ter um valor correto.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite seu sexo: [M/F] '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'MmFf'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Opção Inválida! Por favor, informe seu sexo: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Sexo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> registrado com sucesso!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(sexo))</t>
+    </r>
+  </si>
+  <si>
+    <t>.upper()[0]  ---&gt; Serve para variável sexo coletar somente o caractere 0 de python, ou o primeiro.</t>
   </si>
 </sst>
 </file>
@@ -31336,7 +31745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -31485,15 +31894,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32122,10 +32522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G819"/>
+  <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A789" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A792" sqref="A792:A819"/>
+    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B828" sqref="B828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36624,133 +37024,133 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="51"/>
-      <c r="B794" s="53" t="s">
+      <c r="B794" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="51"/>
-      <c r="B795" s="53" t="s">
+      <c r="B795" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="51"/>
-      <c r="B796" s="53" t="s">
+      <c r="B796" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="51"/>
-      <c r="B797" s="53" t="s">
+      <c r="B797" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="51"/>
-      <c r="B798" s="54" t="s">
+      <c r="B798" s="34" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="51"/>
-      <c r="B799" s="53" t="s">
+      <c r="B799" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="51"/>
-      <c r="B800" s="53" t="s">
+      <c r="B800" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="51"/>
-      <c r="B801" s="53" t="s">
+      <c r="B801" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="51"/>
-      <c r="B802" s="53" t="s">
+      <c r="B802" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="51"/>
-      <c r="B803" s="53" t="s">
+      <c r="B803" s="7" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="51"/>
-      <c r="B804" s="53" t="s">
+      <c r="B804" s="7" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="51"/>
-      <c r="B805" s="53" t="s">
+      <c r="B805" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="51"/>
-      <c r="B806" s="53" t="s">
+      <c r="B806" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="51"/>
-      <c r="B807" s="53" t="s">
+      <c r="B807" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="51"/>
-      <c r="B808" s="53" t="s">
+      <c r="B808" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="51"/>
-      <c r="B809" s="53" t="s">
+      <c r="B809" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="51"/>
-      <c r="B810" s="53" t="s">
+      <c r="B810" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="51"/>
-      <c r="B811" s="53" t="s">
+      <c r="B811" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="51"/>
-      <c r="B812" s="53" t="s">
+      <c r="B812" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="51"/>
-      <c r="B813" s="55" t="s">
+      <c r="B813" s="11" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="51"/>
-      <c r="B814" s="55" t="s">
+      <c r="B814" s="11" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="51"/>
-      <c r="B815" s="55" t="s">
+      <c r="B815" s="11" t="s">
         <v>605</v>
       </c>
     </row>
@@ -36774,8 +37174,107 @@
       <c r="A819" s="52"/>
       <c r="B819" s="42"/>
     </row>
+    <row r="820" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="821" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A821" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="B821" s="31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" s="51"/>
+      <c r="B822" s="40"/>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" s="51"/>
+      <c r="B823" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" s="51"/>
+      <c r="B824" s="34" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" s="51"/>
+      <c r="B825" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" s="51"/>
+      <c r="B826" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" s="51"/>
+      <c r="B827" s="7"/>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" s="51"/>
+      <c r="B828" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" s="51"/>
+      <c r="B829" s="36" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A830" s="52"/>
+      <c r="B830" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
+    <mergeCell ref="A821:A830"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A408:A429"/>
+    <mergeCell ref="A431:A452"/>
+    <mergeCell ref="A380:A392"/>
+    <mergeCell ref="A394:A406"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
     <mergeCell ref="A792:A819"/>
     <mergeCell ref="A503:A521"/>
     <mergeCell ref="A652:A665"/>
@@ -36791,48 +37290,7 @@
     <mergeCell ref="A646:A650"/>
     <mergeCell ref="A586:A635"/>
     <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A408:A429"/>
-    <mergeCell ref="A431:A452"/>
-    <mergeCell ref="A380:A392"/>
-    <mergeCell ref="A394:A406"/>
-    <mergeCell ref="A320:A328"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A118:A124"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD93F4A-94F5-4DBF-97D9-F935579C5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DCEA8-4E78-4FE3-B532-A46FA5C94936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="616">
   <si>
     <t>Descrição</t>
   </si>
@@ -31285,6 +31285,12 @@
   </si>
   <si>
     <t>.upper()[0]  ---&gt; Serve para variável sexo coletar somente o caractere 0 de python, ou o primeiro.</t>
+  </si>
+  <si>
+    <t>ex058</t>
+  </si>
+  <si>
+    <t>Melhore o jogo do DESAFIO 28 onde o computador vai “pensar” em um número entre 0 e 10. Só que agora o jogador vai tentar adivinhar até acertar, mostrando no final quantos palpites foram necessários para vencer.</t>
   </si>
 </sst>
 </file>
@@ -32522,10 +32528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G830"/>
+  <dimension ref="A1:G859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B828" sqref="B828"/>
+    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37231,8 +37237,168 @@
       <c r="A830" s="52"/>
       <c r="B830" s="49"/>
     </row>
+    <row r="831" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="832" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A832" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="B832" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" s="51"/>
+      <c r="B833" s="40"/>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" s="51"/>
+      <c r="B834" s="7"/>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" s="51"/>
+      <c r="B835" s="7"/>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" s="51"/>
+      <c r="B836" s="7"/>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" s="51"/>
+      <c r="B837" s="7"/>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" s="51"/>
+      <c r="B838" s="34"/>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" s="51"/>
+      <c r="B839" s="7"/>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" s="51"/>
+      <c r="B840" s="7"/>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" s="51"/>
+      <c r="B841" s="7"/>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" s="51"/>
+      <c r="B842" s="7"/>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" s="51"/>
+      <c r="B843" s="7"/>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" s="51"/>
+      <c r="B844" s="7"/>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" s="51"/>
+      <c r="B845" s="7"/>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" s="51"/>
+      <c r="B846" s="7"/>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" s="51"/>
+      <c r="B847" s="7"/>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" s="51"/>
+      <c r="B848" s="7"/>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" s="51"/>
+      <c r="B849" s="7"/>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" s="51"/>
+      <c r="B850" s="7"/>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" s="51"/>
+      <c r="B851" s="7"/>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" s="51"/>
+      <c r="B852" s="7"/>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" s="51"/>
+      <c r="B853" s="11"/>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" s="51"/>
+      <c r="B854" s="11"/>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" s="51"/>
+      <c r="B855" s="11"/>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" s="51"/>
+      <c r="B856" s="7"/>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" s="51"/>
+      <c r="B857" s="36"/>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" s="51"/>
+      <c r="B858" s="36"/>
+    </row>
+    <row r="859" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A859" s="52"/>
+      <c r="B859" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="59">
+    <mergeCell ref="A832:A859"/>
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A821:A830"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -37249,48 +37415,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A792:A819"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DCEA8-4E78-4FE3-B532-A46FA5C94936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E337C-EEE0-4346-A900-5E0C6A551AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="633">
   <si>
     <t>Descrição</t>
   </si>
@@ -31291,6 +31291,747 @@
   </si>
   <si>
     <t>Melhore o jogo do DESAFIO 28 onde o computador vai “pensar” em um número entre 0 e 10. Só que agora o jogador vai tentar adivinhar até acertar, mostrando no final quantos palpites foram necessários para vencer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tentativas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">computador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>randint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Sou seu computador! Adivinhe o número que estou pensando entre 0 e 10.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">acertou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">palpites </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> acertou:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Qual é o seu palpite? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    palpites </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> computador:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        acertou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> jogador </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> computador:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Mais... Tente novamente!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Menos... Tente novamente!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Você acertou com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tentativas. Parabéns!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(palpites))</t>
+    </r>
+  </si>
+  <si>
+    <t>o randint(0, 10)  ---&gt; Ele realmente escolhe de 0 à 10. E não de 0 à 9.</t>
   </si>
 </sst>
 </file>
@@ -32528,10 +33269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G859"/>
+  <dimension ref="A1:G856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475"/>
+    <sheetView tabSelected="1" topLeftCell="A831" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A832" sqref="A832:A856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37252,79 +37993,117 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="51"/>
-      <c r="B834" s="7"/>
+      <c r="B834" s="34" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="51"/>
-      <c r="B835" s="7"/>
+      <c r="B835" s="7" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="51"/>
-      <c r="B836" s="7"/>
+      <c r="B836" s="7" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="51"/>
-      <c r="B837" s="7"/>
+      <c r="B837" s="11" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="51"/>
-      <c r="B838" s="34"/>
+      <c r="B838" s="11" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="51"/>
-      <c r="B839" s="7"/>
+      <c r="B839" s="11" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="51"/>
-      <c r="B840" s="7"/>
+      <c r="B840" s="7" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="51"/>
-      <c r="B841" s="7"/>
+      <c r="B841" s="7" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="51"/>
-      <c r="B842" s="7"/>
+      <c r="B842" s="34" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="51"/>
-      <c r="B843" s="7"/>
+      <c r="B843" s="7" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="51"/>
-      <c r="B844" s="7"/>
+      <c r="B844" s="7" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="51"/>
-      <c r="B845" s="7"/>
+      <c r="B845" s="7" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="51"/>
-      <c r="B846" s="7"/>
+      <c r="B846" s="7" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="51"/>
-      <c r="B847" s="7"/>
+      <c r="B847" s="7" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="51"/>
-      <c r="B848" s="7"/>
+      <c r="B848" s="7" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="51"/>
-      <c r="B849" s="7"/>
+      <c r="B849" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="51"/>
-      <c r="B850" s="7"/>
+      <c r="B850" s="7" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="51"/>
-      <c r="B851" s="7"/>
+      <c r="B851" s="7" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="51"/>
-      <c r="B852" s="7"/>
+      <c r="B852" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="51"/>
@@ -37332,73 +38111,22 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="51"/>
-      <c r="B854" s="11"/>
+      <c r="B854" s="36" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="51"/>
-      <c r="B855" s="11"/>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="51"/>
-      <c r="B856" s="7"/>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A857" s="51"/>
-      <c r="B857" s="36"/>
-    </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A858" s="51"/>
-      <c r="B858" s="36"/>
-    </row>
-    <row r="859" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A859" s="52"/>
-      <c r="B859" s="42"/>
+      <c r="B855" s="36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A856" s="52"/>
+      <c r="B856" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A832:A859"/>
-    <mergeCell ref="A792:A819"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A821:A830"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -37415,6 +38143,49 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A832:A856"/>
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E337C-EEE0-4346-A900-5E0C6A551AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B0975-0848-49D3-94D1-B1C9042BA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="673">
   <si>
     <t>Descrição</t>
   </si>
@@ -32032,6 +32032,1963 @@
   </si>
   <si>
     <t>o randint(0, 10)  ---&gt; Ele realmente escolhe de 0 à 10. E não de 0 à 9.</t>
+  </si>
+  <si>
+    <t>ex059</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia dois valores e mostre um menu na tela:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">primeiro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeiro valor: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">segundo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Segundo valor: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">resultado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sair </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'''</t>
+    </r>
+  </si>
+  <si>
+    <t>    [ 1 ] Somar</t>
+  </si>
+  <si>
+    <t>    [ 2 ] Multiplicar</t>
+  </si>
+  <si>
+    <t>    [ 3 ] Maior</t>
+  </si>
+  <si>
+    <t>    [ 4 ] Novos números</t>
+  </si>
+  <si>
+    <r>
+      <t>    [ 5 ] Sair do programa'''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&gt;&gt;&gt;&gt; Qual é a sua opção? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        resultado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> primeiro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> segundo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">O resultado da soma de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(primeiro, segundo, resultado))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        resultado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> primeiro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> segundo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">O resultado de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(primeiro, segundo, resultado))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> primeiro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> segundo:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            resultado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> primeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> segundo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> primeiro:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            resultado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> segundo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>São IGUAIS!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)            </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Entre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> o MAIOR é o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(primeiro, segundo, resultado))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Informe os novos números novamente:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        primeiro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeiro valor: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        segundo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Segundo valor: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> opção </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Finalizando..'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Opção Inválida! Tente novamente!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'=-='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Fim do programa! Volte sempre!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'=-='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -33269,10 +35226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G856"/>
+  <dimension ref="A1:G902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A831" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A832" sqref="A832:A856"/>
+    <sheetView tabSelected="1" topLeftCell="A861" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A858" sqref="A858:A902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38125,8 +40082,319 @@
       <c r="A856" s="52"/>
       <c r="B856" s="42"/>
     </row>
+    <row r="857" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="858" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A858" s="50" t="s">
+        <v>633</v>
+      </c>
+      <c r="B858" s="31" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" s="51"/>
+      <c r="B859" s="40"/>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" s="51"/>
+      <c r="B860" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" s="51"/>
+      <c r="B861" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" s="51"/>
+      <c r="B862" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" s="51"/>
+      <c r="B863" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" s="51"/>
+      <c r="B864" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" s="51"/>
+      <c r="B865" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" s="51"/>
+      <c r="B866" s="34" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" s="51"/>
+      <c r="B867" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" s="51"/>
+      <c r="B868" s="45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" s="51"/>
+      <c r="B869" s="45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" s="51"/>
+      <c r="B870" s="45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="51"/>
+      <c r="B871" s="45" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="51"/>
+      <c r="B872" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="51"/>
+      <c r="B873" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="51"/>
+      <c r="B874" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="51"/>
+      <c r="B875" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" s="51"/>
+      <c r="B876" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" s="51"/>
+      <c r="B877" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" s="51"/>
+      <c r="B878" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" s="51"/>
+      <c r="B879" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" s="51"/>
+      <c r="B880" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" s="51"/>
+      <c r="B881" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" s="51"/>
+      <c r="B882" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="51"/>
+      <c r="B883" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="51"/>
+      <c r="B884" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" s="51"/>
+      <c r="B885" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" s="51"/>
+      <c r="B886" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" s="51"/>
+      <c r="B887" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" s="51"/>
+      <c r="B888" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" s="51"/>
+      <c r="B889" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" s="51"/>
+      <c r="B890" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" s="51"/>
+      <c r="B891" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" s="51"/>
+      <c r="B892" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" s="51"/>
+      <c r="B893" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="51"/>
+      <c r="B894" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="51"/>
+      <c r="B895" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" s="51"/>
+      <c r="B896" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" s="51"/>
+      <c r="B897" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" s="51"/>
+      <c r="B898" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" s="51"/>
+      <c r="B899" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" s="51"/>
+      <c r="B900" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" s="51"/>
+      <c r="B901" s="11"/>
+    </row>
+    <row r="902" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="52"/>
+      <c r="B902" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
+    <mergeCell ref="A858:A902"/>
+    <mergeCell ref="A832:A856"/>
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A821:A830"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -38143,49 +40411,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A832:A856"/>
-    <mergeCell ref="A792:A819"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B0975-0848-49D3-94D1-B1C9042BA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9CA10-EAC7-4774-8DC3-1A2D85615472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="694">
   <si>
     <t>Descrição</t>
   </si>
@@ -33989,13 +33989,1230 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>ex060</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um número qualquer e mostre o seu fatorial.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número para calcular seu Fatorial: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Calculando o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>! = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">f </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(c), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' x '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    f </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(f))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> math </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> factorial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fatorial </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>factorial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'O fatorial de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> é </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num, fatorial))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Digite um número para calcular seu Fatorial: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> num           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5A4B81"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#c é o contador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Calculando </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>! = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(num), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Exemplo utilizando factorial da biblioteca math:</t>
+  </si>
+  <si>
+    <t>Exemplo calculado matemáticamente utilizando o laço de repetição while:</t>
+  </si>
+  <si>
+    <t>Exemplo calculado matemáticamente utilizando o laço de repetição for:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34092,6 +35309,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFE89E64"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -34449,7 +35674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -34598,6 +35823,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35226,10 +36457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G902"/>
+  <dimension ref="A1:G938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A861" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A858" sqref="A858:A902"/>
+    <sheetView tabSelected="1" topLeftCell="A901" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A904" sqref="A904:A938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40349,8 +41580,248 @@
       <c r="A902" s="52"/>
       <c r="B902" s="42"/>
     </row>
+    <row r="903" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="904" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="B904" s="31" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" s="51"/>
+      <c r="B905" s="40"/>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" s="51"/>
+      <c r="B906" s="54" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" s="51"/>
+      <c r="B907" s="7"/>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" s="51"/>
+      <c r="B908" s="34" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" s="51"/>
+      <c r="B909" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" s="51"/>
+      <c r="B910" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" s="51"/>
+      <c r="B911" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="51"/>
+      <c r="B912" s="11"/>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" s="51"/>
+      <c r="B913" s="53"/>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="51"/>
+      <c r="B914" s="54" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="51"/>
+      <c r="B915" s="43"/>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="51"/>
+      <c r="B916" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="51"/>
+      <c r="B917" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" s="51"/>
+      <c r="B918" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" s="51"/>
+      <c r="B919" s="11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" s="51"/>
+      <c r="B920" s="34" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" s="51"/>
+      <c r="B921" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" s="51"/>
+      <c r="B922" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" s="51"/>
+      <c r="B923" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="51"/>
+      <c r="B924" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="51"/>
+      <c r="B925" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A926" s="51"/>
+      <c r="B926" s="11"/>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" s="51"/>
+      <c r="B927" s="53"/>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" s="51"/>
+      <c r="B928" s="54" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" s="51"/>
+      <c r="B929" s="43"/>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" s="51"/>
+      <c r="B930" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" s="51"/>
+      <c r="B931" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" s="51"/>
+      <c r="B932" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" s="51"/>
+      <c r="B933" s="34" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" s="51"/>
+      <c r="B934" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" s="51"/>
+      <c r="B935" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" s="51"/>
+      <c r="B936" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" s="51"/>
+      <c r="B937" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A938" s="52"/>
+      <c r="B938" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
+    <mergeCell ref="A904:A938"/>
+    <mergeCell ref="A821:A830"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A408:A429"/>
+    <mergeCell ref="A431:A452"/>
+    <mergeCell ref="A380:A392"/>
+    <mergeCell ref="A394:A406"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
     <mergeCell ref="A858:A902"/>
     <mergeCell ref="A832:A856"/>
     <mergeCell ref="A792:A819"/>
@@ -40367,50 +41838,6 @@
     <mergeCell ref="A667:A672"/>
     <mergeCell ref="A646:A650"/>
     <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A821:A830"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A408:A429"/>
-    <mergeCell ref="A431:A452"/>
-    <mergeCell ref="A380:A392"/>
-    <mergeCell ref="A394:A406"/>
-    <mergeCell ref="A320:A328"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A118:A124"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9CA10-EAC7-4774-8DC3-1A2D85615472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BC589-5A82-4E8C-ABE9-94AA348F4EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="708">
   <si>
     <t>Descrição</t>
   </si>
@@ -35206,6 +35206,604 @@
   </si>
   <si>
     <t>Exemplo calculado matemáticamente utilizando o laço de repetição for:</t>
+  </si>
+  <si>
+    <t>ex061</t>
+  </si>
+  <si>
+    <t>Refaça o DESAFIO 51, lendo o primeiro termo e a razão de uma PA, mostrando os 10 primeiros termos da progressão usando a estrutura while.</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Gerador de PA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">primeiro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Primeiro termo: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">razão </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Razão: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">termo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> primeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> → '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(termo), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    termo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> razão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'FIM!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilizando o while não precisa da fórmula matemática.</t>
   </si>
 </sst>
 </file>
@@ -35815,6 +36413,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -35823,12 +36427,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36457,10 +37055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G938"/>
+  <dimension ref="A1:G957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A901" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A904" sqref="A904:A938"/>
+    <sheetView tabSelected="1" topLeftCell="A915" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C950" sqref="C950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36479,7 +37077,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -36487,23 +37085,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36511,7 +37109,7 @@
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -36519,35 +37117,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36555,7 +37153,7 @@
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -36563,65 +37161,65 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36629,7 +37227,7 @@
       <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="52" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -36637,35 +37235,35 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36673,7 +37271,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="52" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -36681,53 +37279,53 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36735,7 +37333,7 @@
       <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="52" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -36743,35 +37341,35 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="33"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36779,7 +37377,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="52" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -36787,35 +37385,35 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36823,7 +37421,7 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="52" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -36831,83 +37429,83 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -36919,7 +37517,7 @@
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="52" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -36927,29 +37525,29 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="52"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36957,7 +37555,7 @@
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="50" t="s">
+      <c r="A88" s="52" t="s">
         <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -36965,41 +37563,41 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="52"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="33"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37007,7 +37605,7 @@
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="52" t="s">
         <v>152</v>
       </c>
       <c r="B97" s="31" t="s">
@@ -37015,29 +37613,29 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="52"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37045,7 +37643,7 @@
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="52" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="31" t="s">
@@ -37053,29 +37651,29 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="33"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37083,7 +37681,7 @@
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="52" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="31" t="s">
@@ -37091,29 +37689,29 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37121,7 +37719,7 @@
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="50" t="s">
+      <c r="A118" s="52" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="31" t="s">
@@ -37129,35 +37727,35 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="51"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="51"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="52"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="33"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37165,7 +37763,7 @@
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="52" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -37173,33 +37771,33 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="51"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="51"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="33"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37207,7 +37805,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="50" t="s">
+      <c r="A134" s="52" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -37215,57 +37813,57 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
+      <c r="A135" s="53"/>
       <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
+      <c r="A136" s="53"/>
       <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
+      <c r="A137" s="53"/>
       <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
+      <c r="A138" s="53"/>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
+      <c r="A139" s="53"/>
       <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
+      <c r="A143" s="53"/>
       <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="52"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="33"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37273,7 +37871,7 @@
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="50" t="s">
+      <c r="A146" s="52" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="31" t="s">
@@ -37281,59 +37879,59 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
+      <c r="A147" s="53"/>
       <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
+      <c r="A153" s="53"/>
       <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
+      <c r="A154" s="53"/>
       <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
+      <c r="A155" s="53"/>
       <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="52"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="33"/>
       <c r="C156" s="2" t="s">
         <v>116</v>
@@ -37354,7 +37952,7 @@
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="50" t="s">
+      <c r="A159" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="31" t="s">
@@ -37362,75 +37960,75 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
+      <c r="A161" s="53"/>
       <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
+      <c r="A164" s="53"/>
       <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
+      <c r="A165" s="53"/>
       <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
+      <c r="A166" s="53"/>
       <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
+      <c r="A167" s="53"/>
       <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
+      <c r="A168" s="53"/>
       <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="51"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="51"/>
+      <c r="A170" s="53"/>
       <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
+      <c r="A171" s="53"/>
       <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="52"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
@@ -37446,7 +38044,7 @@
       <c r="B173" s="20"/>
     </row>
     <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="50" t="s">
+      <c r="A174" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -37454,69 +38052,69 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
+      <c r="A175" s="53"/>
       <c r="B175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="51"/>
+      <c r="A176" s="53"/>
       <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="51"/>
+      <c r="A177" s="53"/>
       <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="51"/>
+      <c r="A178" s="53"/>
       <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="51"/>
+      <c r="A179" s="53"/>
       <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
+      <c r="A180" s="53"/>
       <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
+      <c r="A181" s="53"/>
       <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
+      <c r="A182" s="53"/>
       <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+      <c r="A184" s="53"/>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
@@ -37528,7 +38126,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="52"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
@@ -37544,7 +38142,7 @@
       <c r="B188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="50" t="s">
+      <c r="A189" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B189" s="29" t="s">
@@ -37552,41 +38150,41 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
+      <c r="A190" s="53"/>
       <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
+      <c r="A191" s="53"/>
       <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
+      <c r="A192" s="53"/>
       <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="51"/>
+      <c r="A193" s="53"/>
       <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="51"/>
+      <c r="A194" s="53"/>
       <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="51"/>
+      <c r="A195" s="53"/>
       <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="52"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="18"/>
       <c r="C196" s="2" t="s">
         <v>104</v>
@@ -37600,7 +38198,7 @@
       <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="50" t="s">
+      <c r="A198" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="29" t="s">
@@ -37608,23 +38206,23 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="51"/>
+      <c r="A199" s="53"/>
       <c r="B199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="51"/>
+      <c r="A200" s="53"/>
       <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="51"/>
+      <c r="A201" s="53"/>
       <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="51"/>
+      <c r="A202" s="53"/>
       <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
@@ -37633,7 +38231,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="51"/>
+      <c r="A203" s="53"/>
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -37642,7 +38240,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="51"/>
+      <c r="A204" s="53"/>
       <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
@@ -37654,7 +38252,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="51"/>
+      <c r="A205" s="53"/>
       <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
@@ -37663,7 +38261,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="51"/>
+      <c r="A206" s="53"/>
       <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
@@ -37672,53 +38270,53 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="51"/>
+      <c r="A207" s="53"/>
       <c r="B207" s="22"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="51"/>
+      <c r="A208" s="53"/>
       <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="51"/>
+      <c r="A209" s="53"/>
       <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="51"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="51"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="51"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="51"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="51"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="52"/>
+      <c r="A215" s="54"/>
       <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37726,7 +38324,7 @@
       <c r="B216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="50" t="s">
+      <c r="A217" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="29" t="s">
@@ -37734,11 +38332,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="51"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="51"/>
+      <c r="A219" s="53"/>
       <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
@@ -37747,13 +38345,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="51"/>
+      <c r="A220" s="53"/>
       <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="51"/>
+      <c r="A221" s="53"/>
       <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
@@ -37762,43 +38360,43 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="51"/>
+      <c r="A222" s="53"/>
       <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="51"/>
+      <c r="A223" s="53"/>
       <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="51"/>
+      <c r="A224" s="53"/>
       <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="51"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="51"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="51"/>
+      <c r="A227" s="53"/>
       <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="52"/>
+      <c r="A228" s="54"/>
       <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
@@ -37808,7 +38406,7 @@
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="50" t="s">
+      <c r="A230" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B230" s="29" t="s">
@@ -37816,11 +38414,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="51"/>
+      <c r="A231" s="53"/>
       <c r="B231" s="7"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="51"/>
+      <c r="A232" s="53"/>
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
@@ -37829,7 +38427,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="51"/>
+      <c r="A233" s="53"/>
       <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
@@ -37838,18 +38436,18 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="51"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="7"/>
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="51"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="51"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
@@ -37858,7 +38456,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="52"/>
+      <c r="A237" s="54"/>
       <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
@@ -37871,7 +38469,7 @@
       <c r="B238" s="14"/>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="50" t="s">
+      <c r="A239" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -37879,11 +38477,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="51"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
@@ -37892,7 +38490,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="51"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
@@ -37901,21 +38499,21 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="51"/>
+      <c r="A244" s="53"/>
       <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="51"/>
+      <c r="A245" s="53"/>
       <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="52"/>
+      <c r="A246" s="54"/>
       <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
@@ -37928,7 +38526,7 @@
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="50" t="s">
+      <c r="A248" s="52" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="31" t="s">
@@ -37936,45 +38534,45 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="51"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="51"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="51"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="51"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="51"/>
+      <c r="A253" s="53"/>
       <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="51"/>
+      <c r="A254" s="53"/>
       <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="51"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="51"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
@@ -37986,32 +38584,32 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="51"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="51"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="51"/>
+      <c r="A259" s="53"/>
       <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="52"/>
+      <c r="A260" s="54"/>
       <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="50" t="s">
+      <c r="A262" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B262" s="31" t="s">
@@ -38019,74 +38617,74 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="51"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="51"/>
+      <c r="A264" s="53"/>
       <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="51"/>
+      <c r="A265" s="53"/>
       <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="51"/>
+      <c r="A266" s="53"/>
       <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="51"/>
+      <c r="A267" s="53"/>
       <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="51"/>
+      <c r="A268" s="53"/>
       <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="51"/>
+      <c r="A269" s="53"/>
       <c r="B269" s="7"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="51"/>
+      <c r="A270" s="53"/>
       <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="51"/>
+      <c r="A271" s="53"/>
       <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="51"/>
+      <c r="A272" s="53"/>
       <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="51"/>
+      <c r="A273" s="53"/>
       <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="52"/>
+      <c r="A274" s="54"/>
       <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="50" t="s">
+      <c r="A276" s="52" t="s">
         <v>231</v>
       </c>
       <c r="B276" s="31" t="s">
@@ -38094,99 +38692,99 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="51"/>
+      <c r="A277" s="53"/>
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="51"/>
+      <c r="A278" s="53"/>
       <c r="B278" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="51"/>
+      <c r="A279" s="53"/>
       <c r="B279" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="51"/>
+      <c r="A280" s="53"/>
       <c r="B280" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="51"/>
+      <c r="A281" s="53"/>
       <c r="B281" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="51"/>
+      <c r="A282" s="53"/>
       <c r="B282" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="51"/>
+      <c r="A283" s="53"/>
       <c r="B283" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="51"/>
+      <c r="A284" s="53"/>
       <c r="B284" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="51"/>
+      <c r="A285" s="53"/>
       <c r="B285" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="51"/>
+      <c r="A286" s="53"/>
       <c r="B286" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="51"/>
+      <c r="A287" s="53"/>
       <c r="B287" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="51"/>
+      <c r="A288" s="53"/>
       <c r="B288" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="51"/>
+      <c r="A289" s="53"/>
       <c r="B289" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="51"/>
+      <c r="A290" s="53"/>
       <c r="B290" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="51"/>
+      <c r="A291" s="53"/>
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="51"/>
+      <c r="A292" s="53"/>
       <c r="B292" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="51"/>
+      <c r="A293" s="53"/>
       <c r="B293" s="36" t="s">
         <v>245</v>
       </c>
@@ -38201,13 +38799,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="51"/>
+      <c r="A294" s="53"/>
       <c r="B294" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="52"/>
+      <c r="A295" s="54"/>
       <c r="B295" s="33"/>
       <c r="C295" s="2" t="s">
         <v>249</v>
@@ -38221,7 +38819,7 @@
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="50" t="s">
+      <c r="A297" s="52" t="s">
         <v>252</v>
       </c>
       <c r="B297" s="31" t="s">
@@ -38229,74 +38827,74 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="51"/>
+      <c r="A298" s="53"/>
       <c r="B298" s="40"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="51"/>
+      <c r="A299" s="53"/>
       <c r="B299" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="51"/>
+      <c r="A300" s="53"/>
       <c r="B300" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="51"/>
+      <c r="A301" s="53"/>
       <c r="B301" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="51"/>
+      <c r="A302" s="53"/>
       <c r="B302" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="51"/>
+      <c r="A303" s="53"/>
       <c r="B303" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="51"/>
+      <c r="A304" s="53"/>
       <c r="B304" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="51"/>
+      <c r="A305" s="53"/>
       <c r="B305" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="51"/>
+      <c r="A306" s="53"/>
       <c r="B306" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="51"/>
+      <c r="A307" s="53"/>
       <c r="B307" s="23"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="51"/>
+      <c r="A308" s="53"/>
       <c r="B308" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="52"/>
+      <c r="A309" s="54"/>
       <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="50" t="s">
+      <c r="A311" s="52" t="s">
         <v>262</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -38304,46 +38902,46 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="51"/>
+      <c r="A312" s="53"/>
       <c r="B312" s="7"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="51"/>
+      <c r="A313" s="53"/>
       <c r="B313" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="51"/>
+      <c r="A314" s="53"/>
       <c r="B314" s="34" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="51"/>
+      <c r="A315" s="53"/>
       <c r="B315" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="51"/>
+      <c r="A316" s="53"/>
       <c r="B316" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="51"/>
+      <c r="A317" s="53"/>
       <c r="B317" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="52"/>
+      <c r="A318" s="54"/>
       <c r="B318" s="16"/>
     </row>
     <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="320" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="50" t="s">
+      <c r="A320" s="52" t="s">
         <v>268</v>
       </c>
       <c r="B320" s="31" t="s">
@@ -38351,39 +38949,39 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="51"/>
+      <c r="A321" s="53"/>
       <c r="B321" s="7"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="51"/>
+      <c r="A322" s="53"/>
       <c r="B322" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="51"/>
+      <c r="A323" s="53"/>
       <c r="B323" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="51"/>
+      <c r="A324" s="53"/>
       <c r="B324" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="51"/>
+      <c r="A325" s="53"/>
       <c r="B325" s="34"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="51"/>
+      <c r="A326" s="53"/>
       <c r="B326" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="51"/>
+      <c r="A327" s="53"/>
       <c r="B327" s="36" t="s">
         <v>273</v>
       </c>
@@ -38398,12 +38996,12 @@
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="52"/>
+      <c r="A328" s="54"/>
       <c r="B328" s="42"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="50" t="s">
+      <c r="A330" s="52" t="s">
         <v>277</v>
       </c>
       <c r="B330" s="31" t="s">
@@ -38411,63 +39009,63 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="51"/>
+      <c r="A331" s="53"/>
       <c r="B331" s="40"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="51"/>
+      <c r="A332" s="53"/>
       <c r="B332" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="51"/>
+      <c r="A333" s="53"/>
       <c r="B333" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="51"/>
+      <c r="A334" s="53"/>
       <c r="B334" s="34" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="51"/>
+      <c r="A335" s="53"/>
       <c r="B335" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="51"/>
+      <c r="A336" s="53"/>
       <c r="B336" s="34" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="51"/>
+      <c r="A337" s="53"/>
       <c r="B337" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="51"/>
+      <c r="A338" s="53"/>
       <c r="B338" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="51"/>
+      <c r="A339" s="53"/>
       <c r="B339" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="51"/>
+      <c r="A340" s="53"/>
       <c r="B340" s="7"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="51"/>
+      <c r="A341" s="53"/>
       <c r="B341" s="36" t="s">
         <v>286</v>
       </c>
@@ -38479,12 +39077,12 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="52"/>
+      <c r="A342" s="54"/>
       <c r="B342" s="42"/>
     </row>
     <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="50" t="s">
+      <c r="A344" s="52" t="s">
         <v>289</v>
       </c>
       <c r="B344" s="31" t="s">
@@ -38492,51 +39090,51 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="51"/>
+      <c r="A345" s="53"/>
       <c r="B345" s="40"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="51"/>
+      <c r="A346" s="53"/>
       <c r="B346" s="34" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="51"/>
+      <c r="A347" s="53"/>
       <c r="B347" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="51"/>
+      <c r="A348" s="53"/>
       <c r="B348" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="51"/>
+      <c r="A349" s="53"/>
       <c r="B349" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="51"/>
+      <c r="A350" s="53"/>
       <c r="B350" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="51"/>
+      <c r="A351" s="53"/>
       <c r="B351" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="51"/>
+      <c r="A352" s="53"/>
       <c r="B352" s="34"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="51"/>
+      <c r="A353" s="53"/>
       <c r="B353" s="7" t="s">
         <v>297</v>
       </c>
@@ -38557,12 +39155,12 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="52"/>
+      <c r="A354" s="54"/>
       <c r="B354" s="42"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="356" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="50" t="s">
+      <c r="A356" s="52" t="s">
         <v>309</v>
       </c>
       <c r="B356" s="31" t="s">
@@ -38570,52 +39168,52 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="51"/>
+      <c r="A357" s="53"/>
       <c r="B357" s="40"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="51"/>
+      <c r="A358" s="53"/>
       <c r="B358" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="51"/>
+      <c r="A359" s="53"/>
       <c r="B359" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="51"/>
+      <c r="A360" s="53"/>
       <c r="B360" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="51"/>
+      <c r="A361" s="53"/>
       <c r="B361" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="51"/>
+      <c r="A362" s="53"/>
       <c r="B362" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="51"/>
+      <c r="A363" s="53"/>
       <c r="B363" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="52"/>
+      <c r="A364" s="54"/>
       <c r="B364" s="42"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="50" t="s">
+      <c r="A366" s="52" t="s">
         <v>321</v>
       </c>
       <c r="B366" s="31" t="s">
@@ -38623,126 +39221,126 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="51"/>
+      <c r="A367" s="53"/>
       <c r="B367" s="40"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="51"/>
+      <c r="A368" s="53"/>
       <c r="B368" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="51"/>
+      <c r="A369" s="53"/>
       <c r="B369" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="51"/>
+      <c r="A370" s="53"/>
       <c r="B370" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="51"/>
+      <c r="A371" s="53"/>
       <c r="B371" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="51"/>
+      <c r="A372" s="53"/>
       <c r="B372" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="51"/>
+      <c r="A373" s="53"/>
       <c r="B373" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="51"/>
+      <c r="A374" s="53"/>
       <c r="B374" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="51"/>
+      <c r="A375" s="53"/>
       <c r="B375" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="51"/>
+      <c r="A376" s="53"/>
       <c r="B376" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="51"/>
+      <c r="A377" s="53"/>
       <c r="B377" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="52"/>
+      <c r="A378" s="54"/>
       <c r="B378" s="42"/>
     </row>
     <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="50" t="s">
+      <c r="A380" s="52" t="s">
         <v>319</v>
       </c>
       <c r="B380" s="31"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="51"/>
+      <c r="A381" s="53"/>
       <c r="B381" s="40"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="51"/>
+      <c r="A382" s="53"/>
       <c r="B382" s="11"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="51"/>
+      <c r="A383" s="53"/>
       <c r="B383" s="11"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="51"/>
+      <c r="A384" s="53"/>
       <c r="B384" s="11"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="51"/>
+      <c r="A385" s="53"/>
       <c r="B385" s="7"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="51"/>
+      <c r="A386" s="53"/>
       <c r="B386" s="7"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="51"/>
+      <c r="A387" s="53"/>
       <c r="B387" s="7"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="51"/>
+      <c r="A388" s="53"/>
       <c r="B388" s="34"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="51"/>
+      <c r="A389" s="53"/>
       <c r="B389" s="7"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="51"/>
+      <c r="A390" s="53"/>
       <c r="B390" s="34"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="51"/>
+      <c r="A391" s="53"/>
       <c r="B391" s="7"/>
     </row>
     <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="52"/>
+      <c r="A392" s="54"/>
       <c r="B392" s="42"/>
       <c r="C392" s="2" t="s">
         <v>320</v>
@@ -38753,62 +39351,62 @@
     </row>
     <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="50" t="s">
+      <c r="A394" s="52" t="s">
         <v>319</v>
       </c>
       <c r="B394" s="31"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="51"/>
+      <c r="A395" s="53"/>
       <c r="B395" s="40"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="51"/>
+      <c r="A396" s="53"/>
       <c r="B396" s="11"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="51"/>
+      <c r="A397" s="53"/>
       <c r="B397" s="11"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="51"/>
+      <c r="A398" s="53"/>
       <c r="B398" s="11"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="51"/>
+      <c r="A399" s="53"/>
       <c r="B399" s="7"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="51"/>
+      <c r="A400" s="53"/>
       <c r="B400" s="7"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="51"/>
+      <c r="A401" s="53"/>
       <c r="B401" s="7"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="51"/>
+      <c r="A402" s="53"/>
       <c r="B402" s="34"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="51"/>
+      <c r="A403" s="53"/>
       <c r="B403" s="7"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="51"/>
+      <c r="A404" s="53"/>
       <c r="B404" s="34"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="51"/>
+      <c r="A405" s="53"/>
       <c r="B405" s="7"/>
     </row>
     <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="52"/>
+      <c r="A406" s="54"/>
       <c r="B406" s="42"/>
     </row>
     <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="408" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="50" t="s">
+      <c r="A408" s="52" t="s">
         <v>322</v>
       </c>
       <c r="B408" s="31" t="s">
@@ -38816,124 +39414,124 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="51"/>
+      <c r="A409" s="53"/>
       <c r="B409" s="40"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="51"/>
+      <c r="A410" s="53"/>
       <c r="B410" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="51"/>
+      <c r="A411" s="53"/>
       <c r="B411" s="43"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="51"/>
+      <c r="A412" s="53"/>
       <c r="B412" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="51"/>
+      <c r="A413" s="53"/>
       <c r="B413" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="51"/>
+      <c r="A414" s="53"/>
       <c r="B414" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="51"/>
+      <c r="A415" s="53"/>
       <c r="B415" s="43"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="51"/>
+      <c r="A416" s="53"/>
       <c r="B416" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="51"/>
+      <c r="A417" s="53"/>
       <c r="B417" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="51"/>
+      <c r="A418" s="53"/>
       <c r="B418" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="51"/>
+      <c r="A419" s="53"/>
       <c r="B419" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="51"/>
+      <c r="A420" s="53"/>
       <c r="B420" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="51"/>
+      <c r="A421" s="53"/>
       <c r="B421" s="43"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="51"/>
+      <c r="A422" s="53"/>
       <c r="B422" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="51"/>
+      <c r="A423" s="53"/>
       <c r="B423" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="51"/>
+      <c r="A424" s="53"/>
       <c r="B424" s="43"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="51"/>
+      <c r="A425" s="53"/>
       <c r="B425" s="34" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="51"/>
+      <c r="A426" s="53"/>
       <c r="B426" s="44" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="51"/>
+      <c r="A427" s="53"/>
       <c r="B427" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="51"/>
+      <c r="A428" s="53"/>
       <c r="B428" s="44" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="52"/>
+      <c r="A429" s="54"/>
       <c r="B429" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="50" t="s">
+      <c r="A431" s="52" t="s">
         <v>334</v>
       </c>
       <c r="B431" s="31" t="s">
@@ -38941,128 +39539,128 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="51"/>
+      <c r="A432" s="53"/>
       <c r="B432" s="40"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="51"/>
+      <c r="A433" s="53"/>
       <c r="B433" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="51"/>
+      <c r="A434" s="53"/>
       <c r="B434" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="51"/>
+      <c r="A435" s="53"/>
       <c r="B435" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="51"/>
+      <c r="A436" s="53"/>
       <c r="B436" s="45" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="51"/>
+      <c r="A437" s="53"/>
       <c r="B437" s="45" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="51"/>
+      <c r="A438" s="53"/>
       <c r="B438" s="45" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="51"/>
+      <c r="A439" s="53"/>
       <c r="B439" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="51"/>
+      <c r="A440" s="53"/>
       <c r="B440" s="34" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="51"/>
+      <c r="A441" s="53"/>
       <c r="B441" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="51"/>
+      <c r="A442" s="53"/>
       <c r="B442" s="34" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="51"/>
+      <c r="A443" s="53"/>
       <c r="B443" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="51"/>
+      <c r="A444" s="53"/>
       <c r="B444" s="34" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="51"/>
+      <c r="A445" s="53"/>
       <c r="B445" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="51"/>
+      <c r="A446" s="53"/>
       <c r="B446" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="51"/>
+      <c r="A447" s="53"/>
       <c r="B447" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="51"/>
+      <c r="A448" s="53"/>
       <c r="B448" s="34"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="51"/>
+      <c r="A449" s="53"/>
       <c r="B449" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="51"/>
+      <c r="A450" s="53"/>
       <c r="B450" s="48" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="51"/>
+      <c r="A451" s="53"/>
       <c r="B451" s="44" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="52"/>
+      <c r="A452" s="54"/>
       <c r="B452" s="42"/>
     </row>
     <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="50" t="s">
+      <c r="A454" s="52" t="s">
         <v>353</v>
       </c>
       <c r="B454" s="31" t="s">
@@ -39070,70 +39668,70 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="51"/>
+      <c r="A455" s="53"/>
       <c r="B455" s="40"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="51"/>
+      <c r="A456" s="53"/>
       <c r="B456" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="51"/>
+      <c r="A457" s="53"/>
       <c r="B457" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="51"/>
+      <c r="A458" s="53"/>
       <c r="B458" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="51"/>
+      <c r="A459" s="53"/>
       <c r="B459" s="34" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="51"/>
+      <c r="A460" s="53"/>
       <c r="B460" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="51"/>
+      <c r="A461" s="53"/>
       <c r="B461" s="34" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="51"/>
+      <c r="A462" s="53"/>
       <c r="B462" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="51"/>
+      <c r="A463" s="53"/>
       <c r="B463" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="51"/>
+      <c r="A464" s="53"/>
       <c r="B464" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="52"/>
+      <c r="A465" s="54"/>
       <c r="B465" s="42"/>
     </row>
     <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="467" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="50" t="s">
+      <c r="A467" s="52" t="s">
         <v>362</v>
       </c>
       <c r="B467" s="31" t="s">
@@ -39141,128 +39739,128 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="51"/>
+      <c r="A468" s="53"/>
       <c r="B468" s="40"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="51"/>
+      <c r="A469" s="53"/>
       <c r="B469" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="51"/>
+      <c r="A470" s="53"/>
       <c r="B470" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="51"/>
+      <c r="A471" s="53"/>
       <c r="B471" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="51"/>
+      <c r="A472" s="53"/>
       <c r="B472" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="51"/>
+      <c r="A473" s="53"/>
       <c r="B473" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="51"/>
+      <c r="A474" s="53"/>
       <c r="B474" s="34" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="51"/>
+      <c r="A475" s="53"/>
       <c r="B475" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="51"/>
+      <c r="A476" s="53"/>
       <c r="B476" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="51"/>
+      <c r="A477" s="53"/>
       <c r="B477" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="51"/>
+      <c r="A478" s="53"/>
       <c r="B478" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="51"/>
+      <c r="A479" s="53"/>
       <c r="B479" s="34" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="51"/>
+      <c r="A480" s="53"/>
       <c r="B480" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="51"/>
+      <c r="A481" s="53"/>
       <c r="B481" s="34" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="51"/>
+      <c r="A482" s="53"/>
       <c r="B482" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="51"/>
+      <c r="A483" s="53"/>
       <c r="B483" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="51"/>
+      <c r="A484" s="53"/>
       <c r="B484" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="51"/>
+      <c r="A485" s="53"/>
       <c r="B485" s="11"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="51"/>
+      <c r="A486" s="53"/>
       <c r="B486" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="51"/>
+      <c r="A487" s="53"/>
       <c r="B487" s="48" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="52"/>
+      <c r="A488" s="54"/>
       <c r="B488" s="42"/>
     </row>
     <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="50" t="s">
+      <c r="A490" s="52" t="s">
         <v>377</v>
       </c>
       <c r="B490" s="31" t="s">
@@ -39270,70 +39868,70 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="51"/>
+      <c r="A491" s="53"/>
       <c r="B491" s="40"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="51"/>
+      <c r="A492" s="53"/>
       <c r="B492" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="51"/>
+      <c r="A493" s="53"/>
       <c r="B493" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="51"/>
+      <c r="A494" s="53"/>
       <c r="B494" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="51"/>
+      <c r="A495" s="53"/>
       <c r="B495" s="34" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="51"/>
+      <c r="A496" s="53"/>
       <c r="B496" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="51"/>
+      <c r="A497" s="53"/>
       <c r="B497" s="34" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="51"/>
+      <c r="A498" s="53"/>
       <c r="B498" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="51"/>
+      <c r="A499" s="53"/>
       <c r="B499" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="51"/>
+      <c r="A500" s="53"/>
       <c r="B500" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="52"/>
+      <c r="A501" s="54"/>
       <c r="B501" s="42"/>
     </row>
     <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="50" t="s">
+      <c r="A503" s="52" t="s">
         <v>387</v>
       </c>
       <c r="B503" s="31" t="s">
@@ -39341,112 +39939,112 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="51"/>
+      <c r="A504" s="53"/>
       <c r="B504" s="40"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="51"/>
+      <c r="A505" s="53"/>
       <c r="B505" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="51"/>
+      <c r="A506" s="53"/>
       <c r="B506" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="51"/>
+      <c r="A507" s="53"/>
       <c r="B507" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="51"/>
+      <c r="A508" s="53"/>
       <c r="B508" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="51"/>
+      <c r="A509" s="53"/>
       <c r="B509" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="51"/>
+      <c r="A510" s="53"/>
       <c r="B510" s="7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="51"/>
+      <c r="A511" s="53"/>
       <c r="B511" s="34" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="51"/>
+      <c r="A512" s="53"/>
       <c r="B512" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="51"/>
+      <c r="A513" s="53"/>
       <c r="B513" s="34" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="51"/>
+      <c r="A514" s="53"/>
       <c r="B514" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="51"/>
+      <c r="A515" s="53"/>
       <c r="B515" s="34" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="51"/>
+      <c r="A516" s="53"/>
       <c r="B516" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="51"/>
+      <c r="A517" s="53"/>
       <c r="B517" s="34" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="51"/>
+      <c r="A518" s="53"/>
       <c r="B518" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="51"/>
+      <c r="A519" s="53"/>
       <c r="B519" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="51"/>
+      <c r="A520" s="53"/>
       <c r="B520" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="52"/>
+      <c r="A521" s="54"/>
       <c r="B521" s="42"/>
     </row>
     <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="50" t="s">
+      <c r="A523" s="52" t="s">
         <v>402</v>
       </c>
       <c r="B523" s="31" t="s">
@@ -39454,128 +40052,128 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="51"/>
+      <c r="A524" s="53"/>
       <c r="B524" s="40"/>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="51"/>
+      <c r="A525" s="53"/>
       <c r="B525" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="51"/>
+      <c r="A526" s="53"/>
       <c r="B526" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="51"/>
+      <c r="A527" s="53"/>
       <c r="B527" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="51"/>
+      <c r="A528" s="53"/>
       <c r="B528" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="51"/>
+      <c r="A529" s="53"/>
       <c r="B529" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="51"/>
+      <c r="A530" s="53"/>
       <c r="B530" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="51"/>
+      <c r="A531" s="53"/>
       <c r="B531" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="51"/>
+      <c r="A532" s="53"/>
       <c r="B532" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="51"/>
+      <c r="A533" s="53"/>
       <c r="B533" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="51"/>
+      <c r="A534" s="53"/>
       <c r="B534" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="51"/>
+      <c r="A535" s="53"/>
       <c r="B535" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="51"/>
+      <c r="A536" s="53"/>
       <c r="B536" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="51"/>
+      <c r="A537" s="53"/>
       <c r="B537" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="51"/>
+      <c r="A538" s="53"/>
       <c r="B538" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="51"/>
+      <c r="A539" s="53"/>
       <c r="B539" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="51"/>
+      <c r="A540" s="53"/>
       <c r="B540" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="51"/>
+      <c r="A541" s="53"/>
       <c r="B541" s="11"/>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="51"/>
+      <c r="A542" s="53"/>
       <c r="B542" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="51"/>
+      <c r="A543" s="53"/>
       <c r="B543" s="48" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="52"/>
+      <c r="A544" s="54"/>
       <c r="B544" s="42"/>
     </row>
     <row r="545" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="546" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="50" t="s">
+      <c r="A546" s="52" t="s">
         <v>428</v>
       </c>
       <c r="B546" s="31" t="s">
@@ -39583,94 +40181,94 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="51"/>
+      <c r="A547" s="53"/>
       <c r="B547" s="40"/>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="51"/>
+      <c r="A548" s="53"/>
       <c r="B548" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="51"/>
+      <c r="A549" s="53"/>
       <c r="B549" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="51"/>
+      <c r="A550" s="53"/>
       <c r="B550" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="51"/>
+      <c r="A551" s="53"/>
       <c r="B551" s="34" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="51"/>
+      <c r="A552" s="53"/>
       <c r="B552" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="51"/>
+      <c r="A553" s="53"/>
       <c r="B553" s="34" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="51"/>
+      <c r="A554" s="53"/>
       <c r="B554" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="51"/>
+      <c r="A555" s="53"/>
       <c r="B555" s="34" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="51"/>
+      <c r="A556" s="53"/>
       <c r="B556" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="51"/>
+      <c r="A557" s="53"/>
       <c r="B557" s="34" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="51"/>
+      <c r="A558" s="53"/>
       <c r="B558" s="7" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="51"/>
+      <c r="A559" s="53"/>
       <c r="B559" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="51"/>
+      <c r="A560" s="53"/>
       <c r="B560" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="52"/>
+      <c r="A561" s="54"/>
       <c r="B561" s="42"/>
     </row>
     <row r="562" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="563" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="50" t="s">
+      <c r="A563" s="52" t="s">
         <v>450</v>
       </c>
       <c r="B563" s="31" t="s">
@@ -39678,130 +40276,130 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="51"/>
+      <c r="A564" s="53"/>
       <c r="B564" s="40"/>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="51"/>
+      <c r="A565" s="53"/>
       <c r="B565" s="11" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="51"/>
+      <c r="A566" s="53"/>
       <c r="B566" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A567" s="51"/>
+      <c r="A567" s="53"/>
       <c r="B567" s="44" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="51"/>
+      <c r="A568" s="53"/>
       <c r="B568" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="51"/>
+      <c r="A569" s="53"/>
       <c r="B569" s="34" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="51"/>
+      <c r="A570" s="53"/>
       <c r="B570" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="51"/>
+      <c r="A571" s="53"/>
       <c r="B571" s="34" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="51"/>
+      <c r="A572" s="53"/>
       <c r="B572" s="7" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="51"/>
+      <c r="A573" s="53"/>
       <c r="B573" s="34" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="51"/>
+      <c r="A574" s="53"/>
       <c r="B574" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="51"/>
+      <c r="A575" s="53"/>
       <c r="B575" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="51"/>
+      <c r="A576" s="53"/>
       <c r="B576" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="51"/>
+      <c r="A577" s="53"/>
       <c r="B577" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="51"/>
+      <c r="A578" s="53"/>
       <c r="B578" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="51"/>
+      <c r="A579" s="53"/>
       <c r="B579" s="34" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="51"/>
+      <c r="A580" s="53"/>
       <c r="B580" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="51"/>
+      <c r="A581" s="53"/>
       <c r="B581" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="51"/>
+      <c r="A582" s="53"/>
       <c r="B582" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="51"/>
+      <c r="A583" s="53"/>
       <c r="B583" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="52"/>
+      <c r="A584" s="54"/>
       <c r="B584" s="42"/>
     </row>
     <row r="585" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="586" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="50" t="s">
+      <c r="A586" s="52" t="s">
         <v>449</v>
       </c>
       <c r="B586" s="31" t="s">
@@ -39809,298 +40407,298 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="51"/>
+      <c r="A587" s="53"/>
       <c r="B587" s="40"/>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="51"/>
+      <c r="A588" s="53"/>
       <c r="B588" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="51"/>
+      <c r="A589" s="53"/>
       <c r="B589" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="51"/>
+      <c r="A590" s="53"/>
       <c r="B590" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="51"/>
+      <c r="A591" s="53"/>
       <c r="B591" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="51"/>
+      <c r="A592" s="53"/>
       <c r="B592" s="11" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="51"/>
+      <c r="A593" s="53"/>
       <c r="B593" s="45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="51"/>
+      <c r="A594" s="53"/>
       <c r="B594" s="45" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="51"/>
+      <c r="A595" s="53"/>
       <c r="B595" s="45" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="51"/>
+      <c r="A596" s="53"/>
       <c r="B596" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="51"/>
+      <c r="A597" s="53"/>
       <c r="B597" s="11" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="51"/>
+      <c r="A598" s="53"/>
       <c r="B598" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="51"/>
+      <c r="A599" s="53"/>
       <c r="B599" s="11" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="51"/>
+      <c r="A600" s="53"/>
       <c r="B600" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="51"/>
+      <c r="A601" s="53"/>
       <c r="B601" s="11" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="51"/>
+      <c r="A602" s="53"/>
       <c r="B602" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="51"/>
+      <c r="A603" s="53"/>
       <c r="B603" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="51"/>
+      <c r="A604" s="53"/>
       <c r="B604" s="11" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="51"/>
+      <c r="A605" s="53"/>
       <c r="B605" s="11" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="51"/>
+      <c r="A606" s="53"/>
       <c r="B606" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="51"/>
+      <c r="A607" s="53"/>
       <c r="B607" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="51"/>
+      <c r="A608" s="53"/>
       <c r="B608" s="34" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="51"/>
+      <c r="A609" s="53"/>
       <c r="B609" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="51"/>
+      <c r="A610" s="53"/>
       <c r="B610" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="51"/>
+      <c r="A611" s="53"/>
       <c r="B611" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="51"/>
+      <c r="A612" s="53"/>
       <c r="B612" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="51"/>
+      <c r="A613" s="53"/>
       <c r="B613" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="51"/>
+      <c r="A614" s="53"/>
       <c r="B614" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="51"/>
+      <c r="A615" s="53"/>
       <c r="B615" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="51"/>
+      <c r="A616" s="53"/>
       <c r="B616" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="51"/>
+      <c r="A617" s="53"/>
       <c r="B617" s="34" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="51"/>
+      <c r="A618" s="53"/>
       <c r="B618" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="51"/>
+      <c r="A619" s="53"/>
       <c r="B619" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="51"/>
+      <c r="A620" s="53"/>
       <c r="B620" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="51"/>
+      <c r="A621" s="53"/>
       <c r="B621" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="51"/>
+      <c r="A622" s="53"/>
       <c r="B622" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="51"/>
+      <c r="A623" s="53"/>
       <c r="B623" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="51"/>
+      <c r="A624" s="53"/>
       <c r="B624" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="51"/>
+      <c r="A625" s="53"/>
       <c r="B625" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="51"/>
+      <c r="A626" s="53"/>
       <c r="B626" s="34" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="51"/>
+      <c r="A627" s="53"/>
       <c r="B627" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="51"/>
+      <c r="A628" s="53"/>
       <c r="B628" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="51"/>
+      <c r="A629" s="53"/>
       <c r="B629" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="51"/>
+      <c r="A630" s="53"/>
       <c r="B630" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="51"/>
+      <c r="A631" s="53"/>
       <c r="B631" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="51"/>
+      <c r="A632" s="53"/>
       <c r="B632" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="51"/>
+      <c r="A633" s="53"/>
       <c r="B633" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="51"/>
+      <c r="A634" s="53"/>
       <c r="B634" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="52"/>
+      <c r="A635" s="54"/>
       <c r="B635" s="42"/>
     </row>
     <row r="636" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="637" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="50" t="s">
+      <c r="A637" s="52" t="s">
         <v>481</v>
       </c>
       <c r="B637" s="31" t="s">
@@ -40108,46 +40706,46 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="51"/>
+      <c r="A638" s="53"/>
       <c r="B638" s="40"/>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="51"/>
+      <c r="A639" s="53"/>
       <c r="B639" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="51"/>
+      <c r="A640" s="53"/>
       <c r="B640" s="34" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="51"/>
+      <c r="A641" s="53"/>
       <c r="B641" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="51"/>
+      <c r="A642" s="53"/>
       <c r="B642" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="51"/>
+      <c r="A643" s="53"/>
       <c r="B643" s="11" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="52"/>
+      <c r="A644" s="54"/>
       <c r="B644" s="42"/>
     </row>
     <row r="645" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="50" t="s">
+      <c r="A646" s="52" t="s">
         <v>487</v>
       </c>
       <c r="B646" s="31" t="s">
@@ -40155,28 +40753,28 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="51"/>
+      <c r="A647" s="53"/>
       <c r="B647" s="40"/>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="51"/>
+      <c r="A648" s="53"/>
       <c r="B648" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="51"/>
+      <c r="A649" s="53"/>
       <c r="B649" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="52"/>
+      <c r="A650" s="54"/>
       <c r="B650" s="42"/>
     </row>
     <row r="651" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="652" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="50" t="s">
+      <c r="A652" s="52" t="s">
         <v>491</v>
       </c>
       <c r="B652" s="31" t="s">
@@ -40184,80 +40782,80 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="51"/>
+      <c r="A653" s="53"/>
       <c r="B653" s="40"/>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="51"/>
+      <c r="A654" s="53"/>
       <c r="B654" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="51"/>
+      <c r="A655" s="53"/>
       <c r="B655" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="51"/>
+      <c r="A656" s="53"/>
       <c r="B656" s="34" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="51"/>
+      <c r="A657" s="53"/>
       <c r="B657" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="51"/>
+      <c r="A658" s="53"/>
       <c r="B658" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="51"/>
+      <c r="A659" s="53"/>
       <c r="B659" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="51"/>
+      <c r="A660" s="53"/>
       <c r="B660" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="51"/>
+      <c r="A661" s="53"/>
       <c r="B661" s="11"/>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="51"/>
+      <c r="A662" s="53"/>
       <c r="B662" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="51"/>
+      <c r="A663" s="53"/>
       <c r="B663" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="51"/>
+      <c r="A664" s="53"/>
       <c r="B664" s="36" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A665" s="52"/>
+      <c r="A665" s="54"/>
       <c r="B665" s="42"/>
     </row>
     <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="50" t="s">
+      <c r="A667" s="52" t="s">
         <v>505</v>
       </c>
       <c r="B667" s="31" t="s">
@@ -40265,34 +40863,34 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="51"/>
+      <c r="A668" s="53"/>
       <c r="B668" s="40"/>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="51"/>
+      <c r="A669" s="53"/>
       <c r="B669" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="51"/>
+      <c r="A670" s="53"/>
       <c r="B670" s="34" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="51"/>
+      <c r="A671" s="53"/>
       <c r="B671" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="52"/>
+      <c r="A672" s="54"/>
       <c r="B672" s="42"/>
     </row>
     <row r="673" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="674" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="50" t="s">
+      <c r="A674" s="52" t="s">
         <v>506</v>
       </c>
       <c r="B674" s="31" t="s">
@@ -40300,64 +40898,64 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="51"/>
+      <c r="A675" s="53"/>
       <c r="B675" s="40"/>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="51"/>
+      <c r="A676" s="53"/>
       <c r="B676" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="51"/>
+      <c r="A677" s="53"/>
       <c r="B677" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="51"/>
+      <c r="A678" s="53"/>
       <c r="B678" s="34" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="51"/>
+      <c r="A679" s="53"/>
       <c r="B679" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="51"/>
+      <c r="A680" s="53"/>
       <c r="B680" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="51"/>
+      <c r="A681" s="53"/>
       <c r="B681" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="51"/>
+      <c r="A682" s="53"/>
       <c r="B682" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="51"/>
+      <c r="A683" s="53"/>
       <c r="B683" s="11" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="52"/>
+      <c r="A684" s="54"/>
       <c r="B684" s="42"/>
     </row>
     <row r="685" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="686" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A686" s="50" t="s">
+      <c r="A686" s="52" t="s">
         <v>513</v>
       </c>
       <c r="B686" s="31" t="s">
@@ -40365,86 +40963,86 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="51"/>
+      <c r="A687" s="53"/>
       <c r="B687" s="40"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="51"/>
+      <c r="A688" s="53"/>
       <c r="B688" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="51"/>
+      <c r="A689" s="53"/>
       <c r="B689" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="51"/>
+      <c r="A690" s="53"/>
       <c r="B690" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="51"/>
+      <c r="A691" s="53"/>
       <c r="B691" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="51"/>
+      <c r="A692" s="53"/>
       <c r="B692" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="51"/>
+      <c r="A693" s="53"/>
       <c r="B693" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="51"/>
+      <c r="A694" s="53"/>
       <c r="B694" s="34" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="51"/>
+      <c r="A695" s="53"/>
       <c r="B695" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="51"/>
+      <c r="A696" s="53"/>
       <c r="B696" s="11" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="51"/>
+      <c r="A697" s="53"/>
       <c r="B697" s="7"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="51"/>
+      <c r="A698" s="53"/>
       <c r="B698" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="51"/>
+      <c r="A699" s="53"/>
       <c r="B699" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="52"/>
+      <c r="A700" s="54"/>
       <c r="B700" s="42"/>
     </row>
     <row r="701" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="702" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A702" s="50" t="s">
+      <c r="A702" s="52" t="s">
         <v>524</v>
       </c>
       <c r="B702" s="31" t="s">
@@ -40452,100 +41050,100 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="51"/>
+      <c r="A703" s="53"/>
       <c r="B703" s="40"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="51"/>
+      <c r="A704" s="53"/>
       <c r="B704" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="51"/>
+      <c r="A705" s="53"/>
       <c r="B705" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="51"/>
+      <c r="A706" s="53"/>
       <c r="B706" s="34" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="51"/>
+      <c r="A707" s="53"/>
       <c r="B707" s="7" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="51"/>
+      <c r="A708" s="53"/>
       <c r="B708" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="51"/>
+      <c r="A709" s="53"/>
       <c r="B709" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="51"/>
+      <c r="A710" s="53"/>
       <c r="B710" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="51"/>
+      <c r="A711" s="53"/>
       <c r="B711" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="51"/>
+      <c r="A712" s="53"/>
       <c r="B712" s="7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="51"/>
+      <c r="A713" s="53"/>
       <c r="B713" s="11" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="51"/>
+      <c r="A714" s="53"/>
       <c r="B714" s="34" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="51"/>
+      <c r="A715" s="53"/>
       <c r="B715" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="51"/>
+      <c r="A716" s="53"/>
       <c r="B716" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="51"/>
+      <c r="A717" s="53"/>
       <c r="B717" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A718" s="52"/>
+      <c r="A718" s="54"/>
       <c r="B718" s="42"/>
     </row>
     <row r="719" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="720" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="50" t="s">
+      <c r="A720" s="52" t="s">
         <v>537</v>
       </c>
       <c r="B720" s="31" t="s">
@@ -40553,204 +41151,204 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="51"/>
+      <c r="A721" s="53"/>
       <c r="B721" s="40"/>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="51"/>
+      <c r="A722" s="53"/>
       <c r="B722" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="51"/>
+      <c r="A723" s="53"/>
       <c r="B723" s="7"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="51"/>
+      <c r="A724" s="53"/>
       <c r="B724" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="51"/>
+      <c r="A725" s="53"/>
       <c r="B725" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="51"/>
+      <c r="A726" s="53"/>
       <c r="B726" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="51"/>
+      <c r="A727" s="53"/>
       <c r="B727" s="7" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="51"/>
+      <c r="A728" s="53"/>
       <c r="B728" s="34" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="51"/>
+      <c r="A729" s="53"/>
       <c r="B729" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="51"/>
+      <c r="A730" s="53"/>
       <c r="B730" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="51"/>
+      <c r="A731" s="53"/>
       <c r="B731" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="51"/>
+      <c r="A732" s="53"/>
       <c r="B732" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="51"/>
+      <c r="A733" s="53"/>
       <c r="B733" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="51"/>
+      <c r="A734" s="53"/>
       <c r="B734" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="51"/>
+      <c r="A735" s="53"/>
       <c r="B735" s="7"/>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="51"/>
+      <c r="A736" s="53"/>
       <c r="B736" s="40"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="51"/>
+      <c r="A737" s="53"/>
       <c r="B737" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="51"/>
+      <c r="A738" s="53"/>
       <c r="B738" s="7"/>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="51"/>
+      <c r="A739" s="53"/>
       <c r="B739" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="51"/>
+      <c r="A740" s="53"/>
       <c r="B740" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="51"/>
+      <c r="A741" s="53"/>
       <c r="B741" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="51"/>
+      <c r="A742" s="53"/>
       <c r="B742" s="7" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="51"/>
+      <c r="A743" s="53"/>
       <c r="B743" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="51"/>
+      <c r="A744" s="53"/>
       <c r="B744" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="51"/>
+      <c r="A745" s="53"/>
       <c r="B745" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="51"/>
+      <c r="A746" s="53"/>
       <c r="B746" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="51"/>
+      <c r="A747" s="53"/>
       <c r="B747" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="51"/>
+      <c r="A748" s="53"/>
       <c r="B748" s="7"/>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="51"/>
+      <c r="A749" s="53"/>
       <c r="B749" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="51"/>
+      <c r="A750" s="53"/>
       <c r="B750" s="36" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="51"/>
+      <c r="A751" s="53"/>
       <c r="B751" s="36" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="51"/>
+      <c r="A752" s="53"/>
       <c r="B752" s="36" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="51"/>
+      <c r="A753" s="53"/>
       <c r="B753" s="36" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="51"/>
+      <c r="A754" s="53"/>
       <c r="B754" s="36" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A755" s="52"/>
+      <c r="A755" s="54"/>
       <c r="B755" s="49"/>
     </row>
     <row r="756" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="757" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A757" s="50" t="s">
+      <c r="A757" s="52" t="s">
         <v>556</v>
       </c>
       <c r="B757" s="31" t="s">
@@ -40758,94 +41356,94 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="51"/>
+      <c r="A758" s="53"/>
       <c r="B758" s="40"/>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="51"/>
+      <c r="A759" s="53"/>
       <c r="B759" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="51"/>
+      <c r="A760" s="53"/>
       <c r="B760" s="7" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="51"/>
+      <c r="A761" s="53"/>
       <c r="B761" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="51"/>
+      <c r="A762" s="53"/>
       <c r="B762" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="51"/>
+      <c r="A763" s="53"/>
       <c r="B763" s="34" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="51"/>
+      <c r="A764" s="53"/>
       <c r="B764" s="7" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="51"/>
+      <c r="A765" s="53"/>
       <c r="B765" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="51"/>
+      <c r="A766" s="53"/>
       <c r="B766" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="51"/>
+      <c r="A767" s="53"/>
       <c r="B767" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="51"/>
+      <c r="A768" s="53"/>
       <c r="B768" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="51"/>
+      <c r="A769" s="53"/>
       <c r="B769" s="7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="51"/>
+      <c r="A770" s="53"/>
       <c r="B770" s="11" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="51"/>
+      <c r="A771" s="53"/>
       <c r="B771" s="11" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A772" s="52"/>
+      <c r="A772" s="54"/>
       <c r="B772" s="42"/>
     </row>
     <row r="773" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="774" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A774" s="50" t="s">
+      <c r="A774" s="52" t="s">
         <v>569</v>
       </c>
       <c r="B774" s="31" t="s">
@@ -40853,100 +41451,100 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="51"/>
+      <c r="A775" s="53"/>
       <c r="B775" s="40"/>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="51"/>
+      <c r="A776" s="53"/>
       <c r="B776" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="51"/>
+      <c r="A777" s="53"/>
       <c r="B777" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="51"/>
+      <c r="A778" s="53"/>
       <c r="B778" s="34" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="51"/>
+      <c r="A779" s="53"/>
       <c r="B779" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="51"/>
+      <c r="A780" s="53"/>
       <c r="B780" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="51"/>
+      <c r="A781" s="53"/>
       <c r="B781" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="51"/>
+      <c r="A782" s="53"/>
       <c r="B782" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="51"/>
+      <c r="A783" s="53"/>
       <c r="B783" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="51"/>
+      <c r="A784" s="53"/>
       <c r="B784" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="51"/>
+      <c r="A785" s="53"/>
       <c r="B785" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="51"/>
+      <c r="A786" s="53"/>
       <c r="B786" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="51"/>
+      <c r="A787" s="53"/>
       <c r="B787" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="51"/>
+      <c r="A788" s="53"/>
       <c r="B788" s="11" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="51"/>
+      <c r="A789" s="53"/>
       <c r="B789" s="11" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A790" s="52"/>
+      <c r="A790" s="54"/>
       <c r="B790" s="42"/>
     </row>
     <row r="791" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="792" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A792" s="50" t="s">
+      <c r="A792" s="52" t="s">
         <v>584</v>
       </c>
       <c r="B792" s="31" t="s">
@@ -40954,164 +41552,164 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="51"/>
+      <c r="A793" s="53"/>
       <c r="B793" s="40"/>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="51"/>
+      <c r="A794" s="53"/>
       <c r="B794" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="51"/>
+      <c r="A795" s="53"/>
       <c r="B795" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="51"/>
+      <c r="A796" s="53"/>
       <c r="B796" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="51"/>
+      <c r="A797" s="53"/>
       <c r="B797" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="51"/>
+      <c r="A798" s="53"/>
       <c r="B798" s="34" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="51"/>
+      <c r="A799" s="53"/>
       <c r="B799" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="51"/>
+      <c r="A800" s="53"/>
       <c r="B800" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="51"/>
+      <c r="A801" s="53"/>
       <c r="B801" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="51"/>
+      <c r="A802" s="53"/>
       <c r="B802" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="51"/>
+      <c r="A803" s="53"/>
       <c r="B803" s="7" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="51"/>
+      <c r="A804" s="53"/>
       <c r="B804" s="7" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="51"/>
+      <c r="A805" s="53"/>
       <c r="B805" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="51"/>
+      <c r="A806" s="53"/>
       <c r="B806" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="51"/>
+      <c r="A807" s="53"/>
       <c r="B807" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="51"/>
+      <c r="A808" s="53"/>
       <c r="B808" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="51"/>
+      <c r="A809" s="53"/>
       <c r="B809" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="51"/>
+      <c r="A810" s="53"/>
       <c r="B810" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="51"/>
+      <c r="A811" s="53"/>
       <c r="B811" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="51"/>
+      <c r="A812" s="53"/>
       <c r="B812" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="51"/>
+      <c r="A813" s="53"/>
       <c r="B813" s="11" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="51"/>
+      <c r="A814" s="53"/>
       <c r="B814" s="11" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="51"/>
+      <c r="A815" s="53"/>
       <c r="B815" s="11" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" s="51"/>
+      <c r="A816" s="53"/>
       <c r="B816" s="7"/>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" s="51"/>
+      <c r="A817" s="53"/>
       <c r="B817" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="51"/>
+      <c r="A818" s="53"/>
       <c r="B818" s="36" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A819" s="52"/>
+      <c r="A819" s="54"/>
       <c r="B819" s="42"/>
     </row>
     <row r="820" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="821" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A821" s="50" t="s">
+      <c r="A821" s="52" t="s">
         <v>607</v>
       </c>
       <c r="B821" s="31" t="s">
@@ -41119,56 +41717,56 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" s="51"/>
+      <c r="A822" s="53"/>
       <c r="B822" s="40"/>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" s="51"/>
+      <c r="A823" s="53"/>
       <c r="B823" s="7" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="51"/>
+      <c r="A824" s="53"/>
       <c r="B824" s="34" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" s="51"/>
+      <c r="A825" s="53"/>
       <c r="B825" s="7" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" s="51"/>
+      <c r="A826" s="53"/>
       <c r="B826" s="11" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" s="51"/>
+      <c r="A827" s="53"/>
       <c r="B827" s="7"/>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" s="51"/>
+      <c r="A828" s="53"/>
       <c r="B828" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="51"/>
+      <c r="A829" s="53"/>
       <c r="B829" s="36" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="52"/>
+      <c r="A830" s="54"/>
       <c r="B830" s="49"/>
     </row>
     <row r="831" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="832" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A832" s="50" t="s">
+      <c r="A832" s="52" t="s">
         <v>614</v>
       </c>
       <c r="B832" s="31" t="s">
@@ -41176,146 +41774,146 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" s="51"/>
+      <c r="A833" s="53"/>
       <c r="B833" s="40"/>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" s="51"/>
+      <c r="A834" s="53"/>
       <c r="B834" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="51"/>
+      <c r="A835" s="53"/>
       <c r="B835" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="51"/>
+      <c r="A836" s="53"/>
       <c r="B836" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" s="51"/>
+      <c r="A837" s="53"/>
       <c r="B837" s="11" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" s="51"/>
+      <c r="A838" s="53"/>
       <c r="B838" s="11" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" s="51"/>
+      <c r="A839" s="53"/>
       <c r="B839" s="11" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" s="51"/>
+      <c r="A840" s="53"/>
       <c r="B840" s="7" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="51"/>
+      <c r="A841" s="53"/>
       <c r="B841" s="7" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" s="51"/>
+      <c r="A842" s="53"/>
       <c r="B842" s="34" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" s="51"/>
+      <c r="A843" s="53"/>
       <c r="B843" s="7" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" s="51"/>
+      <c r="A844" s="53"/>
       <c r="B844" s="7" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" s="51"/>
+      <c r="A845" s="53"/>
       <c r="B845" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="51"/>
+      <c r="A846" s="53"/>
       <c r="B846" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" s="51"/>
+      <c r="A847" s="53"/>
       <c r="B847" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" s="51"/>
+      <c r="A848" s="53"/>
       <c r="B848" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" s="51"/>
+      <c r="A849" s="53"/>
       <c r="B849" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="51"/>
+      <c r="A850" s="53"/>
       <c r="B850" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="51"/>
+      <c r="A851" s="53"/>
       <c r="B851" s="7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="51"/>
+      <c r="A852" s="53"/>
       <c r="B852" s="11" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" s="51"/>
+      <c r="A853" s="53"/>
       <c r="B853" s="11"/>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" s="51"/>
+      <c r="A854" s="53"/>
       <c r="B854" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="51"/>
+      <c r="A855" s="53"/>
       <c r="B855" s="36" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A856" s="52"/>
+      <c r="A856" s="54"/>
       <c r="B856" s="42"/>
     </row>
     <row r="857" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="858" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A858" s="50" t="s">
+      <c r="A858" s="52" t="s">
         <v>633</v>
       </c>
       <c r="B858" s="31" t="s">
@@ -41323,266 +41921,266 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A859" s="51"/>
+      <c r="A859" s="53"/>
       <c r="B859" s="40"/>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="51"/>
+      <c r="A860" s="53"/>
       <c r="B860" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="51"/>
+      <c r="A861" s="53"/>
       <c r="B861" s="7" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" s="51"/>
+      <c r="A862" s="53"/>
       <c r="B862" s="7" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" s="51"/>
+      <c r="A863" s="53"/>
       <c r="B863" s="7" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" s="51"/>
+      <c r="A864" s="53"/>
       <c r="B864" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="51"/>
+      <c r="A865" s="53"/>
       <c r="B865" s="7" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="51"/>
+      <c r="A866" s="53"/>
       <c r="B866" s="34" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A867" s="51"/>
+      <c r="A867" s="53"/>
       <c r="B867" s="7" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="51"/>
+      <c r="A868" s="53"/>
       <c r="B868" s="45" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="51"/>
+      <c r="A869" s="53"/>
       <c r="B869" s="45" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="51"/>
+      <c r="A870" s="53"/>
       <c r="B870" s="45" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="51"/>
+      <c r="A871" s="53"/>
       <c r="B871" s="45" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="51"/>
+      <c r="A872" s="53"/>
       <c r="B872" s="45" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="51"/>
+      <c r="A873" s="53"/>
       <c r="B873" s="7" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="51"/>
+      <c r="A874" s="53"/>
       <c r="B874" s="7" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="51"/>
+      <c r="A875" s="53"/>
       <c r="B875" s="7" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="51"/>
+      <c r="A876" s="53"/>
       <c r="B876" s="7" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="51"/>
+      <c r="A877" s="53"/>
       <c r="B877" s="7" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="51"/>
+      <c r="A878" s="53"/>
       <c r="B878" s="7" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A879" s="51"/>
+      <c r="A879" s="53"/>
       <c r="B879" s="7" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="51"/>
+      <c r="A880" s="53"/>
       <c r="B880" s="7" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="51"/>
+      <c r="A881" s="53"/>
       <c r="B881" s="7" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A882" s="51"/>
+      <c r="A882" s="53"/>
       <c r="B882" s="7" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A883" s="51"/>
+      <c r="A883" s="53"/>
       <c r="B883" s="7" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="51"/>
+      <c r="A884" s="53"/>
       <c r="B884" s="7" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A885" s="51"/>
+      <c r="A885" s="53"/>
       <c r="B885" s="7" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A886" s="51"/>
+      <c r="A886" s="53"/>
       <c r="B886" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="51"/>
+      <c r="A887" s="53"/>
       <c r="B887" s="7" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A888" s="51"/>
+      <c r="A888" s="53"/>
       <c r="B888" s="7" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" s="51"/>
+      <c r="A889" s="53"/>
       <c r="B889" s="7" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="51"/>
+      <c r="A890" s="53"/>
       <c r="B890" s="7" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A891" s="51"/>
+      <c r="A891" s="53"/>
       <c r="B891" s="7" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A892" s="51"/>
+      <c r="A892" s="53"/>
       <c r="B892" s="7" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="51"/>
+      <c r="A893" s="53"/>
       <c r="B893" s="7" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" s="51"/>
+      <c r="A894" s="53"/>
       <c r="B894" s="7" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A895" s="51"/>
+      <c r="A895" s="53"/>
       <c r="B895" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="51"/>
+      <c r="A896" s="53"/>
       <c r="B896" s="7" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A897" s="51"/>
+      <c r="A897" s="53"/>
       <c r="B897" s="7" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A898" s="51"/>
+      <c r="A898" s="53"/>
       <c r="B898" s="7" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="51"/>
+      <c r="A899" s="53"/>
       <c r="B899" s="11" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A900" s="51"/>
+      <c r="A900" s="53"/>
       <c r="B900" s="11" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A901" s="51"/>
+      <c r="A901" s="53"/>
       <c r="B901" s="11"/>
     </row>
     <row r="902" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A902" s="52"/>
+      <c r="A902" s="54"/>
       <c r="B902" s="42"/>
     </row>
     <row r="903" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="904" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="50" t="s">
+      <c r="A904" s="52" t="s">
         <v>673</v>
       </c>
       <c r="B904" s="31" t="s">
@@ -41590,193 +42188,344 @@
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="51"/>
+      <c r="A905" s="53"/>
       <c r="B905" s="40"/>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A906" s="51"/>
-      <c r="B906" s="54" t="s">
+      <c r="A906" s="53"/>
+      <c r="B906" s="51" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A907" s="51"/>
+      <c r="A907" s="53"/>
       <c r="B907" s="7"/>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="51"/>
+      <c r="A908" s="53"/>
       <c r="B908" s="34" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" s="51"/>
+      <c r="A909" s="53"/>
       <c r="B909" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="51"/>
+      <c r="A910" s="53"/>
       <c r="B910" s="7" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" s="51"/>
+      <c r="A911" s="53"/>
       <c r="B911" s="11" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A912" s="51"/>
+      <c r="A912" s="53"/>
       <c r="B912" s="11"/>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A913" s="51"/>
-      <c r="B913" s="53"/>
+      <c r="A913" s="53"/>
+      <c r="B913" s="50"/>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" s="51"/>
-      <c r="B914" s="54" t="s">
+      <c r="A914" s="53"/>
+      <c r="B914" s="51" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A915" s="51"/>
+      <c r="A915" s="53"/>
       <c r="B915" s="43"/>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A916" s="51"/>
+      <c r="A916" s="53"/>
       <c r="B916" s="7" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" s="51"/>
+      <c r="A917" s="53"/>
       <c r="B917" s="7" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A918" s="51"/>
+      <c r="A918" s="53"/>
       <c r="B918" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A919" s="51"/>
+      <c r="A919" s="53"/>
       <c r="B919" s="11" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A920" s="51"/>
+      <c r="A920" s="53"/>
       <c r="B920" s="34" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A921" s="51"/>
+      <c r="A921" s="53"/>
       <c r="B921" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A922" s="51"/>
+      <c r="A922" s="53"/>
       <c r="B922" s="7" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A923" s="51"/>
+      <c r="A923" s="53"/>
       <c r="B923" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A924" s="51"/>
+      <c r="A924" s="53"/>
       <c r="B924" s="7" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A925" s="51"/>
+      <c r="A925" s="53"/>
       <c r="B925" s="11" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A926" s="51"/>
+      <c r="A926" s="53"/>
       <c r="B926" s="11"/>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" s="51"/>
-      <c r="B927" s="53"/>
+      <c r="A927" s="53"/>
+      <c r="B927" s="50"/>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A928" s="51"/>
-      <c r="B928" s="54" t="s">
+      <c r="A928" s="53"/>
+      <c r="B928" s="51" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A929" s="51"/>
+      <c r="A929" s="53"/>
       <c r="B929" s="43"/>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A930" s="51"/>
+      <c r="A930" s="53"/>
       <c r="B930" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A931" s="51"/>
+      <c r="A931" s="53"/>
       <c r="B931" s="11" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A932" s="51"/>
+      <c r="A932" s="53"/>
       <c r="B932" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" s="51"/>
+      <c r="A933" s="53"/>
       <c r="B933" s="34" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" s="51"/>
+      <c r="A934" s="53"/>
       <c r="B934" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" s="51"/>
+      <c r="A935" s="53"/>
       <c r="B935" s="7" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A936" s="51"/>
+      <c r="A936" s="53"/>
       <c r="B936" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A937" s="51"/>
+      <c r="A937" s="53"/>
       <c r="B937" s="11" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A938" s="52"/>
+      <c r="A938" s="54"/>
       <c r="B938" s="42"/>
     </row>
+    <row r="939" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="940" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A940" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="B940" s="31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" s="53"/>
+      <c r="B941" s="40"/>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" s="53"/>
+      <c r="B942" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" s="53"/>
+      <c r="B943" s="11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" s="53"/>
+      <c r="B944" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" s="53"/>
+      <c r="B945" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" s="53"/>
+      <c r="B946" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" s="53"/>
+      <c r="B947" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="53"/>
+      <c r="B948" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="53"/>
+      <c r="B949" s="34" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" s="53"/>
+      <c r="B950" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" s="53"/>
+      <c r="B951" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="53"/>
+      <c r="B952" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" s="53"/>
+      <c r="B953" s="11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" s="53"/>
+      <c r="B954" s="7"/>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" s="53"/>
+      <c r="B955" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="53"/>
+      <c r="B956" s="36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="54"/>
+      <c r="B957" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="A940:A957"/>
+    <mergeCell ref="A858:A902"/>
+    <mergeCell ref="A832:A856"/>
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A904:A938"/>
     <mergeCell ref="A821:A830"/>
     <mergeCell ref="A111:A116"/>
@@ -41793,51 +42542,6 @@
     <mergeCell ref="A230:A237"/>
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A858:A902"/>
-    <mergeCell ref="A832:A856"/>
-    <mergeCell ref="A792:A819"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BC589-5A82-4E8C-ABE9-94AA348F4EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA2002-87DB-4E69-9550-6AE137820B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15990" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-14400" yWindow="135" windowWidth="14400" windowHeight="15750" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37057,8 +37057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
   <dimension ref="A1:G957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A915" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C950" sqref="C950"/>
+    <sheetView tabSelected="1" topLeftCell="A927" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B953" sqref="B953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42480,6 +42480,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A904:A938"/>
+    <mergeCell ref="A821:A830"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A408:A429"/>
+    <mergeCell ref="A431:A452"/>
+    <mergeCell ref="A380:A392"/>
+    <mergeCell ref="A394:A406"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
     <mergeCell ref="A940:A957"/>
     <mergeCell ref="A858:A902"/>
     <mergeCell ref="A832:A856"/>
@@ -42496,52 +42542,6 @@
     <mergeCell ref="A523:A544"/>
     <mergeCell ref="A667:A672"/>
     <mergeCell ref="A646:A650"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A904:A938"/>
-    <mergeCell ref="A821:A830"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A408:A429"/>
-    <mergeCell ref="A431:A452"/>
-    <mergeCell ref="A380:A392"/>
-    <mergeCell ref="A394:A406"/>
-    <mergeCell ref="A320:A328"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago Henrique\Documents\EstudosT\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA2002-87DB-4E69-9550-6AE137820B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64AF576-8AB9-40B0-81F1-3F96F500B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="135" windowWidth="14400" windowHeight="15750" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="720">
   <si>
     <t>Descrição</t>
   </si>
@@ -35804,6 +35804,568 @@
   </si>
   <si>
     <t>Utilizando o while não precisa da fórmula matemática.</t>
+  </si>
+  <si>
+    <t>ex062</t>
+  </si>
+  <si>
+    <t>Melhore o DESAFIO 61, perguntando para o usuário se ele quer mostrar mais alguns termos. O programa encerrará quando ele disser que quer mostrar 0 termos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> mais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> mais</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> total:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> → '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(termo), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        termo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> razão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'PAUSA'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    mais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quantos termos você quer mostrar a mais? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Progressão finalizada com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> termos mostrados.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(total))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -37055,10 +37617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G957"/>
+  <dimension ref="A1:G979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A927" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B953" sqref="B953"/>
+    <sheetView tabSelected="1" topLeftCell="A957" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A959" sqref="A959:A979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42478,8 +43040,180 @@
       <c r="A957" s="54"/>
       <c r="B957" s="42"/>
     </row>
+    <row r="958" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="959" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="B959" s="31" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" s="53"/>
+      <c r="B960" s="40"/>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" s="53"/>
+      <c r="B961" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" s="53"/>
+      <c r="B962" s="11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" s="53"/>
+      <c r="B963" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" s="53"/>
+      <c r="B964" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" s="53"/>
+      <c r="B965" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" s="53"/>
+      <c r="B966" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" s="53"/>
+      <c r="B967" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" s="53"/>
+      <c r="B968" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" s="53"/>
+      <c r="B969" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" s="53"/>
+      <c r="B970" s="34" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" s="53"/>
+      <c r="B971" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" s="53"/>
+      <c r="B972" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" s="53"/>
+      <c r="B973" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" s="53"/>
+      <c r="B974" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" s="53"/>
+      <c r="B975" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" s="53"/>
+      <c r="B976" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" s="53"/>
+      <c r="B977" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" s="53"/>
+      <c r="B978" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="54"/>
+      <c r="B979" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
+    <mergeCell ref="A959:A979"/>
+    <mergeCell ref="A940:A957"/>
+    <mergeCell ref="A858:A902"/>
+    <mergeCell ref="A832:A856"/>
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A904:A938"/>
     <mergeCell ref="A821:A830"/>
     <mergeCell ref="A111:A116"/>
@@ -42496,52 +43230,6 @@
     <mergeCell ref="A230:A237"/>
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A586:A635"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A940:A957"/>
-    <mergeCell ref="A858:A902"/>
-    <mergeCell ref="A832:A856"/>
-    <mergeCell ref="A792:A819"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A646:A650"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64AF576-8AB9-40B0-81F1-3F96F500B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B4AA3-612B-46E3-883D-1B92E97EF987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="735">
   <si>
     <t>Descrição</t>
   </si>
@@ -36365,6 +36365,692 @@
         <family val="3"/>
       </rPr>
       <t>(total))</t>
+    </r>
+  </si>
+  <si>
+    <t>Escreva um programa que leia um número N inteiro qualquer e mostre na tela os N primeiros elementos de uma Sequência de Fibonacci. Exemplo:</t>
+  </si>
+  <si>
+    <t>ex063</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Sequência de Fibonacci'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Quantos termos quer mostrar? '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'~~~~~'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(t1, t2), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cont </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    t3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">' → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(t3), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFE89E64"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    t1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    t2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' → FIM!'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -36481,7 +37167,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -36500,8 +37186,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -36830,11 +37522,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -36990,6 +37693,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37617,10 +38322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G979"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A957" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A959" sqref="A959:A979"/>
+    <sheetView tabSelected="1" topLeftCell="A974" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A981" sqref="A981:A1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43165,13 +43870,172 @@
       <c r="A979" s="54"/>
       <c r="B979" s="42"/>
     </row>
+    <row r="980" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B980" s="56"/>
+    </row>
+    <row r="981" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="52" t="s">
+        <v>721</v>
+      </c>
+      <c r="B981" s="55" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" s="53"/>
+      <c r="B982" s="40"/>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" s="53"/>
+      <c r="B983" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" s="53"/>
+      <c r="B984" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" s="53"/>
+      <c r="B985" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" s="53"/>
+      <c r="B986" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" s="53"/>
+      <c r="B987" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" s="53"/>
+      <c r="B988" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" s="53"/>
+      <c r="B989" s="11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" s="53"/>
+      <c r="B990" s="11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" s="53"/>
+      <c r="B991" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" s="53"/>
+      <c r="B992" s="34" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" s="53"/>
+      <c r="B993" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" s="53"/>
+      <c r="B994" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" s="53"/>
+      <c r="B995" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" s="53"/>
+      <c r="B996" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" s="53"/>
+      <c r="B997" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" s="53"/>
+      <c r="B998" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" s="53"/>
+      <c r="B999" s="11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="54"/>
+      <c r="B1000" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A959:A979"/>
-    <mergeCell ref="A940:A957"/>
-    <mergeCell ref="A858:A902"/>
-    <mergeCell ref="A832:A856"/>
-    <mergeCell ref="A792:A819"/>
+  <mergeCells count="64">
+    <mergeCell ref="A981:A1000"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A248:A260"/>
+    <mergeCell ref="A408:A429"/>
+    <mergeCell ref="A431:A452"/>
+    <mergeCell ref="A380:A392"/>
+    <mergeCell ref="A394:A406"/>
+    <mergeCell ref="A320:A328"/>
+    <mergeCell ref="A366:A378"/>
+    <mergeCell ref="A344:A354"/>
+    <mergeCell ref="A262:A274"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A198:A215"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
     <mergeCell ref="A503:A521"/>
     <mergeCell ref="A652:A665"/>
     <mergeCell ref="A757:A772"/>
@@ -43186,50 +44050,13 @@
     <mergeCell ref="A646:A650"/>
     <mergeCell ref="A586:A635"/>
     <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A959:A979"/>
+    <mergeCell ref="A940:A957"/>
+    <mergeCell ref="A858:A902"/>
+    <mergeCell ref="A832:A856"/>
+    <mergeCell ref="A792:A819"/>
     <mergeCell ref="A904:A938"/>
     <mergeCell ref="A821:A830"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A217:A228"/>
-    <mergeCell ref="A248:A260"/>
-    <mergeCell ref="A408:A429"/>
-    <mergeCell ref="A431:A452"/>
-    <mergeCell ref="A380:A392"/>
-    <mergeCell ref="A394:A406"/>
-    <mergeCell ref="A320:A328"/>
-    <mergeCell ref="A366:A378"/>
-    <mergeCell ref="A344:A354"/>
-    <mergeCell ref="A262:A274"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="A198:A215"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/detalhesPython.xlsx
+++ b/detalhesPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\EstudosT\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B4AA3-612B-46E3-883D-1B92E97EF987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA725D0-E796-405B-8BEC-5BF297C6C7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ECBDB9F7-0FAD-476C-A4A4-7948F29B869E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="747">
   <si>
     <t>Descrição</t>
   </si>
@@ -37051,6 +37051,498 @@
         <family val="3"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Crie um programa que leia vários números inteiros pelo teclado. O programa só vai parar quando o usuário digitar o valor 999, que é a condição de parada. 
+No final, mostre quantos números foram digitados e qual foi a soma entre eles (desconsiderando o flag).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF988BC7"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Digite um número [999 para parar]: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    soma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">soma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'Você digitou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> números e a soma entre eles foi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF78D1E1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE7DE79"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF67E480"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E1E6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(c, soma))</t>
     </r>
   </si>
 </sst>
@@ -37167,7 +37659,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -37183,12 +37675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -37537,7 +38023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -37684,6 +38170,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -37693,8 +38180,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -38322,10 +38820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73331524-72FC-41A3-82E6-4326A0999772}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A981" sqref="A981:A1000"/>
+    <sheetView tabSelected="1" topLeftCell="A1001" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1011" sqref="B1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38344,7 +38842,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -38352,23 +38850,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="39" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38376,7 +38874,7 @@
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -38384,35 +38882,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38420,7 +38918,7 @@
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -38428,65 +38926,65 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38494,7 +38992,7 @@
       <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="53" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="31" t="s">
@@ -38502,35 +39000,35 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38538,7 +39036,7 @@
       <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="53" t="s">
         <v>195</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -38546,53 +39044,53 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38600,7 +39098,7 @@
       <c r="B47" s="20"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="53" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -38608,35 +39106,35 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="39" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="33"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38644,7 +39142,7 @@
       <c r="B55" s="20"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="53" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="31" t="s">
@@ -38652,35 +39150,35 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="33"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38688,7 +39186,7 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="53" t="s">
         <v>169</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -38696,83 +39194,83 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -38784,7 +39282,7 @@
       <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="53" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="31" t="s">
@@ -38792,29 +39290,29 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38822,7 +39320,7 @@
       <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="52" t="s">
+      <c r="A88" s="53" t="s">
         <v>157</v>
       </c>
       <c r="B88" s="31" t="s">
@@ -38830,41 +39328,41 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="39" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="33"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38872,7 +39370,7 @@
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="53" t="s">
         <v>152</v>
       </c>
       <c r="B97" s="31" t="s">
@@ -38880,29 +39378,29 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38910,7 +39408,7 @@
       <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="31" t="s">
@@ -38918,29 +39416,29 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="33"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38948,7 +39446,7 @@
       <c r="B110" s="20"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="53" t="s">
         <v>142</v>
       </c>
       <c r="B111" s="31" t="s">
@@ -38956,29 +39454,29 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="54"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="33"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38986,7 +39484,7 @@
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="53" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="31" t="s">
@@ -38994,35 +39492,35 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="33"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39030,7 +39528,7 @@
       <c r="B125" s="20"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="53" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -39038,33 +39536,33 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="54"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="33"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -39072,7 +39570,7 @@
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="53" t="s">
         <v>119</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -39080,57 +39578,57 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="54"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="33"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -39138,7 +39636,7 @@
       <c r="B145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="53" t="s">
         <v>106</v>
       </c>
       <c r="B146" s="31" t="s">
@@ -39146,59 +39644,59 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="53"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="53"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="53"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="54"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="33"/>
       <c r="C156" s="2" t="s">
         <v>116</v>
@@ -39219,7 +39717,7 @@
       <c r="B158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="53" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="31" t="s">
@@ -39227,75 +39725,75 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="53"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="53"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="53"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="53"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="53"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="53"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="53"/>
+      <c r="A168" s="54"/>
       <c r="B168" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="53"/>
+      <c r="A169" s="54"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="53"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="53"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="37" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="54"/>
+      <c r="A172" s="55"/>
       <c r="B172" s="33" t="s">
         <v>96</v>
       </c>
@@ -39311,7 +39809,7 @@
       <c r="B173" s="20"/>
     </row>
     <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="52" t="s">
+      <c r="A174" s="53" t="s">
         <v>73</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -39319,69 +39817,69 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="53"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="53"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="53"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="53"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="53"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="53"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="53"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="53"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="53"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="53"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="53"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="53"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="37" t="s">
         <v>84</v>
       </c>
@@ -39393,7 +39891,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="54"/>
+      <c r="A187" s="55"/>
       <c r="B187" s="33" t="s">
         <v>97</v>
       </c>
@@ -39409,7 +39907,7 @@
       <c r="B188" s="20"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="53" t="s">
         <v>66</v>
       </c>
       <c r="B189" s="29" t="s">
@@ -39417,41 +39915,41 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="53"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
+      <c r="A194" s="54"/>
       <c r="B194" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="53"/>
+      <c r="A195" s="54"/>
       <c r="B195" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="54"/>
+      <c r="A196" s="55"/>
       <c r="B196" s="18"/>
       <c r="C196" s="2" t="s">
         <v>104</v>
@@ -39465,7 +39963,7 @@
       <c r="B197" s="20"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="52" t="s">
+      <c r="A198" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="29" t="s">
@@ -39473,23 +39971,23 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="53"/>
+      <c r="A199" s="54"/>
       <c r="B199" s="21"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="53"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="53"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="53"/>
+      <c r="A202" s="54"/>
       <c r="B202" s="22" t="s">
         <v>27</v>
       </c>
@@ -39498,7 +39996,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="53"/>
+      <c r="A203" s="54"/>
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -39507,7 +40005,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="53"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="22" t="s">
         <v>29</v>
       </c>
@@ -39519,7 +40017,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="53"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="21" t="s">
         <v>30</v>
       </c>
@@ -39528,7 +40026,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="53"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="24" t="s">
         <v>31</v>
       </c>
@@ -39537,53 +40035,53 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="53"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="22"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="53"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="53"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="53"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="53"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="53"/>
+      <c r="A213" s="54"/>
       <c r="B213" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="53"/>
+      <c r="A214" s="54"/>
       <c r="B214" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="54"/>
+      <c r="A215" s="55"/>
       <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39591,7 +40089,7 @@
       <c r="B216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="29" t="s">
@@ -39599,11 +40097,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
+      <c r="A218" s="54"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="53"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="8" t="s">
         <v>4</v>
       </c>
@@ -39612,13 +40110,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="53"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="53"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="7" t="s">
         <v>6</v>
       </c>
@@ -39627,43 +40125,43 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="53"/>
+      <c r="A222" s="54"/>
       <c r="B222" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="53"/>
+      <c r="A223" s="54"/>
       <c r="B223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="53"/>
+      <c r="A224" s="54"/>
       <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="53"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="53"/>
+      <c r="A226" s="54"/>
       <c r="B226" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="53"/>
+      <c r="A227" s="54"/>
       <c r="B227" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="54"/>
+      <c r="A228" s="55"/>
       <c r="B228" s="13" t="s">
         <v>13</v>
       </c>
@@ -39673,7 +40171,7 @@
       <c r="B229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="52" t="s">
+      <c r="A230" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B230" s="29" t="s">
@@ -39681,11 +40179,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="53"/>
+      <c r="A231" s="54"/>
       <c r="B231" s="7"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="53"/>
+      <c r="A232" s="54"/>
       <c r="B232" s="7" t="s">
         <v>16</v>
       </c>
@@ -39694,7 +40192,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="53"/>
+      <c r="A233" s="54"/>
       <c r="B233" s="11" t="s">
         <v>17</v>
       </c>
@@ -39703,18 +40201,18 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="53"/>
+      <c r="A234" s="54"/>
       <c r="B234" s="7"/>
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="53"/>
+      <c r="A235" s="54"/>
       <c r="B235" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="53"/>
+      <c r="A236" s="54"/>
       <c r="B236" s="26" t="s">
         <v>48</v>
       </c>
@@ -39723,7 +40221,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="54"/>
+      <c r="A237" s="55"/>
       <c r="B237" s="18" t="s">
         <v>21</v>
       </c>
@@ -39736,7 +40234,7 @@
       <c r="B238" s="14"/>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="52" t="s">
+      <c r="A239" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -39744,11 +40242,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="53"/>
+      <c r="A240" s="54"/>
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="53"/>
+      <c r="A241" s="54"/>
       <c r="B241" s="7" t="s">
         <v>22</v>
       </c>
@@ -39757,7 +40255,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="53"/>
+      <c r="A242" s="54"/>
       <c r="B242" s="11" t="s">
         <v>23</v>
       </c>
@@ -39766,21 +40264,21 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="53"/>
+      <c r="A243" s="54"/>
       <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="53"/>
+      <c r="A244" s="54"/>
       <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="53"/>
+      <c r="A245" s="54"/>
       <c r="B245" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="54"/>
+      <c r="A246" s="55"/>
       <c r="B246" s="16" t="s">
         <v>24</v>
       </c>
@@ -39793,7 +40291,7 @@
       <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="52" t="s">
+      <c r="A248" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="31" t="s">
@@ -39801,45 +40299,45 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="53"/>
+      <c r="A249" s="54"/>
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="53"/>
+      <c r="A250" s="54"/>
       <c r="B250" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="53"/>
+      <c r="A251" s="54"/>
       <c r="B251" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="53"/>
+      <c r="A252" s="54"/>
       <c r="B252" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="53"/>
+      <c r="A253" s="54"/>
       <c r="B253" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="53"/>
+      <c r="A254" s="54"/>
       <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="53"/>
+      <c r="A255" s="54"/>
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="53"/>
+      <c r="A256" s="54"/>
       <c r="B256" s="15" t="s">
         <v>57</v>
       </c>
@@ -39851,32 +40349,32 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="53"/>
+      <c r="A257" s="54"/>
       <c r="B257" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="53"/>
+      <c r="A258" s="54"/>
       <c r="B258" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="53"/>
+      <c r="A259" s="54"/>
       <c r="B259" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="54"/>
+      <c r="A260" s="55"/>
       <c r="B260" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="52" t="s">
+      <c r="A262" s="53" t="s">
         <v>63</v>
       </c>
       <c r="B262" s="31" t="s">
@@ -39884,74 +40382,74 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="53"/>
+      <c r="A263" s="54"/>
       <c r="B263" s="40"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="53"/>
+      <c r="A264" s="54"/>
       <c r="B264" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="53"/>
+      <c r="A265" s="54"/>
       <c r="B265" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="53"/>
+      <c r="A266" s="54"/>
       <c r="B266" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="53"/>
+      <c r="A267" s="54"/>
       <c r="B267" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="53"/>
+      <c r="A268" s="54"/>
       <c r="B268" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="53"/>
+      <c r="A269" s="54"/>
       <c r="B269" s="7"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="53"/>
+      <c r="A270" s="54"/>
       <c r="B270" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="53"/>
+      <c r="A271" s="54"/>
       <c r="B271" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="53"/>
+      <c r="A272" s="54"/>
       <c r="B272" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="53"/>
+      <c r="A273" s="54"/>
       <c r="B273" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="54"/>
+      <c r="A274" s="55"/>
       <c r="B274" s="18"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="52" t="s">
+      <c r="A276" s="53" t="s">
         <v>231</v>
       </c>
       <c r="B276" s="31" t="s">
@@ -39959,99 +40457,99 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="53"/>
+      <c r="A277" s="54"/>
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="53"/>
+      <c r="A278" s="54"/>
       <c r="B278" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="53"/>
+      <c r="A279" s="54"/>
       <c r="B279" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="53"/>
+      <c r="A280" s="54"/>
       <c r="B280" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="53"/>
+      <c r="A281" s="54"/>
       <c r="B281" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="53"/>
+      <c r="A282" s="54"/>
       <c r="B282" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="53"/>
+      <c r="A283" s="54"/>
       <c r="B283" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="53"/>
+      <c r="A284" s="54"/>
       <c r="B284" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="53"/>
+      <c r="A285" s="54"/>
       <c r="B285" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="53"/>
+      <c r="A286" s="54"/>
       <c r="B286" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="53"/>
+      <c r="A287" s="54"/>
       <c r="B287" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="53"/>
+      <c r="A288" s="54"/>
       <c r="B288" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="53"/>
+      <c r="A289" s="54"/>
       <c r="B289" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="53"/>
+      <c r="A290" s="54"/>
       <c r="B290" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="53"/>
+      <c r="A291" s="54"/>
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="53"/>
+      <c r="A292" s="54"/>
       <c r="B292" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="53"/>
+      <c r="A293" s="54"/>
       <c r="B293" s="36" t="s">
         <v>245</v>
       </c>
@@ -40066,13 +40564,13 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="53"/>
+      <c r="A294" s="54"/>
       <c r="B294" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="54"/>
+      <c r="A295" s="55"/>
       <c r="B295" s="33"/>
       <c r="C295" s="2" t="s">
         <v>249</v>
@@ -40086,7 +40584,7 @@
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="52" t="s">
+      <c r="A297" s="53" t="s">
         <v>252</v>
       </c>
       <c r="B297" s="31" t="s">
@@ -40094,74 +40592,74 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="53"/>
+      <c r="A298" s="54"/>
       <c r="B298" s="40"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="53"/>
+      <c r="A299" s="54"/>
       <c r="B299" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="53"/>
+      <c r="A300" s="54"/>
       <c r="B300" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="53"/>
+      <c r="A301" s="54"/>
       <c r="B301" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="53"/>
+      <c r="A302" s="54"/>
       <c r="B302" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="53"/>
+      <c r="A303" s="54"/>
       <c r="B303" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="53"/>
+      <c r="A304" s="54"/>
       <c r="B304" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="53"/>
+      <c r="A305" s="54"/>
       <c r="B305" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="53"/>
+      <c r="A306" s="54"/>
       <c r="B306" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="53"/>
+      <c r="A307" s="54"/>
       <c r="B307" s="23"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="53"/>
+      <c r="A308" s="54"/>
       <c r="B308" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="54"/>
+      <c r="A309" s="55"/>
       <c r="B309" s="18"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="52" t="s">
+      <c r="A311" s="53" t="s">
         <v>262</v>
       </c>
       <c r="B311" s="29" t="s">
@@ -40169,46 +40667,46 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="53"/>
+      <c r="A312" s="54"/>
       <c r="B312" s="7"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="53"/>
+      <c r="A313" s="54"/>
       <c r="B313" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="53"/>
+      <c r="A314" s="54"/>
       <c r="B314" s="34" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="53"/>
+      <c r="A315" s="54"/>
       <c r="B315" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="53"/>
+      <c r="A316" s="54"/>
       <c r="B316" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="53"/>
+      <c r="A317" s="54"/>
       <c r="B317" s="41" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="54"/>
+      <c r="A318" s="55"/>
       <c r="B318" s="16"/>
     </row>
     <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="320" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="52" t="s">
+      <c r="A320" s="53" t="s">
         <v>268</v>
       </c>
       <c r="B320" s="31" t="s">
@@ -40216,39 +40714,39 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="53"/>
+      <c r="A321" s="54"/>
       <c r="B321" s="7"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="53"/>
+      <c r="A322" s="54"/>
       <c r="B322" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="53"/>
+      <c r="A323" s="54"/>
       <c r="B323" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="53"/>
+      <c r="A324" s="54"/>
       <c r="B324" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="53"/>
+      <c r="A325" s="54"/>
       <c r="B325" s="34"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="53"/>
+      <c r="A326" s="54"/>
       <c r="B326" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="53"/>
+      <c r="A327" s="54"/>
       <c r="B327" s="36" t="s">
         <v>273</v>
       </c>
@@ -40263,12 +40761,12 @@
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="54"/>
+      <c r="A328" s="55"/>
       <c r="B328" s="42"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="52" t="s">
+      <c r="A330" s="53" t="s">
         <v>277</v>
       </c>
       <c r="B330" s="31" t="s">
@@ -40276,63 +40774,63 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="53"/>
+      <c r="A331" s="54"/>
       <c r="B331" s="40"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="53"/>
+      <c r="A332" s="54"/>
       <c r="B332" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="53"/>
+      <c r="A333" s="54"/>
       <c r="B333" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="53"/>
+      <c r="A334" s="54"/>
       <c r="B334" s="34" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="53"/>
+      <c r="A335" s="54"/>
       <c r="B335" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="53"/>
+      <c r="A336" s="54"/>
       <c r="B336" s="34" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="53"/>
+      <c r="A337" s="54"/>
       <c r="B337" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="53"/>
+      <c r="A338" s="54"/>
       <c r="B338" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="53"/>
+      <c r="A339" s="54"/>
       <c r="B339" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="53"/>
+      <c r="A340" s="54"/>
       <c r="B340" s="7"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="53"/>
+      <c r="A341" s="54"/>
       <c r="B341" s="36" t="s">
         <v>286</v>
       </c>
@@ -40344,12 +40842,12 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="54"/>
+      <c r="A342" s="55"/>
       <c r="B342" s="42"/>
     </row>
     <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="52" t="s">
+      <c r="A344" s="53" t="s">
         <v>289</v>
       </c>
       <c r="B344" s="31" t="s">
@@ -40357,51 +40855,51 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="53"/>
+      <c r="A345" s="54"/>
       <c r="B345" s="40"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="53"/>
+      <c r="A346" s="54"/>
       <c r="B346" s="34" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="53"/>
+      <c r="A347" s="54"/>
       <c r="B347" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="53"/>
+      <c r="A348" s="54"/>
       <c r="B348" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="53"/>
+      <c r="A349" s="54"/>
       <c r="B349" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="53"/>
+      <c r="A350" s="54"/>
       <c r="B350" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="53"/>
+      <c r="A351" s="54"/>
       <c r="B351" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="53"/>
+      <c r="A352" s="54"/>
       <c r="B352" s="34"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="53"/>
+      <c r="A353" s="54"/>
       <c r="B353" s="7" t="s">
         <v>297</v>
       </c>
@@ -40422,12 +40920,12 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="54"/>
+      <c r="A354" s="55"/>
       <c r="B354" s="42"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="356" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="52" t="s">
+      <c r="A356" s="53" t="s">
         <v>309</v>
       </c>
       <c r="B356" s="31" t="s">
@@ -40435,52 +40933,52 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="53"/>
+      <c r="A357" s="54"/>
       <c r="B357" s="40"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="53"/>
+      <c r="A358" s="54"/>
       <c r="B358" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="53"/>
+      <c r="A359" s="54"/>
       <c r="B359" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="53"/>
+      <c r="A360" s="54"/>
       <c r="B360" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="53"/>
+      <c r="A361" s="54"/>
       <c r="B361" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="53"/>
+      <c r="A362" s="54"/>
       <c r="B362" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="53"/>
+      <c r="A363" s="54"/>
       <c r="B363" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="54"/>
+      <c r="A364" s="55"/>
       <c r="B364" s="42"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="52" t="s">
+      <c r="A366" s="53" t="s">
         <v>321</v>
       </c>
       <c r="B366" s="31" t="s">
@@ -40488,126 +40986,126 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="53"/>
+      <c r="A367" s="54"/>
       <c r="B367" s="40"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="53"/>
+      <c r="A368" s="54"/>
       <c r="B368" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="53"/>
+      <c r="A369" s="54"/>
       <c r="B369" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="53"/>
+      <c r="A370" s="54"/>
       <c r="B370" s="11" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="53"/>
+      <c r="A371" s="54"/>
       <c r="B371" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="53"/>
+      <c r="A372" s="54"/>
       <c r="B372" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="53"/>
+      <c r="A373" s="54"/>
       <c r="B373" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="53"/>
+      <c r="A374" s="54"/>
       <c r="B374" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="53"/>
+      <c r="A375" s="54"/>
       <c r="B375" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="53"/>
+      <c r="A376" s="54"/>
       <c r="B376" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="53"/>
+      <c r="A377" s="54"/>
       <c r="B377" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="54"/>
+      <c r="A378" s="55"/>
       <c r="B378" s="42"/>
     </row>
     <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="52" t="s">
+      <c r="A380" s="53" t="s">
         <v>319</v>
       </c>
       <c r="B380" s="31"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="53"/>
+      <c r="A381" s="54"/>
       <c r="B381" s="40"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="53"/>
+      <c r="A382" s="54"/>
       <c r="B382" s="11"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="53"/>
+      <c r="A383" s="54"/>
       <c r="B383" s="11"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="53"/>
+      <c r="A384" s="54"/>
       <c r="B384" s="11"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="53"/>
+      <c r="A385" s="54"/>
       <c r="B385" s="7"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="53"/>
+      <c r="A386" s="54"/>
       <c r="B386" s="7"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="53"/>
+      <c r="A387" s="54"/>
       <c r="B387" s="7"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="53"/>
+      <c r="A388" s="54"/>
       <c r="B388" s="34"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="53"/>
+      <c r="A389" s="54"/>
       <c r="B389" s="7"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="53"/>
+      <c r="A390" s="54"/>
       <c r="B390" s="34"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="53"/>
+      <c r="A391" s="54"/>
       <c r="B391" s="7"/>
     </row>
     <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="54"/>
+      <c r="A392" s="55"/>
       <c r="B392" s="42"/>
       <c r="C392" s="2" t="s">
         <v>320</v>
@@ -40618,62 +41116,62 @@
     </row>
     <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="52" t="s">
+      <c r="A394" s="53" t="s">
         <v>319</v>
       </c>
       <c r="B394" s="31"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="53"/>
+      <c r="A395" s="54"/>
       <c r="B395" s="40"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="53"/>
+      <c r="A396" s="54"/>
       <c r="B396" s="11"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="53"/>
+      <c r="A397" s="54"/>
       <c r="B397" s="11"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="53"/>
+      <c r="A398" s="54"/>
       <c r="B398" s="11"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="53"/>
+      <c r="A399" s="54"/>
       <c r="B399" s="7"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="53"/>
+      <c r="A400" s="54"/>
       <c r="B400" s="7"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="53"/>
+      <c r="A401" s="54"/>
       <c r="B401" s="7"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="53"/>
+      <c r="A402" s="54"/>
       <c r="B402" s="34"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="53"/>
+      <c r="A403" s="54"/>
       <c r="B403" s="7"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="53"/>
+      <c r="A404" s="54"/>
       <c r="B404" s="34"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="53"/>
+      <c r="A405" s="54"/>
       <c r="B405" s="7"/>
     </row>
     <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="54"/>
+      <c r="A406" s="55"/>
       <c r="B406" s="42"/>
     </row>
     <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="408" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="52" t="s">
+      <c r="A408" s="53" t="s">
         <v>322</v>
       </c>
       <c r="B408" s="31" t="s">
@@ -40681,124 +41179,124 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="53"/>
+      <c r="A409" s="54"/>
       <c r="B409" s="40"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="53"/>
+      <c r="A410" s="54"/>
       <c r="B410" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="53"/>
+      <c r="A411" s="54"/>
       <c r="B411" s="43"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="53"/>
+      <c r="A412" s="54"/>
       <c r="B412" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="53"/>
+      <c r="A413" s="54"/>
       <c r="B413" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="53"/>
+      <c r="A414" s="54"/>
       <c r="B414" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="53"/>
+      <c r="A415" s="54"/>
       <c r="B415" s="43"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="53"/>
+      <c r="A416" s="54"/>
       <c r="B416" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="53"/>
+      <c r="A417" s="54"/>
       <c r="B417" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="53"/>
+      <c r="A418" s="54"/>
       <c r="B418" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="53"/>
+      <c r="A419" s="54"/>
       <c r="B419" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="53"/>
+      <c r="A420" s="54"/>
       <c r="B420" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="53"/>
+      <c r="A421" s="54"/>
       <c r="B421" s="43"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="53"/>
+      <c r="A422" s="54"/>
       <c r="B422" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="53"/>
+      <c r="A423" s="54"/>
       <c r="B423" s="35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="53"/>
+      <c r="A424" s="54"/>
       <c r="B424" s="43"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="53"/>
+      <c r="A425" s="54"/>
       <c r="B425" s="34" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="53"/>
+      <c r="A426" s="54"/>
       <c r="B426" s="44" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="53"/>
+      <c r="A427" s="54"/>
       <c r="B427" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="53"/>
+      <c r="A428" s="54"/>
       <c r="B428" s="44" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="54"/>
+      <c r="A429" s="55"/>
       <c r="B429" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="52" t="s">
+      <c r="A431" s="53" t="s">
         <v>334</v>
       </c>
       <c r="B431" s="31" t="s">
@@ -40806,128 +41304,128 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="53"/>
+      <c r="A432" s="54"/>
       <c r="B432" s="40"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="53"/>
+      <c r="A433" s="54"/>
       <c r="B433" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="53"/>
+      <c r="A434" s="54"/>
       <c r="B434" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="53"/>
+      <c r="A435" s="54"/>
       <c r="B435" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="53"/>
+      <c r="A436" s="54"/>
       <c r="B436" s="45" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="53"/>
+      <c r="A437" s="54"/>
       <c r="B437" s="45" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="53"/>
+      <c r="A438" s="54"/>
       <c r="B438" s="45" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="53"/>
+      <c r="A439" s="54"/>
       <c r="B439" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="53"/>
+      <c r="A440" s="54"/>
       <c r="B440" s="34" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="53"/>
+      <c r="A441" s="54"/>
       <c r="B441" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="53"/>
+      <c r="A442" s="54"/>
       <c r="B442" s="34" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="53"/>
+      <c r="A443" s="54"/>
       <c r="B443" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="53"/>
+      <c r="A444" s="54"/>
       <c r="B444" s="34" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="53"/>
+      <c r="A445" s="54"/>
       <c r="B445" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="53"/>
+      <c r="A446" s="54"/>
       <c r="B446" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="53"/>
+      <c r="A447" s="54"/>
       <c r="B447" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="53"/>
+      <c r="A448" s="54"/>
       <c r="B448" s="34"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="53"/>
+      <c r="A449" s="54"/>
       <c r="B449" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="53"/>
+      <c r="A450" s="54"/>
       <c r="B450" s="48" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="53"/>
+      <c r="A451" s="54"/>
       <c r="B451" s="44" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="54"/>
+      <c r="A452" s="55"/>
       <c r="B452" s="42"/>
     </row>
     <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="52" t="s">
+      <c r="A454" s="53" t="s">
         <v>353</v>
       </c>
       <c r="B454" s="31" t="s">
@@ -40935,70 +41433,70 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="53"/>
+      <c r="A455" s="54"/>
       <c r="B455" s="40"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="53"/>
+      <c r="A456" s="54"/>
       <c r="B456" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="53"/>
+      <c r="A457" s="54"/>
       <c r="B457" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="53"/>
+      <c r="A458" s="54"/>
       <c r="B458" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="53"/>
+      <c r="A459" s="54"/>
       <c r="B459" s="34" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="53"/>
+      <c r="A460" s="54"/>
       <c r="B460" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="53"/>
+      <c r="A461" s="54"/>
       <c r="B461" s="34" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="53"/>
+      <c r="A462" s="54"/>
       <c r="B462" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="53"/>
+      <c r="A463" s="54"/>
       <c r="B463" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="53"/>
+      <c r="A464" s="54"/>
       <c r="B464" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="54"/>
+      <c r="A465" s="55"/>
       <c r="B465" s="42"/>
     </row>
     <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="467" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="52" t="s">
+      <c r="A467" s="53" t="s">
         <v>362</v>
       </c>
       <c r="B467" s="31" t="s">
@@ -41006,128 +41504,128 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="53"/>
+      <c r="A468" s="54"/>
       <c r="B468" s="40"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="53"/>
+      <c r="A469" s="54"/>
       <c r="B469" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="53"/>
+      <c r="A470" s="54"/>
       <c r="B470" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="53"/>
+      <c r="A471" s="54"/>
       <c r="B471" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="53"/>
+      <c r="A472" s="54"/>
       <c r="B472" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="53"/>
+      <c r="A473" s="54"/>
       <c r="B473" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="53"/>
+      <c r="A474" s="54"/>
       <c r="B474" s="34" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="53"/>
+      <c r="A475" s="54"/>
       <c r="B475" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="53"/>
+      <c r="A476" s="54"/>
       <c r="B476" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="53"/>
+      <c r="A477" s="54"/>
       <c r="B477" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="53"/>
+      <c r="A478" s="54"/>
       <c r="B478" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="53"/>
+      <c r="A479" s="54"/>
       <c r="B479" s="34" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="53"/>
+      <c r="A480" s="54"/>
       <c r="B480" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="53"/>
+      <c r="A481" s="54"/>
       <c r="B481" s="34" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="53"/>
+      <c r="A482" s="54"/>
       <c r="B482" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="53"/>
+      <c r="A483" s="54"/>
       <c r="B483" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="53"/>
+      <c r="A484" s="54"/>
       <c r="B484" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="53"/>
+      <c r="A485" s="54"/>
       <c r="B485" s="11"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="53"/>
+      <c r="A486" s="54"/>
       <c r="B486" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="53"/>
+      <c r="A487" s="54"/>
       <c r="B487" s="48" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="54"/>
+      <c r="A488" s="55"/>
       <c r="B488" s="42"/>
     </row>
     <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="52" t="s">
+      <c r="A490" s="53" t="s">
         <v>377</v>
       </c>
       <c r="B490" s="31" t="s">
@@ -41135,70 +41633,70 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="53"/>
+      <c r="A491" s="54"/>
       <c r="B491" s="40"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="53"/>
+      <c r="A492" s="54"/>
       <c r="B492" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="53"/>
+      <c r="A493" s="54"/>
       <c r="B493" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="53"/>
+      <c r="A494" s="54"/>
       <c r="B494" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="53"/>
+      <c r="A495" s="54"/>
       <c r="B495" s="34" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="53"/>
+      <c r="A496" s="54"/>
       <c r="B496" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="53"/>
+      <c r="A497" s="54"/>
       <c r="B497" s="34" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="53"/>
+      <c r="A498" s="54"/>
       <c r="B498" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="53"/>
+      <c r="A499" s="54"/>
       <c r="B499" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="53"/>
+      <c r="A500" s="54"/>
       <c r="B500" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="54"/>
+      <c r="A501" s="55"/>
       <c r="B501" s="42"/>
     </row>
     <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="52" t="s">
+      <c r="A503" s="53" t="s">
         <v>387</v>
       </c>
       <c r="B503" s="31" t="s">
@@ -41206,112 +41704,112 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="53"/>
+      <c r="A504" s="54"/>
       <c r="B504" s="40"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="53"/>
+      <c r="A505" s="54"/>
       <c r="B505" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="53"/>
+      <c r="A506" s="54"/>
       <c r="B506" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="53"/>
+      <c r="A507" s="54"/>
       <c r="B507" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="53"/>
+      <c r="A508" s="54"/>
       <c r="B508" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="53"/>
+      <c r="A509" s="54"/>
       <c r="B509" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="53"/>
+      <c r="A510" s="54"/>
       <c r="B510" s="7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="53"/>
+      <c r="A511" s="54"/>
       <c r="B511" s="34" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="53"/>
+      <c r="A512" s="54"/>
       <c r="B512" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="53"/>
+      <c r="A513" s="54"/>
       <c r="B513" s="34" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="53"/>
+      <c r="A514" s="54"/>
       <c r="B514" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="53"/>
+      <c r="A515" s="54"/>
       <c r="B515" s="34" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="53"/>
+      <c r="A516" s="54"/>
       <c r="B516" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="53"/>
+      <c r="A517" s="54"/>
       <c r="B517" s="34" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="53"/>
+      <c r="A518" s="54"/>
       <c r="B518" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="53"/>
+      <c r="A519" s="54"/>
       <c r="B519" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="53"/>
+      <c r="A520" s="54"/>
       <c r="B520" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="54"/>
+      <c r="A521" s="55"/>
       <c r="B521" s="42"/>
     </row>
     <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="52" t="s">
+      <c r="A523" s="53" t="s">
         <v>402</v>
       </c>
       <c r="B523" s="31" t="s">
@@ -41319,128 +41817,128 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="53"/>
+      <c r="A524" s="54"/>
       <c r="B524" s="40"/>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="53"/>
+      <c r="A525" s="54"/>
       <c r="B525" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="53"/>
+      <c r="A526" s="54"/>
       <c r="B526" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="53"/>
+      <c r="A527" s="54"/>
       <c r="B527" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="53"/>
+      <c r="A528" s="54"/>
       <c r="B528" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="53"/>
+      <c r="A529" s="54"/>
       <c r="B529" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="53"/>
+      <c r="A530" s="54"/>
       <c r="B530" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="53"/>
+      <c r="A531" s="54"/>
       <c r="B531" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="53"/>
+      <c r="A532" s="54"/>
       <c r="B532" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="53"/>
+      <c r="A533" s="54"/>
       <c r="B533" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="53"/>
+      <c r="A534" s="54"/>
       <c r="B534" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="53"/>
+      <c r="A535" s="54"/>
       <c r="B535" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="53"/>
+      <c r="A536" s="54"/>
       <c r="B536" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="53"/>
+      <c r="A537" s="54"/>
       <c r="B537" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="53"/>
+      <c r="A538" s="54"/>
       <c r="B538" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="53"/>
+      <c r="A539" s="54"/>
       <c r="B539" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="53"/>
+      <c r="A540" s="54"/>
       <c r="B540" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="53"/>
+      <c r="A541" s="54"/>
       <c r="B541" s="11"/>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="53"/>
+      <c r="A542" s="54"/>
       <c r="B542" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="53"/>
+      <c r="A543" s="54"/>
       <c r="B543" s="48" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="54"/>
+      <c r="A544" s="55"/>
       <c r="B544" s="42"/>
     </row>
     <row r="545" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="546" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="52" t="s">
+      <c r="A546" s="53" t="s">
         <v>428</v>
       </c>
       <c r="B546" s="31" t="s">
@@ -41448,94 +41946,94 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="53"/>
+      <c r="A547" s="54"/>
       <c r="B547" s="40"/>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="53"/>
+      <c r="A548" s="54"/>
       <c r="B548" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="53"/>
+      <c r="A549" s="54"/>
       <c r="B549" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="53"/>
+      <c r="A550" s="54"/>
       <c r="B550" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="53"/>
+      <c r="A551" s="54"/>
       <c r="B551" s="34" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="53"/>
+      <c r="A552" s="54"/>
       <c r="B552" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="53"/>
+      <c r="A553" s="54"/>
       <c r="B553" s="34" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="53"/>
+      <c r="A554" s="54"/>
       <c r="B554" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="53"/>
+      <c r="A555" s="54"/>
       <c r="B555" s="34" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="53"/>
+      <c r="A556" s="54"/>
       <c r="B556" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="53"/>
+      <c r="A557" s="54"/>
       <c r="B557" s="34" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="53"/>
+      <c r="A558" s="54"/>
       <c r="B558" s="7" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="53"/>
+      <c r="A559" s="54"/>
       <c r="B559" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="53"/>
+      <c r="A560" s="54"/>
       <c r="B560" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="54"/>
+      <c r="A561" s="55"/>
       <c r="B561" s="42"/>
     </row>
     <row r="562" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="563" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="52" t="s">
+      <c r="A563" s="53" t="s">
         <v>450</v>
       </c>
       <c r="B563" s="31" t="s">
@@ -41543,130 +42041,130 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="53"/>
+      <c r="A564" s="54"/>
       <c r="B564" s="40"/>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="53"/>
+      <c r="A565" s="54"/>
       <c r="B565" s="11" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="53"/>
+      <c r="A566" s="54"/>
       <c r="B566" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A567" s="53"/>
+      <c r="A567" s="54"/>
       <c r="B567" s="44" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="53"/>
+      <c r="A568" s="54"/>
       <c r="B568" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="53"/>
+      <c r="A569" s="54"/>
       <c r="B569" s="34" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="53"/>
+      <c r="A570" s="54"/>
       <c r="B570" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="53"/>
+      <c r="A571" s="54"/>
       <c r="B571" s="34" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="53"/>
+      <c r="A572" s="54"/>
       <c r="B572" s="7" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="53"/>
+      <c r="A573" s="54"/>
       <c r="B573" s="34" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="53"/>
+      <c r="A574" s="54"/>
       <c r="B574" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="53"/>
+      <c r="A575" s="54"/>
       <c r="B575" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="53"/>
+      <c r="A576" s="54"/>
       <c r="B576" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="53"/>
+      <c r="A577" s="54"/>
       <c r="B577" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="53"/>
+      <c r="A578" s="54"/>
       <c r="B578" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="53"/>
+      <c r="A579" s="54"/>
       <c r="B579" s="34" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="53"/>
+      <c r="A580" s="54"/>
       <c r="B580" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="53"/>
+      <c r="A581" s="54"/>
       <c r="B581" s="7" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="53"/>
+      <c r="A582" s="54"/>
       <c r="B582" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="53"/>
+      <c r="A583" s="54"/>
       <c r="B583" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="54"/>
+      <c r="A584" s="55"/>
       <c r="B584" s="42"/>
     </row>
     <row r="585" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="586" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="52" t="s">
+      <c r="A586" s="53" t="s">
         <v>449</v>
       </c>
       <c r="B586" s="31" t="s">
@@ -41674,298 +42172,298 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="53"/>
+      <c r="A587" s="54"/>
       <c r="B587" s="40"/>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="53"/>
+      <c r="A588" s="54"/>
       <c r="B588" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="53"/>
+      <c r="A589" s="54"/>
       <c r="B589" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="53"/>
+      <c r="A590" s="54"/>
       <c r="B590" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="53"/>
+      <c r="A591" s="54"/>
       <c r="B591" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="53"/>
+      <c r="A592" s="54"/>
       <c r="B592" s="11" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="53"/>
+      <c r="A593" s="54"/>
       <c r="B593" s="45" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="53"/>
+      <c r="A594" s="54"/>
       <c r="B594" s="45" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="53"/>
+      <c r="A595" s="54"/>
       <c r="B595" s="45" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="53"/>
+      <c r="A596" s="54"/>
       <c r="B596" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="53"/>
+      <c r="A597" s="54"/>
       <c r="B597" s="11" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="53"/>
+      <c r="A598" s="54"/>
       <c r="B598" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="53"/>
+      <c r="A599" s="54"/>
       <c r="B599" s="11" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="53"/>
+      <c r="A600" s="54"/>
       <c r="B600" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="53"/>
+      <c r="A601" s="54"/>
       <c r="B601" s="11" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="53"/>
+      <c r="A602" s="54"/>
       <c r="B602" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="53"/>
+      <c r="A603" s="54"/>
       <c r="B603" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="53"/>
+      <c r="A604" s="54"/>
       <c r="B604" s="11" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="53"/>
+      <c r="A605" s="54"/>
       <c r="B605" s="11" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="53"/>
+      <c r="A606" s="54"/>
       <c r="B606" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="53"/>
+      <c r="A607" s="54"/>
       <c r="B607" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="53"/>
+      <c r="A608" s="54"/>
       <c r="B608" s="34" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="53"/>
+      <c r="A609" s="54"/>
       <c r="B609" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="53"/>
+      <c r="A610" s="54"/>
       <c r="B610" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="53"/>
+      <c r="A611" s="54"/>
       <c r="B611" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="53"/>
+      <c r="A612" s="54"/>
       <c r="B612" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="53"/>
+      <c r="A613" s="54"/>
       <c r="B613" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="53"/>
+      <c r="A614" s="54"/>
       <c r="B614" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="53"/>
+      <c r="A615" s="54"/>
       <c r="B615" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="53"/>
+      <c r="A616" s="54"/>
       <c r="B616" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="53"/>
+      <c r="A617" s="54"/>
       <c r="B617" s="34" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="53"/>
+      <c r="A618" s="54"/>
       <c r="B618" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="53"/>
+      <c r="A619" s="54"/>
       <c r="B619" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="53"/>
+      <c r="A620" s="54"/>
       <c r="B620" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="53"/>
+      <c r="A621" s="54"/>
       <c r="B621" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="53"/>
+      <c r="A622" s="54"/>
       <c r="B622" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="53"/>
+      <c r="A623" s="54"/>
       <c r="B623" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="53"/>
+      <c r="A624" s="54"/>
       <c r="B624" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="53"/>
+      <c r="A625" s="54"/>
       <c r="B625" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="53"/>
+      <c r="A626" s="54"/>
       <c r="B626" s="34" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="53"/>
+      <c r="A627" s="54"/>
       <c r="B627" s="7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="53"/>
+      <c r="A628" s="54"/>
       <c r="B628" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="53"/>
+      <c r="A629" s="54"/>
       <c r="B629" s="7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="53"/>
+      <c r="A630" s="54"/>
       <c r="B630" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="53"/>
+      <c r="A631" s="54"/>
       <c r="B631" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="53"/>
+      <c r="A632" s="54"/>
       <c r="B632" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="53"/>
+      <c r="A633" s="54"/>
       <c r="B633" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="53"/>
+      <c r="A634" s="54"/>
       <c r="B634" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="54"/>
+      <c r="A635" s="55"/>
       <c r="B635" s="42"/>
     </row>
     <row r="636" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="637" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="52" t="s">
+      <c r="A637" s="53" t="s">
         <v>481</v>
       </c>
       <c r="B637" s="31" t="s">
@@ -41973,46 +42471,46 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="53"/>
+      <c r="A638" s="54"/>
       <c r="B638" s="40"/>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="53"/>
+      <c r="A639" s="54"/>
       <c r="B639" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="53"/>
+      <c r="A640" s="54"/>
       <c r="B640" s="34" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="53"/>
+      <c r="A641" s="54"/>
       <c r="B641" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="53"/>
+      <c r="A642" s="54"/>
       <c r="B642" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="53"/>
+      <c r="A643" s="54"/>
       <c r="B643" s="11" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="54"/>
+      <c r="A644" s="55"/>
       <c r="B644" s="42"/>
     </row>
     <row r="645" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="52" t="s">
+      <c r="A646" s="53" t="s">
         <v>487</v>
       </c>
       <c r="B646" s="31" t="s">
@@ -42020,28 +42518,28 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="53"/>
+      <c r="A647" s="54"/>
       <c r="B647" s="40"/>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="53"/>
+      <c r="A648" s="54"/>
       <c r="B648" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="53"/>
+      <c r="A649" s="54"/>
       <c r="B649" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="54"/>
+      <c r="A650" s="55"/>
       <c r="B650" s="42"/>
     </row>
     <row r="651" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="652" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="52" t="s">
+      <c r="A652" s="53" t="s">
         <v>491</v>
       </c>
       <c r="B652" s="31" t="s">
@@ -42049,80 +42547,80 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="53"/>
+      <c r="A653" s="54"/>
       <c r="B653" s="40"/>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="53"/>
+      <c r="A654" s="54"/>
       <c r="B654" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="53"/>
+      <c r="A655" s="54"/>
       <c r="B655" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="53"/>
+      <c r="A656" s="54"/>
       <c r="B656" s="34" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="53"/>
+      <c r="A657" s="54"/>
       <c r="B657" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="53"/>
+      <c r="A658" s="54"/>
       <c r="B658" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="53"/>
+      <c r="A659" s="54"/>
       <c r="B659" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="53"/>
+      <c r="A660" s="54"/>
       <c r="B660" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="53"/>
+      <c r="A661" s="54"/>
       <c r="B661" s="11"/>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="53"/>
+      <c r="A662" s="54"/>
       <c r="B662" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="53"/>
+      <c r="A663" s="54"/>
       <c r="B663" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="53"/>
+      <c r="A664" s="54"/>
       <c r="B664" s="36" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A665" s="54"/>
+      <c r="A665" s="55"/>
       <c r="B665" s="42"/>
     </row>
     <row r="666" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="667" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="52" t="s">
+      <c r="A667" s="53" t="s">
         <v>505</v>
       </c>
       <c r="B667" s="31" t="s">
@@ -42130,34 +42628,34 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="53"/>
+      <c r="A668" s="54"/>
       <c r="B668" s="40"/>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="53"/>
+      <c r="A669" s="54"/>
       <c r="B669" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="53"/>
+      <c r="A670" s="54"/>
       <c r="B670" s="34" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="53"/>
+      <c r="A671" s="54"/>
       <c r="B671" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="54"/>
+      <c r="A672" s="55"/>
       <c r="B672" s="42"/>
     </row>
     <row r="673" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="674" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="52" t="s">
+      <c r="A674" s="53" t="s">
         <v>506</v>
       </c>
       <c r="B674" s="31" t="s">
@@ -42165,64 +42663,64 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="53"/>
+      <c r="A675" s="54"/>
       <c r="B675" s="40"/>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="53"/>
+      <c r="A676" s="54"/>
       <c r="B676" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="53"/>
+      <c r="A677" s="54"/>
       <c r="B677" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="53"/>
+      <c r="A678" s="54"/>
       <c r="B678" s="34" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="53"/>
+      <c r="A679" s="54"/>
       <c r="B679" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="53"/>
+      <c r="A680" s="54"/>
       <c r="B680" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="53"/>
+      <c r="A681" s="54"/>
       <c r="B681" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="53"/>
+      <c r="A682" s="54"/>
       <c r="B682" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="53"/>
+      <c r="A683" s="54"/>
       <c r="B683" s="11" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="54"/>
+      <c r="A684" s="55"/>
       <c r="B684" s="42"/>
     </row>
     <row r="685" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="686" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A686" s="52" t="s">
+      <c r="A686" s="53" t="s">
         <v>513</v>
       </c>
       <c r="B686" s="31" t="s">
@@ -42230,86 +42728,86 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="53"/>
+      <c r="A687" s="54"/>
       <c r="B687" s="40"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="53"/>
+      <c r="A688" s="54"/>
       <c r="B688" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="53"/>
+      <c r="A689" s="54"/>
       <c r="B689" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="53"/>
+      <c r="A690" s="54"/>
       <c r="B690" s="11" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="53"/>
+      <c r="A691" s="54"/>
       <c r="B691" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="53"/>
+      <c r="A692" s="54"/>
       <c r="B692" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="53"/>
+      <c r="A693" s="54"/>
       <c r="B693" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="53"/>
+      <c r="A694" s="54"/>
       <c r="B694" s="34" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="53"/>
+      <c r="A695" s="54"/>
       <c r="B695" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="53"/>
+      <c r="A696" s="54"/>
       <c r="B696" s="11" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="53"/>
+      <c r="A697" s="54"/>
       <c r="B697" s="7"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="53"/>
+      <c r="A698" s="54"/>
       <c r="B698" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="53"/>
+      <c r="A699" s="54"/>
       <c r="B699" s="7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="54"/>
+      <c r="A700" s="55"/>
       <c r="B700" s="42"/>
     </row>
     <row r="701" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="702" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A702" s="52" t="s">
+      <c r="A702" s="53" t="s">
         <v>524</v>
       </c>
       <c r="B702" s="31" t="s">
@@ -42317,100 +42815,100 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="53"/>
+      <c r="A703" s="54"/>
       <c r="B703" s="40"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="53"/>
+      <c r="A704" s="54"/>
       <c r="B704" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="53"/>
+      <c r="A705" s="54"/>
       <c r="B705" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="53"/>
+      <c r="A706" s="54"/>
       <c r="B706" s="34" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="53"/>
+      <c r="A707" s="54"/>
       <c r="B707" s="7" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="53"/>
+      <c r="A708" s="54"/>
       <c r="B708" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="53"/>
+      <c r="A709" s="54"/>
       <c r="B709" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="53"/>
+      <c r="A710" s="54"/>
       <c r="B710" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="53"/>
+      <c r="A711" s="54"/>
       <c r="B711" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="53"/>
+      <c r="A712" s="54"/>
       <c r="B712" s="7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="53"/>
+      <c r="A713" s="54"/>
       <c r="B713" s="11" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="53"/>
+      <c r="A714" s="54"/>
       <c r="B714" s="34" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="53"/>
+      <c r="A715" s="54"/>
       <c r="B715" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="53"/>
+      <c r="A716" s="54"/>
       <c r="B716" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="53"/>
+      <c r="A717" s="54"/>
       <c r="B717" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A718" s="54"/>
+      <c r="A718" s="55"/>
       <c r="B718" s="42"/>
     </row>
     <row r="719" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="720" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="52" t="s">
+      <c r="A720" s="53" t="s">
         <v>537</v>
       </c>
       <c r="B720" s="31" t="s">
@@ -42418,204 +42916,204 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="53"/>
+      <c r="A721" s="54"/>
       <c r="B721" s="40"/>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="53"/>
+      <c r="A722" s="54"/>
       <c r="B722" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="53"/>
+      <c r="A723" s="54"/>
       <c r="B723" s="7"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="53"/>
+      <c r="A724" s="54"/>
       <c r="B724" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="53"/>
+      <c r="A725" s="54"/>
       <c r="B725" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="53"/>
+      <c r="A726" s="54"/>
       <c r="B726" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="53"/>
+      <c r="A727" s="54"/>
       <c r="B727" s="7" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="53"/>
+      <c r="A728" s="54"/>
       <c r="B728" s="34" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="53"/>
+      <c r="A729" s="54"/>
       <c r="B729" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="53"/>
+      <c r="A730" s="54"/>
       <c r="B730" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="53"/>
+      <c r="A731" s="54"/>
       <c r="B731" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="53"/>
+      <c r="A732" s="54"/>
       <c r="B732" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="53"/>
+      <c r="A733" s="54"/>
       <c r="B733" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="53"/>
+      <c r="A734" s="54"/>
       <c r="B734" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="53"/>
+      <c r="A735" s="54"/>
       <c r="B735" s="7"/>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="53"/>
+      <c r="A736" s="54"/>
       <c r="B736" s="40"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="53"/>
+      <c r="A737" s="54"/>
       <c r="B737" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="53"/>
+      <c r="A738" s="54"/>
       <c r="B738" s="7"/>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="53"/>
+      <c r="A739" s="54"/>
       <c r="B739" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="53"/>
+      <c r="A740" s="54"/>
       <c r="B740" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="53"/>
+      <c r="A741" s="54"/>
       <c r="B741" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="53"/>
+      <c r="A742" s="54"/>
       <c r="B742" s="7" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="53"/>
+      <c r="A743" s="54"/>
       <c r="B743" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="53"/>
+      <c r="A744" s="54"/>
       <c r="B744" s="34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="53"/>
+      <c r="A745" s="54"/>
       <c r="B745" s="7" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="53"/>
+      <c r="A746" s="54"/>
       <c r="B746" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="53"/>
+      <c r="A747" s="54"/>
       <c r="B747" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="53"/>
+      <c r="A748" s="54"/>
       <c r="B748" s="7"/>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="53"/>
+      <c r="A749" s="54"/>
       <c r="B749" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="53"/>
+      <c r="A750" s="54"/>
       <c r="B750" s="36" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="53"/>
+      <c r="A751" s="54"/>
       <c r="B751" s="36" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="53"/>
+      <c r="A752" s="54"/>
       <c r="B752" s="36" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="53"/>
+      <c r="A753" s="54"/>
       <c r="B753" s="36" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="53"/>
+      <c r="A754" s="54"/>
       <c r="B754" s="36" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A755" s="54"/>
+      <c r="A755" s="55"/>
       <c r="B755" s="49"/>
     </row>
     <row r="756" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="757" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A757" s="52" t="s">
+      <c r="A757" s="53" t="s">
         <v>556</v>
       </c>
       <c r="B757" s="31" t="s">
@@ -42623,94 +43121,94 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="53"/>
+      <c r="A758" s="54"/>
       <c r="B758" s="40"/>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="53"/>
+      <c r="A759" s="54"/>
       <c r="B759" s="34" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="53"/>
+      <c r="A760" s="54"/>
       <c r="B760" s="7" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="53"/>
+      <c r="A761" s="54"/>
       <c r="B761" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="53"/>
+      <c r="A762" s="54"/>
       <c r="B762" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="53"/>
+      <c r="A763" s="54"/>
       <c r="B763" s="34" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="53"/>
+      <c r="A764" s="54"/>
       <c r="B764" s="7" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="53"/>
+      <c r="A765" s="54"/>
       <c r="B765" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="53"/>
+      <c r="A766" s="54"/>
       <c r="B766" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="53"/>
+      <c r="A767" s="54"/>
       <c r="B767" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="53"/>
+      <c r="A768" s="54"/>
       <c r="B768" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="53"/>
+      <c r="A769" s="54"/>
       <c r="B769" s="7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="53"/>
+      <c r="A770" s="54"/>
       <c r="B770" s="11" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="53"/>
+      <c r="A771" s="54"/>
       <c r="B771" s="11" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A772" s="54"/>
+      <c r="A772" s="55"/>
       <c r="B772" s="42"/>
     </row>
     <row r="773" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="774" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A774" s="52" t="s">
+      <c r="A774" s="53" t="s">
         <v>569</v>
       </c>
       <c r="B774" s="31" t="s">
@@ -42718,100 +43216,100 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="53"/>
+      <c r="A775" s="54"/>
       <c r="B775" s="40"/>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="53"/>
+      <c r="A776" s="54"/>
       <c r="B776" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="53"/>
+      <c r="A777" s="54"/>
       <c r="B777" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="53"/>
+      <c r="A778" s="54"/>
       <c r="B778" s="34" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="53"/>
+      <c r="A779" s="54"/>
       <c r="B779" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="53"/>
+      <c r="A780" s="54"/>
       <c r="B780" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="53"/>
+      <c r="A781" s="54"/>
       <c r="B781" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="53"/>
+      <c r="A782" s="54"/>
       <c r="B782" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="53"/>
+      <c r="A783" s="54"/>
       <c r="B783" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="53"/>
+      <c r="A784" s="54"/>
       <c r="B784" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="53"/>
+      <c r="A785" s="54"/>
       <c r="B785" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="53"/>
+      <c r="A786" s="54"/>
       <c r="B786" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="53"/>
+      <c r="A787" s="54"/>
       <c r="B787" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="53"/>
+      <c r="A788" s="54"/>
       <c r="B788" s="11" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="53"/>
+      <c r="A789" s="54"/>
       <c r="B789" s="11" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A790" s="54"/>
+      <c r="A790" s="55"/>
       <c r="B790" s="42"/>
     </row>
     <row r="791" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="792" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A792" s="52" t="s">
+      <c r="A792" s="53" t="s">
         <v>584</v>
       </c>
       <c r="B792" s="31" t="s">
@@ -42819,164 +43317,164 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="53"/>
+      <c r="A793" s="54"/>
       <c r="B793" s="40"/>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="53"/>
+      <c r="A794" s="54"/>
       <c r="B794" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="53"/>
+      <c r="A795" s="54"/>
       <c r="B795" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="53"/>
+      <c r="A796" s="54"/>
       <c r="B796" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="53"/>
+      <c r="A797" s="54"/>
       <c r="B797" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="53"/>
+      <c r="A798" s="54"/>
       <c r="B798" s="34" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="53"/>
+      <c r="A799" s="54"/>
       <c r="B799" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="53"/>
+      <c r="A800" s="54"/>
       <c r="B800" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="53"/>
+      <c r="A801" s="54"/>
       <c r="B801" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="53"/>
+      <c r="A802" s="54"/>
       <c r="B802" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="53"/>
+      <c r="A803" s="54"/>
       <c r="B803" s="7" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="53"/>
+      <c r="A804" s="54"/>
       <c r="B804" s="7" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="53"/>
+      <c r="A805" s="54"/>
       <c r="B805" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="53"/>
+      <c r="A806" s="54"/>
       <c r="B806" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="53"/>
+      <c r="A807" s="54"/>
       <c r="B807" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="53"/>
+      <c r="A808" s="54"/>
       <c r="B808" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="53"/>
+      <c r="A809" s="54"/>
       <c r="B809" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="53"/>
+      <c r="A810" s="54"/>
       <c r="B810" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="53"/>
+      <c r="A811" s="54"/>
       <c r="B811" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="53"/>
+      <c r="A812" s="54"/>
       <c r="B812" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="53"/>
+      <c r="A813" s="54"/>
       <c r="B813" s="11" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="53"/>
+      <c r="A814" s="54"/>
       <c r="B814" s="11" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="53"/>
+      <c r="A815" s="54"/>
       <c r="B815" s="11" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" s="53"/>
+      <c r="A816" s="54"/>
       <c r="B816" s="7"/>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" s="53"/>
+      <c r="A817" s="54"/>
       <c r="B817" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="53"/>
+      <c r="A818" s="54"/>
       <c r="B818" s="36" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A819" s="54"/>
+      <c r="A819" s="55"/>
       <c r="B819" s="42"/>
     </row>
     <row r="820" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="821" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A821" s="52" t="s">
+      <c r="A821" s="53" t="s">
         <v>607</v>
       </c>
       <c r="B821" s="31" t="s">
@@ -42984,56 +43482,56 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" s="53"/>
+      <c r="A822" s="54"/>
       <c r="B822" s="40"/>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" s="53"/>
+      <c r="A823" s="54"/>
       <c r="B823" s="7" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="53"/>
+      <c r="A824" s="54"/>
       <c r="B824" s="34" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" s="53"/>
+      <c r="A825" s="54"/>
       <c r="B825" s="7" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" s="53"/>
+      <c r="A826" s="54"/>
       <c r="B826" s="11" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" s="53"/>
+      <c r="A827" s="54"/>
       <c r="B827" s="7"/>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" s="53"/>
+      <c r="A828" s="54"/>
       <c r="B828" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="53"/>
+      <c r="A829" s="54"/>
       <c r="B829" s="36" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="54"/>
+      <c r="A830" s="55"/>
       <c r="B830" s="49"/>
     </row>
     <row r="831" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="832" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A832" s="52" t="s">
+      <c r="A832" s="53" t="s">
         <v>614</v>
       </c>
       <c r="B832" s="31" t="s">
@@ -43041,146 +43539,146 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" s="53"/>
+      <c r="A833" s="54"/>
       <c r="B833" s="40"/>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" s="53"/>
+      <c r="A834" s="54"/>
       <c r="B834" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="53"/>
+      <c r="A835" s="54"/>
       <c r="B835" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="53"/>
+      <c r="A836" s="54"/>
       <c r="B836" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" s="53"/>
+      <c r="A837" s="54"/>
       <c r="B837" s="11" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" s="53"/>
+      <c r="A838" s="54"/>
       <c r="B838" s="11" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" s="53"/>
+      <c r="A839" s="54"/>
       <c r="B839" s="11" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" s="53"/>
+      <c r="A840" s="54"/>
       <c r="B840" s="7" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="53"/>
+      <c r="A841" s="54"/>
       <c r="B841" s="7" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" s="53"/>
+      <c r="A842" s="54"/>
       <c r="B842" s="34" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" s="53"/>
+      <c r="A843" s="54"/>
       <c r="B843" s="7" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" s="53"/>
+      <c r="A844" s="54"/>
       <c r="B844" s="7" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" s="53"/>
+      <c r="A845" s="54"/>
       <c r="B845" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="53"/>
+      <c r="A846" s="54"/>
       <c r="B846" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" s="53"/>
+      <c r="A847" s="54"/>
       <c r="B847" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" s="53"/>
+      <c r="A848" s="54"/>
       <c r="B848" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" s="53"/>
+      <c r="A849" s="54"/>
       <c r="B849" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="53"/>
+      <c r="A850" s="54"/>
       <c r="B850" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="53"/>
+      <c r="A851" s="54"/>
       <c r="B851" s="7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="53"/>
+      <c r="A852" s="54"/>
       <c r="B852" s="11" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" s="53"/>
+      <c r="A853" s="54"/>
       <c r="B853" s="11"/>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" s="53"/>
+      <c r="A854" s="54"/>
       <c r="B854" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="53"/>
+      <c r="A855" s="54"/>
       <c r="B855" s="36" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A856" s="54"/>
+      <c r="A856" s="55"/>
       <c r="B856" s="42"/>
     </row>
     <row r="857" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="858" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A858" s="52" t="s">
+      <c r="A858" s="53" t="s">
         <v>633</v>
       </c>
       <c r="B858" s="31" t="s">
@@ -43188,266 +43686,266 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A859" s="53"/>
+      <c r="A859" s="54"/>
       <c r="B859" s="40"/>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="53"/>
+      <c r="A860" s="54"/>
       <c r="B860" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="53"/>
+      <c r="A861" s="54"/>
       <c r="B861" s="7" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" s="53"/>
+      <c r="A862" s="54"/>
       <c r="B862" s="7" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" s="53"/>
+      <c r="A863" s="54"/>
       <c r="B863" s="7" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" s="53"/>
+      <c r="A864" s="54"/>
       <c r="B864" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="53"/>
+      <c r="A865" s="54"/>
       <c r="B865" s="7" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="53"/>
+      <c r="A866" s="54"/>
       <c r="B866" s="34" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A867" s="53"/>
+      <c r="A867" s="54"/>
       <c r="B867" s="7" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="53"/>
+      <c r="A868" s="54"/>
       <c r="B868" s="45" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="53"/>
+      <c r="A869" s="54"/>
       <c r="B869" s="45" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="53"/>
+      <c r="A870" s="54"/>
       <c r="B870" s="45" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="53"/>
+      <c r="A871" s="54"/>
       <c r="B871" s="45" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="53"/>
+      <c r="A872" s="54"/>
       <c r="B872" s="45" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="53"/>
+      <c r="A873" s="54"/>
       <c r="B873" s="7" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="53"/>
+      <c r="A874" s="54"/>
       <c r="B874" s="7" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="53"/>
+      <c r="A875" s="54"/>
       <c r="B875" s="7" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="53"/>
+      <c r="A876" s="54"/>
       <c r="B876" s="7" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="53"/>
+      <c r="A877" s="54"/>
       <c r="B877" s="7" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="53"/>
+      <c r="A878" s="54"/>
       <c r="B878" s="7" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A879" s="53"/>
+      <c r="A879" s="54"/>
       <c r="B879" s="7" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="53"/>
+      <c r="A880" s="54"/>
       <c r="B880" s="7" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="53"/>
+      <c r="A881" s="54"/>
       <c r="B881" s="7" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A882" s="53"/>
+      <c r="A882" s="54"/>
       <c r="B882" s="7" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A883" s="53"/>
+      <c r="A883" s="54"/>
       <c r="B883" s="7" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="53"/>
+      <c r="A884" s="54"/>
       <c r="B884" s="7" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A885" s="53"/>
+      <c r="A885" s="54"/>
       <c r="B885" s="7" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A886" s="53"/>
+      <c r="A886" s="54"/>
       <c r="B886" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="53"/>
+      <c r="A887" s="54"/>
       <c r="B887" s="7" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A888" s="53"/>
+      <c r="A888" s="54"/>
       <c r="B888" s="7" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" s="53"/>
+      <c r="A889" s="54"/>
       <c r="B889" s="7" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="53"/>
+      <c r="A890" s="54"/>
       <c r="B890" s="7" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A891" s="53"/>
+      <c r="A891" s="54"/>
       <c r="B891" s="7" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A892" s="53"/>
+      <c r="A892" s="54"/>
       <c r="B892" s="7" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="53"/>
+      <c r="A893" s="54"/>
       <c r="B893" s="7" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" s="53"/>
+      <c r="A894" s="54"/>
       <c r="B894" s="7" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A895" s="53"/>
+      <c r="A895" s="54"/>
       <c r="B895" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="53"/>
+      <c r="A896" s="54"/>
       <c r="B896" s="7" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A897" s="53"/>
+      <c r="A897" s="54"/>
       <c r="B897" s="7" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A898" s="53"/>
+      <c r="A898" s="54"/>
       <c r="B898" s="7" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="53"/>
+      <c r="A899" s="54"/>
       <c r="B899" s="11" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A900" s="53"/>
+      <c r="A900" s="54"/>
       <c r="B900" s="11" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A901" s="53"/>
+      <c r="A901" s="54"/>
       <c r="B901" s="11"/>
     </row>
     <row r="902" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A902" s="54"/>
+      <c r="A902" s="55"/>
       <c r="B902" s="42"/>
     </row>
     <row r="903" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="904" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="52" t="s">
+      <c r="A904" s="53" t="s">
         <v>673</v>
       </c>
       <c r="B904" s="31" t="s">
@@ -43455,194 +43953,194 @@
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="53"/>
+      <c r="A905" s="54"/>
       <c r="B905" s="40"/>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A906" s="53"/>
+      <c r="A906" s="54"/>
       <c r="B906" s="51" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A907" s="53"/>
+      <c r="A907" s="54"/>
       <c r="B907" s="7"/>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="53"/>
+      <c r="A908" s="54"/>
       <c r="B908" s="34" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" s="53"/>
+      <c r="A909" s="54"/>
       <c r="B909" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="53"/>
+      <c r="A910" s="54"/>
       <c r="B910" s="7" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" s="53"/>
+      <c r="A911" s="54"/>
       <c r="B911" s="11" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A912" s="53"/>
+      <c r="A912" s="54"/>
       <c r="B912" s="11"/>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A913" s="53"/>
+      <c r="A913" s="54"/>
       <c r="B913" s="50"/>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" s="53"/>
+      <c r="A914" s="54"/>
       <c r="B914" s="51" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A915" s="53"/>
+      <c r="A915" s="54"/>
       <c r="B915" s="43"/>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A916" s="53"/>
+      <c r="A916" s="54"/>
       <c r="B916" s="7" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" s="53"/>
+      <c r="A917" s="54"/>
       <c r="B917" s="7" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A918" s="53"/>
+      <c r="A918" s="54"/>
       <c r="B918" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A919" s="53"/>
+      <c r="A919" s="54"/>
       <c r="B919" s="11" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A920" s="53"/>
+      <c r="A920" s="54"/>
       <c r="B920" s="34" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A921" s="53"/>
+      <c r="A921" s="54"/>
       <c r="B921" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A922" s="53"/>
+      <c r="A922" s="54"/>
       <c r="B922" s="7" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A923" s="53"/>
+      <c r="A923" s="54"/>
       <c r="B923" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A924" s="53"/>
+      <c r="A924" s="54"/>
       <c r="B924" s="7" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A925" s="53"/>
+      <c r="A925" s="54"/>
       <c r="B925" s="11" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A926" s="53"/>
+      <c r="A926" s="54"/>
       <c r="B926" s="11"/>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" s="53"/>
+      <c r="A927" s="54"/>
       <c r="B927" s="50"/>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A928" s="53"/>
+      <c r="A928" s="54"/>
       <c r="B928" s="51" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A929" s="53"/>
+      <c r="A929" s="54"/>
       <c r="B929" s="43"/>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A930" s="53"/>
+      <c r="A930" s="54"/>
       <c r="B930" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A931" s="53"/>
+      <c r="A931" s="54"/>
       <c r="B931" s="11" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A932" s="53"/>
+      <c r="A932" s="54"/>
       <c r="B932" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" s="53"/>
+      <c r="A933" s="54"/>
       <c r="B933" s="34" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" s="53"/>
+      <c r="A934" s="54"/>
       <c r="B934" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" s="53"/>
+      <c r="A935" s="54"/>
       <c r="B935" s="7" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A936" s="53"/>
+      <c r="A936" s="54"/>
       <c r="B936" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A937" s="53"/>
+      <c r="A937" s="54"/>
       <c r="B937" s="11" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A938" s="54"/>
+      <c r="A938" s="55"/>
       <c r="B938" s="42"/>
     </row>
     <row r="939" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="940" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A940" s="52" t="s">
+      <c r="A940" s="53" t="s">
         <v>694</v>
       </c>
       <c r="B940" s="31" t="s">
@@ -43650,104 +44148,104 @@
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A941" s="53"/>
+      <c r="A941" s="54"/>
       <c r="B941" s="40"/>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A942" s="53"/>
+      <c r="A942" s="54"/>
       <c r="B942" s="11" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A943" s="53"/>
+      <c r="A943" s="54"/>
       <c r="B943" s="11" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" s="53"/>
+      <c r="A944" s="54"/>
       <c r="B944" s="11" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" s="53"/>
+      <c r="A945" s="54"/>
       <c r="B945" s="7" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A946" s="53"/>
+      <c r="A946" s="54"/>
       <c r="B946" s="7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" s="53"/>
+      <c r="A947" s="54"/>
       <c r="B947" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A948" s="53"/>
+      <c r="A948" s="54"/>
       <c r="B948" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A949" s="53"/>
+      <c r="A949" s="54"/>
       <c r="B949" s="34" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" s="53"/>
+      <c r="A950" s="54"/>
       <c r="B950" s="7" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A951" s="53"/>
+      <c r="A951" s="54"/>
       <c r="B951" s="7" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A952" s="53"/>
+      <c r="A952" s="54"/>
       <c r="B952" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" s="53"/>
+      <c r="A953" s="54"/>
       <c r="B953" s="11" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" s="53"/>
+      <c r="A954" s="54"/>
       <c r="B954" s="7"/>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A955" s="53"/>
+      <c r="A955" s="54"/>
       <c r="B955" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A956" s="53"/>
+      <c r="A956" s="54"/>
       <c r="B956" s="36" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="957" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A957" s="54"/>
+      <c r="A957" s="55"/>
       <c r="B957" s="42"/>
     </row>
     <row r="958" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="959" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A959" s="52" t="s">
+      <c r="A959" s="53" t="s">
         <v>708</v>
       </c>
       <c r="B959" s="31" t="s">
@@ -43755,244 +44253,404 @@
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A960" s="53"/>
+      <c r="A960" s="54"/>
       <c r="B960" s="40"/>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A961" s="53"/>
+      <c r="A961" s="54"/>
       <c r="B961" s="11" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A962" s="53"/>
+      <c r="A962" s="54"/>
       <c r="B962" s="11" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A963" s="53"/>
+      <c r="A963" s="54"/>
       <c r="B963" s="11" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A964" s="53"/>
+      <c r="A964" s="54"/>
       <c r="B964" s="7" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A965" s="53"/>
+      <c r="A965" s="54"/>
       <c r="B965" s="7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A966" s="53"/>
+      <c r="A966" s="54"/>
       <c r="B966" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A967" s="53"/>
+      <c r="A967" s="54"/>
       <c r="B967" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A968" s="53"/>
+      <c r="A968" s="54"/>
       <c r="B968" s="7" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" s="53"/>
+      <c r="A969" s="54"/>
       <c r="B969" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" s="53"/>
+      <c r="A970" s="54"/>
       <c r="B970" s="34" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A971" s="53"/>
+      <c r="A971" s="54"/>
       <c r="B971" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A972" s="53"/>
+      <c r="A972" s="54"/>
       <c r="B972" s="7" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A973" s="53"/>
+      <c r="A973" s="54"/>
       <c r="B973" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A974" s="53"/>
+      <c r="A974" s="54"/>
       <c r="B974" s="7" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A975" s="53"/>
+      <c r="A975" s="54"/>
       <c r="B975" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" s="53"/>
+      <c r="A976" s="54"/>
       <c r="B976" s="7" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A977" s="53"/>
+      <c r="A977" s="54"/>
       <c r="B977" s="7" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A978" s="53"/>
+      <c r="A978" s="54"/>
       <c r="B978" s="11" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="979" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A979" s="54"/>
+      <c r="A979" s="55"/>
       <c r="B979" s="42"/>
     </row>
     <row r="980" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B980" s="56"/>
+      <c r="B980" s="52"/>
     </row>
     <row r="981" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A981" s="52" t="s">
+      <c r="A981" s="53" t="s">
         <v>721</v>
       </c>
-      <c r="B981" s="55" t="s">
+      <c r="B981" s="56" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A982" s="53"/>
+      <c r="A982" s="54"/>
       <c r="B982" s="40"/>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A983" s="53"/>
+      <c r="A983" s="54"/>
       <c r="B983" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A984" s="53"/>
+      <c r="A984" s="54"/>
       <c r="B984" s="11" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A985" s="53"/>
+      <c r="A985" s="54"/>
       <c r="B985" s="11" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A986" s="53"/>
+      <c r="A986" s="54"/>
       <c r="B986" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A987" s="53"/>
+      <c r="A987" s="54"/>
       <c r="B987" s="7" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A988" s="53"/>
+      <c r="A988" s="54"/>
       <c r="B988" s="7" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A989" s="53"/>
+      <c r="A989" s="54"/>
       <c r="B989" s="11" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A990" s="53"/>
+      <c r="A990" s="54"/>
       <c r="B990" s="11" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A991" s="53"/>
+      <c r="A991" s="54"/>
       <c r="B991" s="7" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A992" s="53"/>
+      <c r="A992" s="54"/>
       <c r="B992" s="34" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A993" s="53"/>
+      <c r="A993" s="54"/>
       <c r="B993" s="7" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A994" s="53"/>
+      <c r="A994" s="54"/>
       <c r="B994" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A995" s="53"/>
+      <c r="A995" s="54"/>
       <c r="B995" s="7" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A996" s="53"/>
+      <c r="A996" s="54"/>
       <c r="B996" s="7" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A997" s="53"/>
+      <c r="A997" s="54"/>
       <c r="B997" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A998" s="53"/>
+      <c r="A998" s="54"/>
       <c r="B998" s="11" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A999" s="53"/>
+      <c r="A999" s="54"/>
       <c r="B999" s="11" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="54"/>
+      <c r="A1000" s="55"/>
       <c r="B1000" s="42"/>
     </row>
+    <row r="1001" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1001" s="52"/>
+    </row>
+    <row r="1002" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="53" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1002" s="57" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" s="54"/>
+      <c r="B1003" s="40"/>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="54"/>
+      <c r="B1004" s="58" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="54"/>
+      <c r="B1005" s="58" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="54"/>
+      <c r="B1006" s="58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" s="54"/>
+      <c r="B1007" s="59" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" s="54"/>
+      <c r="B1008" s="58" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" s="54"/>
+      <c r="B1009" s="58" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" s="54"/>
+      <c r="B1010" s="58" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" s="54"/>
+      <c r="B1011" s="58" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" s="54"/>
+      <c r="B1012" s="58" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" s="54"/>
+      <c r="B1013" s="58" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" s="54"/>
+      <c r="B1014" s="58" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" s="54"/>
+      <c r="B1015" s="60" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" s="54"/>
+      <c r="B1016" s="7"/>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" s="54"/>
+      <c r="B1017" s="7"/>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" s="54"/>
+      <c r="B1018" s="7"/>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" s="54"/>
+      <c r="B1019" s="11"/>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" s="54"/>
+      <c r="B1020" s="11"/>
+    </row>
+    <row r="1021" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1021" s="55"/>
+      <c r="B1021" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="65">
+    <mergeCell ref="A1002:A1021"/>
+    <mergeCell ref="A959:A979"/>
+    <mergeCell ref="A940:A957"/>
+    <mergeCell ref="A858:A902"/>
+    <mergeCell ref="A832:A856"/>
+    <mergeCell ref="A792:A819"/>
+    <mergeCell ref="A904:A938"/>
+    <mergeCell ref="A821:A830"/>
+    <mergeCell ref="A674:A684"/>
+    <mergeCell ref="A702:A718"/>
+    <mergeCell ref="A523:A544"/>
+    <mergeCell ref="A667:A672"/>
+    <mergeCell ref="A646:A650"/>
+    <mergeCell ref="A586:A635"/>
+    <mergeCell ref="A546:A561"/>
+    <mergeCell ref="A774:A790"/>
+    <mergeCell ref="A276:A295"/>
+    <mergeCell ref="A356:A364"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A311:A318"/>
+    <mergeCell ref="A490:A501"/>
+    <mergeCell ref="A454:A465"/>
+    <mergeCell ref="A467:A488"/>
+    <mergeCell ref="A297:A309"/>
+    <mergeCell ref="A503:A521"/>
+    <mergeCell ref="A652:A665"/>
+    <mergeCell ref="A757:A772"/>
+    <mergeCell ref="A720:A755"/>
+    <mergeCell ref="A686:A700"/>
+    <mergeCell ref="A563:A584"/>
+    <mergeCell ref="A637:A644"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A174:A187"/>
+    <mergeCell ref="A159:A172"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="A134:A144"/>
     <mergeCell ref="A981:A1000"/>
     <mergeCell ref="A111:A116"/>
     <mergeCell ref="A217:A228"/>
@@ -44009,54 +44667,6 @@
     <mergeCell ref="A239:A246"/>
     <mergeCell ref="A198:A215"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A189:A196"/>
-    <mergeCell ref="A174:A187"/>
-    <mergeCell ref="A159:A172"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A774:A790"/>
-    <mergeCell ref="A276:A295"/>
-    <mergeCell ref="A356:A364"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="A490:A501"/>
-    <mergeCell ref="A454:A465"/>
-    <mergeCell ref="A467:A488"/>
-    <mergeCell ref="A297:A309"/>
-    <mergeCell ref="A503:A521"/>
-    <mergeCell ref="A652:A665"/>
-    <mergeCell ref="A757:A772"/>
-    <mergeCell ref="A720:A755"/>
-    <mergeCell ref="A686:A700"/>
-    <mergeCell ref="A563:A584"/>
-    <mergeCell ref="A637:A644"/>
-    <mergeCell ref="A674:A684"/>
-    <mergeCell ref="A702:A718"/>
-    <mergeCell ref="A523:A544"/>
-    <mergeCell ref="A667:A672"/>
-    <mergeCell ref="A64